--- a/Docs/InsertLocalizationText-v2.xlsx
+++ b/Docs/InsertLocalizationText-v2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="-195" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="5415" yWindow="-195" windowWidth="18735" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="en-us" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="num" sheetId="2" r:id="rId3"/>
     <sheet name="Plan3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -484,8 +484,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,7 +540,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,9 +578,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,9 +612,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,9 +647,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -821,14 +823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N327"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="F338" sqref="F338:F344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
@@ -839,7 +841,7 @@
     <col min="7" max="7" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1001</v>
       </c>
@@ -865,7 +867,7 @@
         <v>'</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -887,7 +889,7 @@
         <v>insert into sysLocalizationText Values(1002,'1002',     'Validation-Error',    'Data validation error.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -909,7 +911,7 @@
         <v>insert into sysLocalizationText Values(1003,'1003',     'Record-NotFound',    'The requested record was not found.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1004</v>
       </c>
@@ -931,7 +933,7 @@
         <v>insert into sysLocalizationText Values(1004,'1004',     'Login-Invalid-Password',    'Invalid password. You still have 0 attempts before the account is deactivated.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1005</v>
       </c>
@@ -953,7 +955,7 @@
         <v>insert into sysLocalizationText Values(1005,'1005',     'Login-Attempts',    'You have already used access attempts and the account has been disabled. Request activation.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1006</v>
       </c>
@@ -975,7 +977,7 @@
         <v>insert into sysLocalizationText Values(1006,'1006',     'Login-Inactive-Account',    'The account associated with the User is not active. Request account activation.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1007</v>
       </c>
@@ -997,7 +999,7 @@
         <v>insert into sysLocalizationText Values(1007,'1007',     'Login-Locked-Account',    'The account associated with the User is locked out. Contact your system administrator.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1008</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>insert into sysLocalizationText Values(1008,'1008',     'Login-User-NotFound',    'User not found.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1009</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>insert into sysLocalizationText Values(1009,'1009',     'User-Exists',    'There is already a user with the email',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1010</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>insert into sysLocalizationText Values(1010,'1010',     'Email-Exists',    'The email you entered already exists.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1011</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>insert into sysLocalizationText Values(1011,'1011',     'Profile-NotBe-Null',    'The Profile cannot be null.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1012</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>insert into sysLocalizationText Values(1012,'1012',     'User-Error-Exclude-Childs',    'There was an error deleting child items (Roles).',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1013</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>insert into sysLocalizationText Values(1013,'1013',     'User-Invalid-Password-Code',    'The password exchange authorization code is invalid.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1014</v>
       </c>
@@ -1151,7 +1153,7 @@
         <v>insert into sysLocalizationText Values(1014,'1014',     'Account-Active',    'The account associated with the User is already active.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1015</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>insert into sysLocalizationText Values(1015,'1015',     'User-Invalid-Activation-Code',    'The activation authorization code is invalid.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1016</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>insert into sysLocalizationText Values(1016,'1016',     'User-No-Image',    'Send the image file.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1017</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>insert into sysLocalizationText Values(1017,'1017',     'User-Role-Exists',    'This Role is already associated with the user.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1018</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>insert into sysLocalizationText Values(1018,'1018',     'User-Role-No-Exists',    'This Role does not belong to the user.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1019</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>insert into sysLocalizationText Values(1019,'1019',     'Http-Unauthorized',    'Unauthorized access',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1020</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>insert into sysLocalizationText Values(1020,'1020',     'Http-NotFound',    'The resource could not be found',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1021</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>insert into sysLocalizationText Values(1021,'1021',     'Http-Forbidden',    'User profile without access permission.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1022</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>insert into sysLocalizationText Values(1022,'1022',     'Http-500Error',    'An error occurred in the processing of the request.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1023</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>insert into sysLocalizationText Values(1023,'1023',     'Http-ServiceUnavailable',    'The requested service is unavailable.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1024</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>insert into sysLocalizationText Values(1024,'1024',     'API-Unexpected-Exception',    'Unexpected error not identified GetInnerExceptions@f2]',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1025</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>insert into sysLocalizationText Values(1025,'1025',     'ShortDayName-1',    'Sun',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1026</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>insert into sysLocalizationText Values(1026,'1026',     'ShortDayName-2',    'Mon',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1027</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>insert into sysLocalizationText Values(1027,'1027',     'ShortDayName-3',    'Tue',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1028</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>insert into sysLocalizationText Values(1028,'1028',     'ShortDayName-4',    'Wed',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1029</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>insert into sysLocalizationText Values(1029,'1029',     'ShortDayName-5',    'Thu',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1030</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>insert into sysLocalizationText Values(1030,'1030',     'ShortDayName-6',    'Fri',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1031</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>insert into sysLocalizationText Values(1031,'1031',     'ShortDayName-7',    'Sat'  ,getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1032</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>insert into sysLocalizationText Values(1032,'1032',     'MonthName-1',    'JANUARY',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1033</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>insert into sysLocalizationText Values(1033,'1033',     'MonthName-2',    'FEBRUARY',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1034</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>insert into sysLocalizationText Values(1034,'1034',     'MonthName-3',    'MARCH',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1035</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>insert into sysLocalizationText Values(1035,'1035',     'MonthName-4',    'APRIL',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1036</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>insert into sysLocalizationText Values(1036,'1036',     'MonthName-5',    'MAY',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1037</v>
       </c>
@@ -1657,7 +1659,7 @@
         <v>insert into sysLocalizationText Values(1037,'1037',     'MonthName-6',    'JUNE',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1038</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>insert into sysLocalizationText Values(1038,'1038',     'MonthName-7',    'JULY',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1039</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>insert into sysLocalizationText Values(1039,'1039',     'MonthName-8',    'AUGUST',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1040</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>insert into sysLocalizationText Values(1040,'1040',     'MonthName-9',    'SEPTEMBER',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1041</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>insert into sysLocalizationText Values(1041,'1041',     'MonthName-10',    'OCTOBER',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1042</v>
       </c>
@@ -1767,7 +1769,7 @@
         <v>insert into sysLocalizationText Values(1042,'1042',     'MonthName-11',    'NOVEMBER',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1043</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>insert into sysLocalizationText Values(1043,'1043',     'MonthName-12',    'DECEMBER',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1044</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>insert into sysLocalizationText Values(1044,'1044',     'Validation-NotNull',    'cannot be null.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1045</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>insert into sysLocalizationText Values(1045,'1045',     'Validation-Max-Characters',    'The {0} field cannot have more than 1 characters.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1046</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>insert into sysLocalizationText Values(1046,'1046',     'Validation-Invalid-Field',    'The {0} field is invalid.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1047</v>
       </c>
@@ -1877,7 +1879,7 @@
         <v>insert into sysLocalizationText Values(1047,'1047',     'Validation-Invalid-UserName',    'The {0} field is invalid. Do not use special characters or spaces.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1048</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>insert into sysLocalizationText Values(1048,'1048',     'Validation-Unique-Value',    'The {0} field is invalid. Value must be unique.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1049</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>insert into sysLocalizationText Values(1049,'1049',     'User-Instance-Exists',    'This Instance is already associated with the user.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1050</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>insert into sysLocalizationText Values(1050,'1050',     'User-Instance-No-Exists',    'This Instance does not belong to the user.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1051</v>
       </c>
@@ -1967,7 +1969,7 @@
         <v>insert into sysLocalizationText Values(1051,'1051','User-PageTitle','User Management',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1052</v>
       </c>
@@ -1991,7 +1993,7 @@
         <v>insert into sysLocalizationText Values(1052,'1052','SearchButtonLabel','Search',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1053</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>insert into sysLocalizationText Values(1053,'1053','SearchingLabel','Searching...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1054</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>insert into sysLocalizationText Values(1054,'1054','InsertingLoadingLabel','Inserting...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1055</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>insert into sysLocalizationText Values(1055,'1055','SearchResultLabel','Search Result',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1056</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>insert into sysLocalizationText Values(1056,'1056','DetailsLabel','Details',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1057</v>
       </c>
@@ -2111,7 +2113,7 @@
         <v>insert into sysLocalizationText Values(1057,'1057','NoRecordsFound','No records was found',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1058</v>
       </c>
@@ -2135,7 +2137,7 @@
         <v>insert into sysLocalizationText Values(1058,'1058','LoadingPage','Loading. Wait...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1059</v>
       </c>
@@ -2159,7 +2161,7 @@
         <v>insert into sysLocalizationText Values(1059,'1059','LoadingData','Loading Page. Wait...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1060</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>insert into sysLocalizationText Values(1060,'1060','ErrorOnExecuteSearch','Error on execute search',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1061</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>insert into sysLocalizationText Values(1061,'1061','ErrorOnReturnData','Error on return data',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1062</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>insert into sysLocalizationText Values(1062,'1062','ErrorOnCreateNewRecord','Error on create record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1063</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>insert into sysLocalizationText Values(1063,'1063','AfterSaveAnswering','The new record was created successfuly. Do you want inserting ?',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1064</v>
       </c>
@@ -2279,7 +2281,7 @@
         <v>insert into sysLocalizationText Values(1064,'1064','NoticeLabel','Notice',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1065</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>insert into sysLocalizationText Values(1065,'1065','SuccessLabel','Success',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1066</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>insert into sysLocalizationText Values(1066,'1066','SuccessSaveMessage','The record was saved successfuly.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1067</v>
       </c>
@@ -2351,7 +2353,7 @@
         <v>insert into sysLocalizationText Values(1067,'1067','Email-Label','E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1068</v>
       </c>
@@ -2375,7 +2377,7 @@
         <v>insert into sysLocalizationText Values(1068,'1068','UserName-Label','User Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1069</v>
       </c>
@@ -2399,7 +2401,7 @@
         <v>insert into sysLocalizationText Values(1069,'1069','Password-Label','Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1070</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>insert into sysLocalizationText Values(1070,'1070','Instance-Label','Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1071</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>insert into sysLocalizationText Values(1071,'1071','Role-Label','Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1072</v>
       </c>
@@ -2471,7 +2473,7 @@
         <v>insert into sysLocalizationText Values(1072,'1072','Yes-Text','Yes',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1073</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>insert into sysLocalizationText Values(1073,'1073','No-Text','No',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1074</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v>insert into sysLocalizationText Values(1074,'1074','Saving-Label','Saving...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1075</v>
       </c>
@@ -2543,7 +2545,7 @@
         <v>insert into sysLocalizationText Values(1075,'1075','Edit-Label','Edit',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -2567,7 +2569,7 @@
         <v>insert into sysLocalizationText Values(1076,'1076','Date-Label','Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1077</v>
       </c>
@@ -2591,7 +2593,7 @@
         <v>insert into sysLocalizationText Values(1077,'1077','Field-Label','Field',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1078</v>
       </c>
@@ -2615,7 +2617,7 @@
         <v>insert into sysLocalizationText Values(1078,'1078','Value-Label','Value',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1079</v>
       </c>
@@ -2639,7 +2641,7 @@
         <v>insert into sysLocalizationText Values(1079,'1079','SelectItem-Description','Select a item',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1080</v>
       </c>
@@ -2663,7 +2665,7 @@
         <v>insert into sysLocalizationText Values(1080,'1080','AllItem-Description','All',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1081</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>insert into sysLocalizationText Values(1081,'1081','Welcome-Label','Welcome to GW Template',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1082</v>
       </c>
@@ -2711,7 +2713,7 @@
         <v>insert into sysLocalizationText Values(1082,'1082','LoginTitle-Label','Sign In',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1083</v>
       </c>
@@ -2735,7 +2737,7 @@
         <v>insert into sysLocalizationText Values(1083,'1083','LoginTitle-Description','Enter your access credentials',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1084</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>insert into sysLocalizationText Values(1084,'1084','InputEmail-Description','Input your account e-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1085</v>
       </c>
@@ -2783,7 +2785,7 @@
         <v>insert into sysLocalizationText Values(1085,'1085','InputPassword-Description','Input your password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1086</v>
       </c>
@@ -2807,7 +2809,7 @@
         <v>insert into sysLocalizationText Values(1086,'1086','ForgetPassword-Description','Forgot your password ?',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1087</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>insert into sysLocalizationText Values(1087,'1087','LoginButton-Label','Confirm',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1088</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>insert into sysLocalizationText Values(1088,'1088','LoginLoading-Label','Entering...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1089</v>
       </c>
@@ -2879,7 +2881,7 @@
         <v>insert into sysLocalizationText Values(1089,'1089','SendText-Description','Sending...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1090</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>insert into sysLocalizationText Values(1090,'1090','ActiveAccountButton-Label','Activate Account',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1091</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>insert into sysLocalizationText Values(1091,'1091','ActiveAccount-Label','Account Activation',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1092</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>insert into sysLocalizationText Values(1092,'1092','ActiveAccount-Description','Cannot access ?',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1093</v>
       </c>
@@ -2975,7 +2977,7 @@
         <v>insert into sysLocalizationText Values(1093,'1093','ActiveAccount-Step1','Send the activation code to your registration email',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1094</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>insert into sysLocalizationText Values(1094,'1094','ActiveAccount-Step2','Enter the activation code received',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1095</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>insert into sysLocalizationText Values(1095,'1095','SendCodeButton-Label','Send code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1096</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>insert into sysLocalizationText Values(1096,'1096','ActiveLoading-Label','Request Activation',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1097</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>insert into sysLocalizationText Values(1097,'1097','InputCode-Description','Input code received on e-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1098</v>
       </c>
@@ -3095,7 +3097,7 @@
         <v>insert into sysLocalizationText Values(1098,'1098','Unlogged-Label','Not Logged',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1099</v>
       </c>
@@ -3119,7 +3121,7 @@
         <v>insert into sysLocalizationText Values(1099,'1099','MyProfile-Label','My Profile',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1100</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>insert into sysLocalizationText Values(1100,'1100','MainProfileData-Label','Main Info',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1101</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>insert into sysLocalizationText Values(1101,'1101','AlterPassword-Label','Change Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1102</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>insert into sysLocalizationText Values(1102,'1102','LanguageRole-Label','Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1103</v>
       </c>
@@ -3215,7 +3217,7 @@
         <v>insert into sysLocalizationText Values(1103,'1103','AlterProfileImage-Label','Change Profile Image',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1104</v>
       </c>
@@ -3239,7 +3241,7 @@
         <v>insert into sysLocalizationText Values(1104,'1104','AlterPasswordStep1-Label','Click on the link below to receive an email with the security code to change your password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1105</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>insert into sysLocalizationText Values(1105,'1105','AlterPasswordStep2-Label','After receiving the code, fill in the information below and click Change Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1106</v>
       </c>
@@ -3287,7 +3289,7 @@
         <v>insert into sysLocalizationText Values(1106,'1106','InputNewPassword-Label','Input the new password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1107</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>insert into sysLocalizationText Values(1107,'1107','AlterPasswordButton-Label','Change Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1108</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>insert into sysLocalizationText Values(1108,'1108','AlterPasswordButton-Loading','Changing password...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1109</v>
       </c>
@@ -3359,7 +3361,7 @@
         <v>insert into sysLocalizationText Values(1109,'1109','InvalidCredentials-Title','Invalid Credentiais',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1110</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>insert into sysLocalizationText Values(1110,'1110','InvalidCredentials-Message','E-mail or password invalid.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1111</v>
       </c>
@@ -3407,7 +3409,7 @@
         <v>insert into sysLocalizationText Values(1111,'1111','TemporaryPassword-Title','Temporary Password Sent',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1112</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>insert into sysLocalizationText Values(1112,'1112','TemporaryPassword-Message','A temporary password has been sent to your registration e-mail. When logging in, ask to change your password.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1113</v>
       </c>
@@ -3455,7 +3457,7 @@
         <v>insert into sysLocalizationText Values(1113,'1113','SuccessActivated-Title','Activation Successfuly',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1114</v>
       </c>
@@ -3479,7 +3481,7 @@
         <v>insert into sysLocalizationText Values(1114,'1114','SuccessActivated-Message','The account has been successfully activated. You can now log in.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1115</v>
       </c>
@@ -3503,7 +3505,7 @@
         <v>insert into sysLocalizationText Values(1115,'1115','ActivateCode-Title','Code was Sent .',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1116</v>
       </c>
@@ -3527,7 +3529,7 @@
         <v>insert into sysLocalizationText Values(1116,'1116','ActivateCode-Message','A security code has been sent by e-mail.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1117</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>insert into sysLocalizationText Values(1117,'1117','PasswordChanged-Title','Changed Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1118</v>
       </c>
@@ -3575,7 +3577,7 @@
         <v>insert into sysLocalizationText Values(1118,'1118','PasswordChanged-Message','The password has been successfully changed. Log in again.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1119</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>insert into sysLocalizationText Values(1119,'1119','ImageChanged-Title','Altered Image',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1120</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>insert into sysLocalizationText Values(1120,'1120','ImageChanged-Message','The profile picture has been changed. At the next login the new image will be displayed.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1121</v>
       </c>
@@ -3647,7 +3649,7 @@
         <v>insert into sysLocalizationText Values(1121,'1121','SearchByEmail-Label','By E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1122</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>insert into sysLocalizationText Values(1122,'1122','SearchByUserName-Label','By User Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1123</v>
       </c>
@@ -3695,7 +3697,7 @@
         <v>insert into sysLocalizationText Values(1123,'1123','SearchByEmail-Description','Search By E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1124</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>insert into sysLocalizationText Values(1124,'1124','SearchByUserName-Description','Search By User Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1125</v>
       </c>
@@ -3743,7 +3745,7 @@
         <v>insert into sysLocalizationText Values(1125,'1125','SearchByInstance-Label','By Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1126</v>
       </c>
@@ -3767,7 +3769,7 @@
         <v>insert into sysLocalizationText Values(1126,'1126','SearchByRole-Label','By Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1127</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>insert into sysLocalizationText Values(1127,'1127','NewUser-Label','New User',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1128</v>
       </c>
@@ -3815,7 +3817,7 @@
         <v>insert into sysLocalizationText Values(1128,'1128','NewUser-Description','Click here to create new User',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1129</v>
       </c>
@@ -3839,7 +3841,7 @@
         <v>insert into sysLocalizationText Values(1129,'1129','Active-Label','Active',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1130</v>
       </c>
@@ -3863,7 +3865,7 @@
         <v>insert into sysLocalizationText Values(1130,'1130','Locked-Label','Locked',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1131</v>
       </c>
@@ -3887,7 +3889,7 @@
         <v>insert into sysLocalizationText Values(1131,'1131','MainData-Label','Main Data',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1132</v>
       </c>
@@ -3911,7 +3913,7 @@
         <v>insert into sysLocalizationText Values(1132,'1132','User-SecondTabLabel','Instances &amp; Roles',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1133</v>
       </c>
@@ -3935,7 +3937,7 @@
         <v>insert into sysLocalizationText Values(1133,'1133','CreateDate-Label','Create Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1134</v>
       </c>
@@ -3959,7 +3961,7 @@
         <v>insert into sysLocalizationText Values(1134,'1134','LastLoginDate-Label','Last Login Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1135</v>
       </c>
@@ -3983,7 +3985,7 @@
         <v>insert into sysLocalizationText Values(1135,'1135','DefaultLanguage-Label','Default Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1136</v>
       </c>
@@ -4007,7 +4009,7 @@
         <v>insert into sysLocalizationText Values(1136,'1136','LastLoginIP-Label','Last Login IP',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1137</v>
       </c>
@@ -4031,7 +4033,7 @@
         <v>insert into sysLocalizationText Values(1137,'1137','LoginCounter-Label','Login Counter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1138</v>
       </c>
@@ -4055,7 +4057,7 @@
         <v>insert into sysLocalizationText Values(1138,'1138','PasswordRecovery-Label','Password Recovery Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1139</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>insert into sysLocalizationText Values(1139,'1139','AlterInstance-Label','Alter Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1140</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>insert into sysLocalizationText Values(1140,'1140','AlterInstance-Description','Select a Instance to change',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1141</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>insert into sysLocalizationText Values(1141,'1141','Altering-Label','Altering...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1142</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>insert into sysLocalizationText Values(1142,'1142','AlterRole-Label','Alter Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1143</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>insert into sysLocalizationText Values(1143,'1143','AlterRole-Description','Select a Role to change',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1144</v>
       </c>
@@ -4199,7 +4201,7 @@
         <v>insert into sysLocalizationText Values(1144,'1144','UserStatus-Label','User Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1145</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>insert into sysLocalizationText Values(1145,'1145','ChangeUserState-Description','Click here to change status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1146</v>
       </c>
@@ -4247,7 +4249,7 @@
         <v>insert into sysLocalizationText Values(1146,'1146','ChangeUserState-Label','Update Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1147</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>insert into sysLocalizationText Values(1147,'1147','CreateUser-Label','Creating New User',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1148</v>
       </c>
@@ -4295,7 +4297,7 @@
         <v>insert into sysLocalizationText Values(1148,'1148','CreateUser-Description','Click here to create new user record.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1149</v>
       </c>
@@ -4319,7 +4321,7 @@
         <v>insert into sysLocalizationText Values(1149,'1149','CreateUserButton-Label','Save',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1150</v>
       </c>
@@ -4343,7 +4345,7 @@
         <v>insert into sysLocalizationText Values(1150,'1150','AlterStatus-Error','Error on alter user status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1151</v>
       </c>
@@ -4367,7 +4369,7 @@
         <v>insert into sysLocalizationText Values(1151,'1151','AlterStatus-Success','User status altered successfuly',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1152</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>insert into sysLocalizationText Values(1152,'1152','AlterInstance-Error','Error on alter instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1153</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v>insert into sysLocalizationText Values(1153,'1153','AlterInstance-Success','Instance altered successfuly',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1154</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>insert into sysLocalizationText Values(1154,'1154','AlterRole-Error','Error on alter user role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1155</v>
       </c>
@@ -4463,7 +4465,7 @@
         <v>insert into sysLocalizationText Values(1155,'1155','AlterRole-Success','Role altered successfuly',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1156</v>
       </c>
@@ -4487,7 +4489,7 @@
         <v>insert into sysLocalizationText Values(1156,'1156','Instance-PageTitle','Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1157</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>insert into sysLocalizationText Values(1157,'1157','SearchByInstanceName-Label','By Instance Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1158</v>
       </c>
@@ -4535,7 +4537,7 @@
         <v>insert into sysLocalizationText Values(1158,'1158','SearchByInstanceName-Description','Search by Instance Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1159</v>
       </c>
@@ -4559,7 +4561,7 @@
         <v>insert into sysLocalizationText Values(1159,'1159','SearchByInstanceTypeName-Label','By Type Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1160</v>
       </c>
@@ -4583,7 +4585,7 @@
         <v>insert into sysLocalizationText Values(1160,'1160','SearchByInstanceTypeName-Description','Search by Type Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1161</v>
       </c>
@@ -4607,7 +4609,7 @@
         <v>insert into sysLocalizationText Values(1161,'1161','NewInstance-Label','New Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1162</v>
       </c>
@@ -4631,7 +4633,7 @@
         <v>insert into sysLocalizationText Values(1162,'1162','NewInstance-Description','Click here to create new Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1163</v>
       </c>
@@ -4655,7 +4657,7 @@
         <v>insert into sysLocalizationText Values(1163,'1163','InstanceTypeName-Label','Instance Type Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1164</v>
       </c>
@@ -4679,7 +4681,7 @@
         <v>insert into sysLocalizationText Values(1164,'1164','InstanceName-Label','Instance Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1165</v>
       </c>
@@ -4703,7 +4705,7 @@
         <v>insert into sysLocalizationText Values(1165,'1165','InstanceRecord-Label','Instance Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1166</v>
       </c>
@@ -4727,7 +4729,7 @@
         <v>insert into sysLocalizationText Values(1166,'1166','SaveInstanceButton-Label','Save Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1167</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>insert into sysLocalizationText Values(1167,'1167','SaveInstanceButton-Description','Click here to save Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1168</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>insert into sysLocalizationText Values(1168,'1168','DataLog-PageTitle','Data Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1169</v>
       </c>
@@ -4799,7 +4801,7 @@
         <v>insert into sysLocalizationText Values(1169,'1169','SearchByOperationType-Label','By Operation Type',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1170</v>
       </c>
@@ -4823,7 +4825,7 @@
         <v>insert into sysLocalizationText Values(1170,'1170','SearchByObject-Label','By Object',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1171</v>
       </c>
@@ -4847,7 +4849,7 @@
         <v>insert into sysLocalizationText Values(1171,'1171','SearchByIntervalDate-Label','By Date Range',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1172</v>
       </c>
@@ -4871,7 +4873,7 @@
         <v>insert into sysLocalizationText Values(1172,'1172','SearchByInicialDate-Label','Start Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1173</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>insert into sysLocalizationText Values(1173,'1173','SearchByFinalDate-Label','End Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1174</v>
       </c>
@@ -4919,7 +4921,7 @@
         <v>insert into sysLocalizationText Values(1174,'1174','SearchByRecordID-Label','Search Record ID',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1175</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>insert into sysLocalizationText Values(1175,'1175','TableName-Label','Table Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1176</v>
       </c>
@@ -4967,7 +4969,7 @@
         <v>insert into sysLocalizationText Values(1176,'1176','OperationText-Label','Operation Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1177</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>insert into sysLocalizationText Values(1177,'1177','LogID-Label','Log ID',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1178</v>
       </c>
@@ -5015,7 +5017,7 @@
         <v>insert into sysLocalizationText Values(1178,'1178','LogInformation-Label','Log Information',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1179</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>insert into sysLocalizationText Values(1179,'1179','ShowTimeLine-Label','Show Time Line',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1180</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>insert into sysLocalizationText Values(1180,'1180','OldVersionData-Label','Old Version',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1181</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>insert into sysLocalizationText Values(1181,'1181','HasNoOldVersion-Label','No data was found',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1182</v>
       </c>
@@ -5111,7 +5113,7 @@
         <v>insert into sysLocalizationText Values(1182,'1182','CurrentVersionData-Label','Current Version',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1183</v>
       </c>
@@ -5135,7 +5137,7 @@
         <v>insert into sysLocalizationText Values(1183,'1183','HasNoCurrentVersion-Label','No data was found',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1184</v>
       </c>
@@ -5159,7 +5161,7 @@
         <v>insert into sysLocalizationText Values(1184,'1184','RecordTimeLine-Label','Record Time Line',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1185</v>
       </c>
@@ -5183,7 +5185,7 @@
         <v>insert into sysLocalizationText Values(1185,'1185','HasNoTimeLine-Label','No data on time line',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1186</v>
       </c>
@@ -5207,7 +5209,7 @@
         <v>insert into sysLocalizationText Values(1186,'1186','Localization-PageTitle','Localization Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1187</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>insert into sysLocalizationText Values(1187,'1187','SearchByLanguage-Label','By Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1188</v>
       </c>
@@ -5255,7 +5257,7 @@
         <v>insert into sysLocalizationText Values(1188,'1188','SearchByLanguage-Description','Search by Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1189</v>
       </c>
@@ -5279,7 +5281,7 @@
         <v>insert into sysLocalizationText Values(1189,'1189','SearchByLocalizationCode-Label','By Localization Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1190</v>
       </c>
@@ -5303,7 +5305,7 @@
         <v>insert into sysLocalizationText Values(1190,'1190','SearchByLocalizationCode-Description','Search by Localization Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1191</v>
       </c>
@@ -5327,7 +5329,7 @@
         <v>insert into sysLocalizationText Values(1191,'1191','SearchByLocalizationName-Label','By Localization Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1192</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>insert into sysLocalizationText Values(1192,'1192','SearchByLocalizationName-Description','Search by Localization Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1193</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>insert into sysLocalizationText Values(1193,'1193','SearchByLocalizationText-Label','By Localization Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1194</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>insert into sysLocalizationText Values(1194,'1194','SearchByLocalizationText-Description','Search by Localization Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1195</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>insert into sysLocalizationText Values(1195,'1195','Language-Label','Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1196</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>insert into sysLocalizationText Values(1196,'1196','LocalizationCode-Label','Localization Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1197</v>
       </c>
@@ -5471,7 +5473,7 @@
         <v>insert into sysLocalizationText Values(1197,'1197','LocalizationName-Label','Localization Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1198</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>insert into sysLocalizationText Values(1198,'1198','LocalizationRecord-Label','Localization Text Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1199</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>insert into sysLocalizationText Values(1199,'1199','LocalizationText-Label','Localization Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1200</v>
       </c>
@@ -5543,7 +5545,7 @@
         <v>insert into sysLocalizationText Values(1200,'1200','SaveLocalizationButton-Label','Save Localization',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1201</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>insert into sysLocalizationText Values(1201,'1201','SaveLocalizationButton-Description','Click here to save localization',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1202</v>
       </c>
@@ -5591,7 +5593,7 @@
         <v>insert into sysLocalizationText Values(1202,'1202','NewLocalization-Label','New Localization',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1203</v>
       </c>
@@ -5615,7 +5617,7 @@
         <v>insert into sysLocalizationText Values(1203,'1203','ObjectPermission-PageTitle','Object Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1204</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>insert into sysLocalizationText Values(1204,'1204','SearchByObjectName-Label','By Object Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1205</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>insert into sysLocalizationText Values(1205,'1205','SearchByObjectName-Description','Search by Object Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1206</v>
       </c>
@@ -5687,7 +5689,7 @@
         <v>insert into sysLocalizationText Values(1206,'1206','SearchByObjectCode-Label','By Object Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1207</v>
       </c>
@@ -5711,7 +5713,7 @@
         <v>insert into sysLocalizationText Values(1207,'1207','SearchByObjectCode-Description','Search by Object Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1208</v>
       </c>
@@ -5735,7 +5737,7 @@
         <v>insert into sysLocalizationText Values(1208,'1208','NewObject-Label','New Object',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1209</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>insert into sysLocalizationText Values(1209,'1209','ObjectName-Label','Object Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1210</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>insert into sysLocalizationText Values(1210,'1210','ObjectCode-Label','Object Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1211</v>
       </c>
@@ -5807,7 +5809,7 @@
         <v>insert into sysLocalizationText Values(1211,'1211','ObjectPermissionRecord-Label','Object Permission Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1212</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>insert into sysLocalizationText Values(1212,'1212','SaveObjectPermissionButton-Label','Save Object Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1213</v>
       </c>
@@ -5855,7 +5857,7 @@
         <v>insert into sysLocalizationText Values(1213,'1213','SaveObjectPermissionButton-Description','Click here to save Object Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1214</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>insert into sysLocalizationText Values(1214,'1214','Permission-PageTitle','Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1215</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>insert into sysLocalizationText Values(1215,'1215','SearchByObjectPermission-Label','By Object Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1216</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>insert into sysLocalizationText Values(1216,'1216','SearchByRole-Label','By Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1217</v>
       </c>
@@ -5951,7 +5953,7 @@
         <v>insert into sysLocalizationText Values(1217,'1217','SearchByUser-Label','By User',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1218</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>insert into sysLocalizationText Values(1218,'1218','NewPermission-Label','New Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1219</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>insert into sysLocalizationText Values(1219,'1219','NewPermission-Description','Click here to create new permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1220</v>
       </c>
@@ -6023,7 +6025,7 @@
         <v>insert into sysLocalizationText Values(1220,'1220','ObjectName-Label','Object Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1221</v>
       </c>
@@ -6047,7 +6049,7 @@
         <v>insert into sysLocalizationText Values(1221,'1221','RoleName-Label','Role Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1222</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>insert into sysLocalizationText Values(1222,'1222','PermissionRecord-Label','Permission Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1223</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>insert into sysLocalizationText Values(1223,'1223','PermissionType-Label','Permission Type',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1224</v>
       </c>
@@ -6119,7 +6121,7 @@
         <v>insert into sysLocalizationText Values(1224,'1224','ReadStatus-Label','Read Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1225</v>
       </c>
@@ -6143,7 +6145,7 @@
         <v>insert into sysLocalizationText Values(1225,'1225','SaveStatus-Label','Save Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1226</v>
       </c>
@@ -6167,7 +6169,7 @@
         <v>insert into sysLocalizationText Values(1226,'1226','DeleteStatus-Label','Delete Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1227</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>insert into sysLocalizationText Values(1227,'1227','SavePermissionButton-Label','Save Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1228</v>
       </c>
@@ -6215,7 +6217,7 @@
         <v>insert into sysLocalizationText Values(1228,'1228','SavePermissionButton-Description','Click here to save Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1229</v>
       </c>
@@ -6239,7 +6241,7 @@
         <v>insert into sysLocalizationText Values(1229,'1229','Role-PageTitle','Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1230</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>insert into sysLocalizationText Values(1230,'1230','SearchByRoleName-Label','By Role Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1231</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>insert into sysLocalizationText Values(1231,'1231','SearchByRoleName-Description','Search by Role Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1232</v>
       </c>
@@ -6311,7 +6313,7 @@
         <v>insert into sysLocalizationText Values(1232,'1232','NewRole-Label','New Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1233</v>
       </c>
@@ -6335,7 +6337,7 @@
         <v>insert into sysLocalizationText Values(1233,'1233','NewRole-Description','Click here to create new Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1234</v>
       </c>
@@ -6359,7 +6361,7 @@
         <v>insert into sysLocalizationText Values(1234,'1234','RoleName-Label','Role Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1235</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>insert into sysLocalizationText Values(1235,'1235','RoleRecord-Label','Role Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1236</v>
       </c>
@@ -6407,7 +6409,7 @@
         <v>insert into sysLocalizationText Values(1236,'1236','SaveRoleButton-Label','Save Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -6431,7 +6433,7 @@
         <v>insert into sysLocalizationText Values(1237,'1237','SaveRoleButton-Description','Click here to save Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1238</v>
       </c>
@@ -6455,7 +6457,7 @@
         <v>insert into sysLocalizationText Values(1238,'1238','SessionLog-PageTitle','Session Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1239</v>
       </c>
@@ -6479,7 +6481,7 @@
         <v>insert into sysLocalizationText Values(1239,'1239','SearchByEmail-Description','Search by E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1240</v>
       </c>
@@ -6503,7 +6505,7 @@
         <v>insert into sysLocalizationText Values(1240,'1240','SearchByDateInterval-Label','By Date Range',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1241</v>
       </c>
@@ -6527,7 +6529,7 @@
         <v>insert into sysLocalizationText Values(1241,'1241','SearchByInicialDate-Label','Start Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1242</v>
       </c>
@@ -6551,7 +6553,7 @@
         <v>insert into sysLocalizationText Values(1242,'1242','SearchByFinalDate-Label','End Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1243</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>insert into sysLocalizationText Values(1243,'1243','AccessDate-Label','Access Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1244</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>insert into sysLocalizationText Values(1244,'1244','IP-Label','IP',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1245</v>
       </c>
@@ -6623,7 +6625,7 @@
         <v>insert into sysLocalizationText Values(1245,'1245','SuperAdmin-MenuText','Super Admin',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1246</v>
       </c>
@@ -6647,7 +6649,7 @@
         <v>insert into sysLocalizationText Values(1246,'1246','BasicsData-MenuText','Management',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1247</v>
       </c>
@@ -6671,7 +6673,7 @@
         <v>insert into sysLocalizationText Values(1247,'1247','Monitoring-MenuText','Monitoring',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1248</v>
       </c>
@@ -6695,7 +6697,7 @@
         <v>insert into sysLocalizationText Values(1248,'1248','Instance-MenuText','Instances',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1249</v>
       </c>
@@ -6719,7 +6721,7 @@
         <v>insert into sysLocalizationText Values(1249,'1249','Role-MenuText','Roles',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1250</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>insert into sysLocalizationText Values(1250,'1250','Users-MenuText','Users',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1251</v>
       </c>
@@ -6767,7 +6769,7 @@
         <v>insert into sysLocalizationText Values(1251,'1251','ObjectPermission-MenuText','Objects Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1252</v>
       </c>
@@ -6791,7 +6793,7 @@
         <v>insert into sysLocalizationText Values(1252,'1252','Permissions-MenuText','Permissions',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1253</v>
       </c>
@@ -6815,7 +6817,7 @@
         <v>insert into sysLocalizationText Values(1253,'1253','Localization-MenuText','Localization Texts',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1256</v>
       </c>
@@ -6839,7 +6841,7 @@
         <v>insert into sysLocalizationText Values(1256,'1256','DataLog-MenuText','Data Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1257</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>insert into sysLocalizationText Values(1257,'1257','SessionLog-MenuText','Session Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1258</v>
       </c>
@@ -6887,7 +6889,7 @@
         <v>insert into sysLocalizationText Values(1258,'1258','SearchByGroupParameterName-Label','Group Parameter Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1259</v>
       </c>
@@ -6911,7 +6913,7 @@
         <v>insert into sysLocalizationText Values(1259,'1259','SearchByGroupParameterName-Description','Search by Group Parameter Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1260</v>
       </c>
@@ -6935,7 +6937,7 @@
         <v>insert into sysLocalizationText Values(1260,'1260','NewGroupParameter-Label','New Group Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1261</v>
       </c>
@@ -6959,7 +6961,7 @@
         <v>insert into sysLocalizationText Values(1261,'1261','NewGroupParameter-Description','Click here to create new Group Parameter ',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1262</v>
       </c>
@@ -6983,7 +6985,7 @@
         <v>insert into sysLocalizationText Values(1262,'1262','GroupParameterRecord-Label','Group Parameter Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1263</v>
       </c>
@@ -7007,7 +7009,7 @@
         <v>insert into sysLocalizationText Values(1263,'1263','GroupParameterName-Label','Group Parameter Name ',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1264</v>
       </c>
@@ -7031,7 +7033,7 @@
         <v>insert into sysLocalizationText Values(1264,'1264','SaveGroupParameterButton-Label','Save Group Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1265</v>
       </c>
@@ -7055,7 +7057,7 @@
         <v>insert into sysLocalizationText Values(1265,'1265','SaveGroupParameterButton-Description','Click here to save Group Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1266</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>insert into sysLocalizationText Values(1266,'1266','GroupParameter-PageTitle','Group Parameters',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1267</v>
       </c>
@@ -7103,7 +7105,7 @@
         <v>insert into sysLocalizationText Values(1267,'1267','SearchByParameterName-Label','Parameter Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1268</v>
       </c>
@@ -7127,7 +7129,7 @@
         <v>insert into sysLocalizationText Values(1268,'1268','SearchByParameterName-Description','Search by Parameter Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1269</v>
       </c>
@@ -7151,7 +7153,7 @@
         <v>insert into sysLocalizationText Values(1269,'1269','NewParameter-Label','New Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1270</v>
       </c>
@@ -7175,7 +7177,7 @@
         <v>insert into sysLocalizationText Values(1270,'1270','NewParameter-Description','Click here to create new Parameter ',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1271</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>insert into sysLocalizationText Values(1271,'1271','ParameterRecord-Label','Parameter Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1272</v>
       </c>
@@ -7223,7 +7225,7 @@
         <v>insert into sysLocalizationText Values(1272,'1272','ParameterName-Label','Parameter Name ',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1273</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>insert into sysLocalizationText Values(1273,'1273','SaveParameterButton-Label','Save Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1274</v>
       </c>
@@ -7271,7 +7273,7 @@
         <v>insert into sysLocalizationText Values(1274,'1274','SaveParameterButton-Description','Click here to save Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1275</v>
       </c>
@@ -7295,7 +7297,7 @@
         <v>insert into sysLocalizationText Values(1275,'1275','Parameter-PageTitle','Parameters',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1276</v>
       </c>
@@ -7319,7 +7321,7 @@
         <v>insert into sysLocalizationText Values(1276,'1276','ChangeUserLanguage-Title','ChangeUserLanguage-Title',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1277</v>
       </c>
@@ -7343,7 +7345,7 @@
         <v>insert into sysLocalizationText Values(1277,'1277','ChangeUserLanguage-Message','The User Language has been successfully changed. Log in again.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1278</v>
       </c>
@@ -7367,7 +7369,7 @@
         <v>insert into sysLocalizationText Values(1278,'1278','ExceptionLog-PageTitle','Exception Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1279</v>
       </c>
@@ -7391,7 +7393,7 @@
         <v>insert into sysLocalizationText Values(1279,'1279','SearchByOrgin-Label','Search by Origin',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1280</v>
       </c>
@@ -7415,7 +7417,7 @@
         <v>insert into sysLocalizationText Values(1280,'1280','Origin-Label','Origin',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1281</v>
       </c>
@@ -7439,7 +7441,7 @@
         <v>insert into sysLocalizationText Values(1281,'1281','TargetSite-Label','Target Site',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1282</v>
       </c>
@@ -7463,7 +7465,7 @@
         <v>insert into sysLocalizationText Values(1282,'1282','ErrMessage-Label','Err Message',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1283</v>
       </c>
@@ -7487,7 +7489,7 @@
         <v>insert into sysLocalizationText Values(1283,'1283','StackTrace-Label','Stack Trace',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1284</v>
       </c>
@@ -7511,7 +7513,7 @@
         <v>insert into sysLocalizationText Values(1284,'1284','ClientIP-Label','Client IP',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1285</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>insert into sysLocalizationText Values(1285,'1285','SearchByConfigName-Label','By Config Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1286</v>
       </c>
@@ -7559,7 +7561,7 @@
         <v>insert into sysLocalizationText Values(1286,'1286','SearchByConfigName-Description','Search by Config Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1287</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>insert into sysLocalizationText Values(1287,'1287','NewConfig-Label','New Config',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1288</v>
       </c>
@@ -7607,7 +7609,7 @@
         <v>insert into sysLocalizationText Values(1288,'1288','NewConfig-Description','Click here to create new Config',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1289</v>
       </c>
@@ -7631,7 +7633,7 @@
         <v>insert into sysLocalizationText Values(1289,'1289','ConfigName','Config Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1290</v>
       </c>
@@ -7655,7 +7657,7 @@
         <v>insert into sysLocalizationText Values(1290,'1290','ConfigRecord-Label','Config Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1291</v>
       </c>
@@ -7679,7 +7681,7 @@
         <v>insert into sysLocalizationText Values(1291,'1291','ConfigName-Label','Config Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1292</v>
       </c>
@@ -7703,7 +7705,7 @@
         <v>insert into sysLocalizationText Values(1292,'1292','ConfigValue-Label','Config Value',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1293</v>
       </c>
@@ -7727,7 +7729,7 @@
         <v>insert into sysLocalizationText Values(1293,'1293','ConfigValue','Config Value',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1294</v>
       </c>
@@ -7751,7 +7753,7 @@
         <v>insert into sysLocalizationText Values(1294,'1294','SaveConfigButton-Label','Save Config',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1295</v>
       </c>
@@ -7775,7 +7777,7 @@
         <v>insert into sysLocalizationText Values(1295,'1295','SaveConfigButton-Description','Click here to save Config',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1296</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>insert into sysLocalizationText Values(1296,'1296','Configs-PageTitle','Configurations',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1297</v>
       </c>
@@ -7823,7 +7825,7 @@
         <v>insert into sysLocalizationText Values(1297,'1297','Logout-Label','Logout',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1298</v>
       </c>
@@ -7847,7 +7849,7 @@
         <v>insert into sysLocalizationText Values(1298,'1298','AlterProfileImage-Description','Drag the file here you wish to upload, or click on buttom above to browse.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1299</v>
       </c>
@@ -7871,7 +7873,7 @@
         <v>insert into sysLocalizationText Values(1299,'1299','Menu-Superadmin','Super Admin',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1300</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>insert into sysLocalizationText Values(1300,'1300','Menu-Configs','Business Configs',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1301</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>insert into sysLocalizationText Values(1301,'1301','Menu-Instance','Instances',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1302</v>
       </c>
@@ -7943,7 +7945,7 @@
         <v>insert into sysLocalizationText Values(1302,'1302','Menu-Roles','Roles',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1303</v>
       </c>
@@ -7967,7 +7969,7 @@
         <v>insert into sysLocalizationText Values(1303,'1303','Menu-ObjectPermissions','Object Permissions',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1304</v>
       </c>
@@ -7991,7 +7993,7 @@
         <v>insert into sysLocalizationText Values(1304,'1304','Menu-Permissions','Permissions',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1305</v>
       </c>
@@ -8015,7 +8017,7 @@
         <v>insert into sysLocalizationText Values(1305,'1305','Menu-Users','Users',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1306</v>
       </c>
@@ -8039,7 +8041,7 @@
         <v>insert into sysLocalizationText Values(1306,'1306','Menu-LocalizationTexts','Localization Texts',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1307</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>insert into sysLocalizationText Values(1307,'1307','Menu-GroupParameters','Group Parameters',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1308</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>insert into sysLocalizationText Values(1308,'1308','Menu-Parameters','Parameters',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1309</v>
       </c>
@@ -8111,7 +8113,7 @@
         <v>insert into sysLocalizationText Values(1309,'1309','Menu-Monitoring','Monitoring',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1310</v>
       </c>
@@ -8135,7 +8137,7 @@
         <v>insert into sysLocalizationText Values(1310,'1310','Menu-SessionLog','Session Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1311</v>
       </c>
@@ -8159,7 +8161,7 @@
         <v>insert into sysLocalizationText Values(1311,'1311','Menu-DataLog','Data Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1312</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>insert into sysLocalizationText Values(1312,'1312','Menu-ExceptionLog','Exception Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1313</v>
       </c>
@@ -8207,7 +8209,7 @@
         <v>insert into sysLocalizationText Values(1313,'1313','Editing-Label','Editing',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1314</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>insert into sysLocalizationText Values(1314,'1314','Inserting-Label','Inserting',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1315</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>insert into sysLocalizationText Values(1315,'1315','RemoveConfirmation-Label','Are you sure to remove this record?',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1316</v>
       </c>
@@ -8279,7 +8281,7 @@
         <v>insert into sysLocalizationText Values(1316,'1316','RemoveConfirmation-Message','The record was removed successfuly.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1317</v>
       </c>
@@ -8303,7 +8305,7 @@
         <v>insert into sysLocalizationText Values(1317,'1317','AllowRead-Label','Read',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1318</v>
       </c>
@@ -8327,7 +8329,7 @@
         <v>insert into sysLocalizationText Values(1318,'1318','AllowSave-Label','Save',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1319</v>
       </c>
@@ -8351,7 +8353,7 @@
         <v>insert into sysLocalizationText Values(1319,'1319','AllowDelete-Label','Delete',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1320</v>
       </c>
@@ -8375,7 +8377,7 @@
         <v>insert into sysLocalizationText Values(1320,'1320','InsertOperation-Text','Insert',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1321</v>
       </c>
@@ -8399,7 +8401,7 @@
         <v>insert into sysLocalizationText Values(1321,'1321','UpdateOperation-Text','Update',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1322</v>
       </c>
@@ -8423,7 +8425,7 @@
         <v>insert into sysLocalizationText Values(1322,'1322','DeleteOperation-Text','Delete',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1323</v>
       </c>
@@ -8447,7 +8449,7 @@
         <v>insert into sysLocalizationText Values(1323,'1323','NewLanguage-Label','New Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1324</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>insert into sysLocalizationText Values(1324,'1324','SaveLanguageButton-Label','Save Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1325</v>
       </c>
@@ -8495,7 +8497,7 @@
         <v>insert into sysLocalizationText Values(1325,'1325','SearchByLanguageName-Label','By Language Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1326</v>
       </c>
@@ -8519,7 +8521,7 @@
         <v>insert into sysLocalizationText Values(1326,'1326','LanguageName-Label','Language Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1327</v>
       </c>
@@ -8543,7 +8545,7 @@
         <v>insert into sysLocalizationText Values(1327,'1327','Description-Label','Description',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1328</v>
       </c>
@@ -8567,7 +8569,7 @@
         <v>insert into sysLocalizationText Values(1328,'1328','Language-PageTitle','Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1329</v>
       </c>
@@ -8589,6 +8591,462 @@
       <c r="F327" t="str">
         <f t="shared" si="38"/>
         <v>insert into sysLocalizationText Values(1329,'1329','Menu-Language','Languages',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1330</v>
+      </c>
+      <c r="B328" s="2">
+        <v>1</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" ref="C328:C330" si="39">"'" &amp; A328 &amp; "'"</f>
+        <v>'1330'</v>
+      </c>
+      <c r="D328" t="str">
+        <f>$N$1 &amp; "Person-PageTitle" &amp; $N$1</f>
+        <v>'Person-PageTitle'</v>
+      </c>
+      <c r="E328" t="str">
+        <f>$N$1 &amp; "Person" &amp; $N$1</f>
+        <v>'Person'</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" ref="F328:F330" si="40">"insert into sysLocalizationText Values(" &amp;A328 &amp; "," &amp;C328 &amp; "," &amp; D328 &amp; "," &amp; E328 &amp; ",getdate(),getdate()," &amp; B328 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1330,'1330','Person-PageTitle','Person',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1331</v>
+      </c>
+      <c r="B329" s="2">
+        <v>1</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" ref="C329" si="41">"'" &amp; A329 &amp; "'"</f>
+        <v>'1331'</v>
+      </c>
+      <c r="D329" t="str">
+        <f>$N$1 &amp; "Menu-Admin" &amp; $N$1</f>
+        <v>'Menu-Admin'</v>
+      </c>
+      <c r="E329" t="str">
+        <f>$N$1 &amp; "Administration" &amp; $N$1</f>
+        <v>'Administration'</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" ref="F329" si="42">"insert into sysLocalizationText Values(" &amp;A329 &amp; "," &amp;C329 &amp; "," &amp; D329 &amp; "," &amp; E329 &amp; ",getdate(),getdate()," &amp; B329 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1331,'1331','Menu-Admin','Administration',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1332</v>
+      </c>
+      <c r="B330" s="2">
+        <v>1</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" si="39"/>
+        <v>'1332'</v>
+      </c>
+      <c r="D330" t="str">
+        <f>$N$1 &amp; "Menu-Person" &amp; $N$1</f>
+        <v>'Menu-Person'</v>
+      </c>
+      <c r="E330" t="str">
+        <f>$N$1 &amp; "Person" &amp; $N$1</f>
+        <v>'Person'</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into sysLocalizationText Values(1332,'1332','Menu-Person','Person',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1333</v>
+      </c>
+      <c r="B331" s="2">
+        <v>1</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" ref="C331:C334" si="43">"'" &amp; A331 &amp; "'"</f>
+        <v>'1333'</v>
+      </c>
+      <c r="D331" t="str">
+        <f>$N$1 &amp; "NewPerson-Label" &amp; $N$1</f>
+        <v>'NewPerson-Label'</v>
+      </c>
+      <c r="E331" t="str">
+        <f>$N$1 &amp; "New Person" &amp; $N$1</f>
+        <v>'New Person'</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" ref="F331:F334" si="44">"insert into sysLocalizationText Values(" &amp;A331 &amp; "," &amp;C331 &amp; "," &amp; D331 &amp; "," &amp; E331 &amp; ",getdate(),getdate()," &amp; B331 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1333,'1333','NewPerson-Label','New Person',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1334</v>
+      </c>
+      <c r="B332" s="2">
+        <v>1</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" si="43"/>
+        <v>'1334'</v>
+      </c>
+      <c r="D332" t="str">
+        <f>$N$1 &amp; "SavePersonButton-Label" &amp; $N$1</f>
+        <v>'SavePersonButton-Label'</v>
+      </c>
+      <c r="E332" t="str">
+        <f>$N$1 &amp; "Save Person" &amp; $N$1</f>
+        <v>'Save Person'</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" si="44"/>
+        <v>insert into sysLocalizationText Values(1334,'1334','SavePersonButton-Label','Save Person',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1335</v>
+      </c>
+      <c r="B333" s="2">
+        <v>1</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" si="43"/>
+        <v>'1335'</v>
+      </c>
+      <c r="D333" t="str">
+        <f>$N$1 &amp; "SearchByPersonName-Label" &amp; $N$1</f>
+        <v>'SearchByPersonName-Label'</v>
+      </c>
+      <c r="E333" t="str">
+        <f>$N$1 &amp; "By Person Name" &amp; $N$1</f>
+        <v>'By Person Name'</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="44"/>
+        <v>insert into sysLocalizationText Values(1335,'1335','SearchByPersonName-Label','By Person Name',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1336</v>
+      </c>
+      <c r="B334" s="2">
+        <v>1</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" si="43"/>
+        <v>'1336'</v>
+      </c>
+      <c r="D334" t="str">
+        <f>$N$1 &amp; "PersonName-Label" &amp; $N$1</f>
+        <v>'PersonName-Label'</v>
+      </c>
+      <c r="E334" t="str">
+        <f>$N$1 &amp; "Person Name" &amp; $N$1</f>
+        <v>'Person Name'</v>
+      </c>
+      <c r="F334" t="str">
+        <f t="shared" si="44"/>
+        <v>insert into sysLocalizationText Values(1336,'1336','PersonName-Label','Person Name',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1337</v>
+      </c>
+      <c r="B335" s="2">
+        <v>1</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" ref="C335:C336" si="45">"'" &amp; A335 &amp; "'"</f>
+        <v>'1337'</v>
+      </c>
+      <c r="D335" t="str">
+        <f>$N$1 &amp; "PersonEmail-Label" &amp; $N$1</f>
+        <v>'PersonEmail-Label'</v>
+      </c>
+      <c r="E335" t="str">
+        <f>$N$1 &amp; "E-mail" &amp; $N$1</f>
+        <v>'E-mail'</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" ref="F335:F336" si="46">"insert into sysLocalizationText Values(" &amp;A335 &amp; "," &amp;C335 &amp; "," &amp; D335 &amp; "," &amp; E335 &amp; ",getdate(),getdate()," &amp; B335 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1337,'1337','PersonEmail-Label','E-mail',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1338</v>
+      </c>
+      <c r="B336" s="2">
+        <v>1</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="45"/>
+        <v>'1338'</v>
+      </c>
+      <c r="D336" t="str">
+        <f>$N$1 &amp; "PhoneNumber-Label" &amp; $N$1</f>
+        <v>'PhoneNumber-Label'</v>
+      </c>
+      <c r="E336" t="str">
+        <f>$N$1 &amp; "Phone Number" &amp; $N$1</f>
+        <v>'Phone Number'</v>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="46"/>
+        <v>insert into sysLocalizationText Values(1338,'1338','PhoneNumber-Label','Phone Number',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1339</v>
+      </c>
+      <c r="B337" s="2">
+        <v>1</v>
+      </c>
+      <c r="C337" t="str">
+        <f t="shared" ref="C337:C338" si="47">"'" &amp; A337 &amp; "'"</f>
+        <v>'1339'</v>
+      </c>
+      <c r="D337" t="str">
+        <f>$N$1 &amp; "SearchByPersonEmail-Label" &amp; $N$1</f>
+        <v>'SearchByPersonEmail-Label'</v>
+      </c>
+      <c r="E337" t="str">
+        <f>$N$1 &amp; "By Person E-mail" &amp; $N$1</f>
+        <v>'By Person E-mail'</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" ref="F337:F338" si="48">"insert into sysLocalizationText Values(" &amp;A337 &amp; "," &amp;C337 &amp; "," &amp; D337 &amp; "," &amp; E337 &amp; ",getdate(),getdate()," &amp; B337 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1339,'1339','SearchByPersonEmail-Label','By Person E-mail',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1340</v>
+      </c>
+      <c r="B338" s="2">
+        <v>1</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" si="47"/>
+        <v>'1340'</v>
+      </c>
+      <c r="D338" t="str">
+        <f>$N$1 &amp; "Contacts-Title" &amp; $N$1</f>
+        <v>'Contacts-Title'</v>
+      </c>
+      <c r="E338" t="str">
+        <f>$N$1 &amp; "Contacts" &amp; $N$1</f>
+        <v>'Contacts'</v>
+      </c>
+      <c r="F338" t="str">
+        <f t="shared" si="48"/>
+        <v>insert into sysLocalizationText Values(1340,'1340','Contacts-Title','Contacts',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1341</v>
+      </c>
+      <c r="B339" s="2">
+        <v>1</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" ref="C339:C342" si="49">"'" &amp; A339 &amp; "'"</f>
+        <v>'1341'</v>
+      </c>
+      <c r="D339" t="str">
+        <f>$N$1 &amp; "ContactEditing-Label" &amp; $N$1</f>
+        <v>'ContactEditing-Label'</v>
+      </c>
+      <c r="E339" t="str">
+        <f>$N$1 &amp; "Contact Editing" &amp; $N$1</f>
+        <v>'Contact Editing'</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" ref="F339:F342" si="50">"insert into sysLocalizationText Values(" &amp;A339 &amp; "," &amp;C339 &amp; "," &amp; D339 &amp; "," &amp; E339 &amp; ",getdate(),getdate()," &amp; B339 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1341,'1341','ContactEditing-Label','Contact Editing',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1342</v>
+      </c>
+      <c r="B340" s="2">
+        <v>1</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="49"/>
+        <v>'1342'</v>
+      </c>
+      <c r="D340" t="str">
+        <f>$N$1 &amp; "ContactInserting-Label" &amp; $N$1</f>
+        <v>'ContactInserting-Label'</v>
+      </c>
+      <c r="E340" t="str">
+        <f>$N$1 &amp; "Contact Inserting" &amp; $N$1</f>
+        <v>'Contact Inserting'</v>
+      </c>
+      <c r="F340" t="str">
+        <f t="shared" si="50"/>
+        <v>insert into sysLocalizationText Values(1342,'1342','ContactInserting-Label','Contact Inserting',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1343</v>
+      </c>
+      <c r="B341" s="2">
+        <v>1</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" si="49"/>
+        <v>'1343'</v>
+      </c>
+      <c r="D341" t="str">
+        <f>$N$1 &amp; "ContactName-Label" &amp; $N$1</f>
+        <v>'ContactName-Label'</v>
+      </c>
+      <c r="E341" t="str">
+        <f>$N$1 &amp; "Contact Name" &amp; $N$1</f>
+        <v>'Contact Name'</v>
+      </c>
+      <c r="F341" t="str">
+        <f t="shared" si="50"/>
+        <v>insert into sysLocalizationText Values(1343,'1343','ContactName-Label','Contact Name',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1344</v>
+      </c>
+      <c r="B342" s="2">
+        <v>1</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" si="49"/>
+        <v>'1344'</v>
+      </c>
+      <c r="D342" t="str">
+        <f>$N$1 &amp; "ContactEmail-Label" &amp; $N$1</f>
+        <v>'ContactEmail-Label'</v>
+      </c>
+      <c r="E342" t="str">
+        <f>$N$1 &amp; "Contact E-mail" &amp; $N$1</f>
+        <v>'Contact E-mail'</v>
+      </c>
+      <c r="F342" t="str">
+        <f t="shared" si="50"/>
+        <v>insert into sysLocalizationText Values(1344,'1344','ContactEmail-Label','Contact E-mail',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1345</v>
+      </c>
+      <c r="B343" s="2">
+        <v>1</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" ref="C343:C346" si="51">"'" &amp; A343 &amp; "'"</f>
+        <v>'1345'</v>
+      </c>
+      <c r="D343" t="str">
+        <f>$N$1 &amp; "ContactCellPhoneNumber-Label" &amp; $N$1</f>
+        <v>'ContactCellPhoneNumber-Label'</v>
+      </c>
+      <c r="E343" t="str">
+        <f>$N$1 &amp; "Cell Phone Number" &amp; $N$1</f>
+        <v>'Cell Phone Number'</v>
+      </c>
+      <c r="F343" t="str">
+        <f t="shared" ref="F343:F346" si="52">"insert into sysLocalizationText Values(" &amp;A343 &amp; "," &amp;C343 &amp; "," &amp; D343 &amp; "," &amp; E343 &amp; ",getdate(),getdate()," &amp; B343 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1345,'1345','ContactCellPhoneNumber-Label','Cell Phone Number',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1346</v>
+      </c>
+      <c r="B344" s="2">
+        <v>1</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" si="51"/>
+        <v>'1346'</v>
+      </c>
+      <c r="D344" t="str">
+        <f>$N$1 &amp; "SavePersonContactButton-Label" &amp; $N$1</f>
+        <v>'SavePersonContactButton-Label'</v>
+      </c>
+      <c r="E344" t="str">
+        <f>$N$1 &amp; "Salve Contact" &amp; $N$1</f>
+        <v>'Salve Contact'</v>
+      </c>
+      <c r="F344" t="str">
+        <f t="shared" si="52"/>
+        <v>insert into sysLocalizationText Values(1346,'1346','SavePersonContactButton-Label','Salve Contact',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1347</v>
+      </c>
+      <c r="B345" s="2">
+        <v>1</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="51"/>
+        <v>'1347'</v>
+      </c>
+      <c r="D345" t="str">
+        <f t="shared" ref="D343:E346" si="53">$N$1 &amp; "" &amp; $N$1</f>
+        <v>''</v>
+      </c>
+      <c r="E345" t="str">
+        <f t="shared" si="53"/>
+        <v>''</v>
+      </c>
+      <c r="F345" t="str">
+        <f t="shared" si="52"/>
+        <v>insert into sysLocalizationText Values(1347,'1347','','',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1348</v>
+      </c>
+      <c r="B346" s="2">
+        <v>1</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="51"/>
+        <v>'1348'</v>
+      </c>
+      <c r="D346" t="str">
+        <f t="shared" si="53"/>
+        <v>''</v>
+      </c>
+      <c r="E346" t="str">
+        <f t="shared" si="53"/>
+        <v>''</v>
+      </c>
+      <c r="F346" t="str">
+        <f t="shared" si="52"/>
+        <v>insert into sysLocalizationText Values(1348,'1348','','',getdate(),getdate(),1)</v>
       </c>
     </row>
   </sheetData>
@@ -8598,14 +9056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N327"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N346"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F328" sqref="F328"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="E348" sqref="E348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
@@ -8613,7 +9071,7 @@
     <col min="6" max="6" width="92.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2001</v>
       </c>
@@ -8639,7 +9097,7 @@
         <v>'</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -8661,7 +9119,7 @@
         <v>insert into sysLocalizationText Values(2002,'2002',     'Validation-Error',    'Erro na validação de dados.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -8683,7 +9141,7 @@
         <v>insert into sysLocalizationText Values(2003,'2003',     'Record-NotFound',    'O registro solicitado não foi encontrado.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -8705,7 +9163,7 @@
         <v>insert into sysLocalizationText Values(2004,'2004',     'Login-Invalid-Password',    'Senha inválida. Você ainda tem {0} tentativas antes da conta ser desativada.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -8727,7 +9185,7 @@
         <v>insert into sysLocalizationText Values(2005,'2005',     'Login-Attempts',    'Você já utilizou as tentativas de acesso e a conta foi desativada. Solicite a ativação.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -8749,7 +9207,7 @@
         <v>insert into sysLocalizationText Values(2006,'2006',     'Login-Inactive-Account',    'A conta associada ao Usuário não está ativa. Solicite a ativação da conta.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -8771,7 +9229,7 @@
         <v>insert into sysLocalizationText Values(2007,'2007',     'Login-Locked-Account',    'A conta associada ao Usuário está bloqueada. Contate o administrador do sistema.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -8793,7 +9251,7 @@
         <v>insert into sysLocalizationText Values(2008,'2008',     'Login-User-NotFound',    'Usuário não encontrado.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -8815,7 +9273,7 @@
         <v>insert into sysLocalizationText Values(2009,'2009',     'User-Exists',    'Já existe um usuário com o e-mail ',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -8837,7 +9295,7 @@
         <v>insert into sysLocalizationText Values(2010,'2010',     'Email-Exists',    'O e-mail informado já existe.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -8859,7 +9317,7 @@
         <v>insert into sysLocalizationText Values(2011,'2011',     'Profile-NotBe-Null',    'O Perfil não pode ser nulo.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -8881,7 +9339,7 @@
         <v>insert into sysLocalizationText Values(2012,'2012',     'User-Error-Exclude-Childs',    'Houve um erro ao excluir os itens filhos (Roles).',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -8903,7 +9361,7 @@
         <v>insert into sysLocalizationText Values(2013,'2013',     'User-Invalid-Password-Code',    'O código de autorização de troca de senha é inválido.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -8925,7 +9383,7 @@
         <v>insert into sysLocalizationText Values(2014,'2014',     'Account-Active',    'A conta associada ao Usuário já está ativa.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -8947,7 +9405,7 @@
         <v>insert into sysLocalizationText Values(2015,'2015',     'User-Invalid-Activation-Code',    'O código de autorização de ativação é inválido.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -8969,7 +9427,7 @@
         <v>insert into sysLocalizationText Values(2016,'2016',     'User-No-Image',    'Envie o arquivo da imagem.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -8991,7 +9449,7 @@
         <v>insert into sysLocalizationText Values(2017,'2017',     'User-Role-Exists',    'Esta Role já está associada ao usuário.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -9013,7 +9471,7 @@
         <v>insert into sysLocalizationText Values(2018,'2018',     'User-Role-No-Exists',    'Esta Role não pertence ao usuário.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -9035,7 +9493,7 @@
         <v>insert into sysLocalizationText Values(2019,'2019',     'Http-Unauthorized',    'Acesso não autorizado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -9057,7 +9515,7 @@
         <v>insert into sysLocalizationText Values(2020,'2020',     'Http-NotFound',    'O recurso não foi encontrado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -9079,7 +9537,7 @@
         <v>insert into sysLocalizationText Values(2021,'2021',     'Http-Forbidden',    'Perfil do usuário sem permissão de acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -9101,7 +9559,7 @@
         <v>insert into sysLocalizationText Values(2022,'2022',     'Http-500Error',    'Ocorreu um erro no processamento da requisição.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2023</v>
       </c>
@@ -9123,7 +9581,7 @@
         <v>insert into sysLocalizationText Values(2023,'2023',     'Http-ServiceUnavailable',    'O serviço solicitado está indisponível.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2024</v>
       </c>
@@ -9145,7 +9603,7 @@
         <v>insert into sysLocalizationText Values(2024,'2024',     'API-Unexpected-Exception',    'Erro inesperado não identificado GetInnerExceptions@f2]',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2025</v>
       </c>
@@ -9167,7 +9625,7 @@
         <v>insert into sysLocalizationText Values(2025,'2025',     'ShortDayName-1',    'Dom',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2026</v>
       </c>
@@ -9189,7 +9647,7 @@
         <v>insert into sysLocalizationText Values(2026,'2026',     'ShortDayName-2',    'Seg',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2027</v>
       </c>
@@ -9211,7 +9669,7 @@
         <v>insert into sysLocalizationText Values(2027,'2027',     'ShortDayName-3',    'Ter',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -9233,7 +9691,7 @@
         <v>insert into sysLocalizationText Values(2028,'2028',     'ShortDayName-4',    'Qua',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2029</v>
       </c>
@@ -9255,7 +9713,7 @@
         <v>insert into sysLocalizationText Values(2029,'2029',     'ShortDayName-5',    'Qui',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2030</v>
       </c>
@@ -9277,7 +9735,7 @@
         <v>insert into sysLocalizationText Values(2030,'2030',     'ShortDayName-6',    'Sex',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2031</v>
       </c>
@@ -9299,7 +9757,7 @@
         <v>insert into sysLocalizationText Values(2031,'2031',     'ShortDayName-7',    'Sáb',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2032</v>
       </c>
@@ -9321,7 +9779,7 @@
         <v>insert into sysLocalizationText Values(2032,'2032',     'MonthName-1',    'JANEIRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2033</v>
       </c>
@@ -9343,7 +9801,7 @@
         <v>insert into sysLocalizationText Values(2033,'2033',     'MonthName-2',    'FEVEREIRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2034</v>
       </c>
@@ -9365,7 +9823,7 @@
         <v>insert into sysLocalizationText Values(2034,'2034',     'MonthName-3',    'MARÇO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2035</v>
       </c>
@@ -9387,7 +9845,7 @@
         <v>insert into sysLocalizationText Values(2035,'2035',     'MonthName-4',    'ABRIL',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2036</v>
       </c>
@@ -9409,7 +9867,7 @@
         <v>insert into sysLocalizationText Values(2036,'2036',     'MonthName-5',    'MAIO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2037</v>
       </c>
@@ -9431,7 +9889,7 @@
         <v>insert into sysLocalizationText Values(2037,'2037',     'MonthName-6',    'JUNHO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2038</v>
       </c>
@@ -9453,7 +9911,7 @@
         <v>insert into sysLocalizationText Values(2038,'2038',     'MonthName-7',    'JULHO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2039</v>
       </c>
@@ -9475,7 +9933,7 @@
         <v>insert into sysLocalizationText Values(2039,'2039',     'MonthName-8',    'AGOSTO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2040</v>
       </c>
@@ -9497,7 +9955,7 @@
         <v>insert into sysLocalizationText Values(2040,'2040',     'MonthName-9',    'SETEMBRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2041</v>
       </c>
@@ -9519,7 +9977,7 @@
         <v>insert into sysLocalizationText Values(2041,'2041',     'MonthName-10',    'OUTUBRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2042</v>
       </c>
@@ -9541,7 +9999,7 @@
         <v>insert into sysLocalizationText Values(2042,'2042',     'MonthName-11',    'NOVEMBRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2043</v>
       </c>
@@ -9563,7 +10021,7 @@
         <v>insert into sysLocalizationText Values(2043,'2043',     'MonthName-12',    'DEZEMBRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2044</v>
       </c>
@@ -9585,7 +10043,7 @@
         <v>insert into sysLocalizationText Values(2044,'2044',     'Validation-NotNull',    'não pode ser nulo.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2045</v>
       </c>
@@ -9607,7 +10065,7 @@
         <v>insert into sysLocalizationText Values(2045,'2045',     'Validation-Max-Characters',    'O campo {0} não pode ter mais de maxlength caracteres.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2046</v>
       </c>
@@ -9629,7 +10087,7 @@
         <v>insert into sysLocalizationText Values(2046,'2046',     'Validation-Invalid-Field',    'O campo {0} é inválido.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2047</v>
       </c>
@@ -9651,7 +10109,7 @@
         <v>insert into sysLocalizationText Values(2047,'2047',     'Validation-Invalid-UserName',    'O campo {0} é inválido. Não use caracteres especiais ou espaços.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2048</v>
       </c>
@@ -9673,7 +10131,7 @@
         <v>insert into sysLocalizationText Values(2048,'2048',     'Validation-Unique-Value',    'O campo {0} é inválido. O valor informado deve ser único.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2049</v>
       </c>
@@ -9695,7 +10153,7 @@
         <v>insert into sysLocalizationText Values(2049,'2049',     'User-Instance-Exists',    'Esta Instância já está associada ao Usuário.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2050</v>
       </c>
@@ -9717,7 +10175,7 @@
         <v>insert into sysLocalizationText Values(2050,'2050',     'User-Instance-No-Exists',    'Esta Instância não pertence ao Usuário.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2051</v>
       </c>
@@ -9741,7 +10199,7 @@
         <v>insert into sysLocalizationText Values(2051,'2051','User-PageTitle','Gerenciamento de Usuários',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2052</v>
       </c>
@@ -9765,7 +10223,7 @@
         <v>insert into sysLocalizationText Values(2052,'2052','SearchButtonLabel','Pesquisar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2053</v>
       </c>
@@ -9789,7 +10247,7 @@
         <v>insert into sysLocalizationText Values(2053,'2053','SearchingLabel','Pesquisando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2054</v>
       </c>
@@ -9813,7 +10271,7 @@
         <v>insert into sysLocalizationText Values(2054,'2054','InsertingLoadingLabel','Inserindo...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2055</v>
       </c>
@@ -9837,7 +10295,7 @@
         <v>insert into sysLocalizationText Values(2055,'2055','SearchResultLabel','Resultado da Busca',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2056</v>
       </c>
@@ -9861,7 +10319,7 @@
         <v>insert into sysLocalizationText Values(2056,'2056','DetailsLabel','Detalhes',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2057</v>
       </c>
@@ -9885,7 +10343,7 @@
         <v>insert into sysLocalizationText Values(2057,'2057','NoRecordsFound','Nenhum registro encontrado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2058</v>
       </c>
@@ -9909,7 +10367,7 @@
         <v>insert into sysLocalizationText Values(2058,'2058','LoadingPage','Carregando. Aguarde...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2059</v>
       </c>
@@ -9933,7 +10391,7 @@
         <v>insert into sysLocalizationText Values(2059,'2059','LoadingData','Carregando a página. Aguarde...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2060</v>
       </c>
@@ -9957,7 +10415,7 @@
         <v>insert into sysLocalizationText Values(2060,'2060','ErrorOnExecuteSearch','Erro ao efetuar a busca',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2061</v>
       </c>
@@ -9981,7 +10439,7 @@
         <v>insert into sysLocalizationText Values(2061,'2061','ErrorOnReturnData','Erro ao retornar dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2062</v>
       </c>
@@ -10005,7 +10463,7 @@
         <v>insert into sysLocalizationText Values(2062,'2062','ErrorOnCreateNewRecord','Erro ao criar registro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2063</v>
       </c>
@@ -10029,7 +10487,7 @@
         <v>insert into sysLocalizationText Values(2063,'2063','AfterSaveAnswering','O novo registro foi criado com sucesso. Deseja continuar inserindo ?',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2064</v>
       </c>
@@ -10053,7 +10511,7 @@
         <v>insert into sysLocalizationText Values(2064,'2064','NoticeLabel','Aviso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2065</v>
       </c>
@@ -10077,7 +10535,7 @@
         <v>insert into sysLocalizationText Values(2065,'2065','SuccessLabel','Sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2066</v>
       </c>
@@ -10101,7 +10559,7 @@
         <v>insert into sysLocalizationText Values(2066,'2066','SuccessSaveMessage','O registro foi salvo com sucesso.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2067</v>
       </c>
@@ -10125,7 +10583,7 @@
         <v>insert into sysLocalizationText Values(2067,'2067','Email-Label','E-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2068</v>
       </c>
@@ -10149,7 +10607,7 @@
         <v>insert into sysLocalizationText Values(2068,'2068','UserName-Label','Nome de Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2069</v>
       </c>
@@ -10173,7 +10631,7 @@
         <v>insert into sysLocalizationText Values(2069,'2069','Password-Label','Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2070</v>
       </c>
@@ -10197,7 +10655,7 @@
         <v>insert into sysLocalizationText Values(2070,'2070','Instance-Label','Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2071</v>
       </c>
@@ -10221,7 +10679,7 @@
         <v>insert into sysLocalizationText Values(2071,'2071','Role-Label','Perfim',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2072</v>
       </c>
@@ -10245,7 +10703,7 @@
         <v>insert into sysLocalizationText Values(2072,'2072','Yes-Text','Sim',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2073</v>
       </c>
@@ -10269,7 +10727,7 @@
         <v>insert into sysLocalizationText Values(2073,'2073','No-Text','Não',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2074</v>
       </c>
@@ -10293,7 +10751,7 @@
         <v>insert into sysLocalizationText Values(2074,'2074','Saving-Label','Salvando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2075</v>
       </c>
@@ -10317,7 +10775,7 @@
         <v>insert into sysLocalizationText Values(2075,'2075','Edit-Label','Editar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2076</v>
       </c>
@@ -10341,7 +10799,7 @@
         <v>insert into sysLocalizationText Values(2076,'2076','Date-Label','Data',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2077</v>
       </c>
@@ -10365,7 +10823,7 @@
         <v>insert into sysLocalizationText Values(2077,'2077','Field-Label','Campo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2078</v>
       </c>
@@ -10389,7 +10847,7 @@
         <v>insert into sysLocalizationText Values(2078,'2078','Value-Label','Valor',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2079</v>
       </c>
@@ -10413,7 +10871,7 @@
         <v>insert into sysLocalizationText Values(2079,'2079','SelectItem-Description','Selecione um Item',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2080</v>
       </c>
@@ -10437,7 +10895,7 @@
         <v>insert into sysLocalizationText Values(2080,'2080','AllItem-Description','Todos',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2081</v>
       </c>
@@ -10461,7 +10919,7 @@
         <v>insert into sysLocalizationText Values(2081,'2081','Welcome-Label','Bem-vindo ao GW Template',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2082</v>
       </c>
@@ -10485,7 +10943,7 @@
         <v>insert into sysLocalizationText Values(2082,'2082','LoginTitle-Label','Entrar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2083</v>
       </c>
@@ -10509,7 +10967,7 @@
         <v>insert into sysLocalizationText Values(2083,'2083','LoginTitle-Description','Insira suas credenciais de acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2084</v>
       </c>
@@ -10533,7 +10991,7 @@
         <v>insert into sysLocalizationText Values(2084,'2084','InputEmail-Description','Digite seu e-mail de cadastro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2085</v>
       </c>
@@ -10557,7 +11015,7 @@
         <v>insert into sysLocalizationText Values(2085,'2085','InputPassword-Description','Digite sua senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2086</v>
       </c>
@@ -10581,7 +11039,7 @@
         <v>insert into sysLocalizationText Values(2086,'2086','ForgetPassword-Description','Esqueceu a senha ?',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2087</v>
       </c>
@@ -10605,7 +11063,7 @@
         <v>insert into sysLocalizationText Values(2087,'2087','LoginButton-Label','Confirmar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2088</v>
       </c>
@@ -10629,7 +11087,7 @@
         <v>insert into sysLocalizationText Values(2088,'2088','LoginLoading-Label','Entrando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2089</v>
       </c>
@@ -10653,7 +11111,7 @@
         <v>insert into sysLocalizationText Values(2089,'2089','SendText-Description','Enviando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2090</v>
       </c>
@@ -10677,7 +11135,7 @@
         <v>insert into sysLocalizationText Values(2090,'2090','ActiveAccountButton-Label','Ativar Conta',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2091</v>
       </c>
@@ -10701,7 +11159,7 @@
         <v>insert into sysLocalizationText Values(2091,'2091','ActiveAccount-Label','Ativação de Conta',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2092</v>
       </c>
@@ -10725,7 +11183,7 @@
         <v>insert into sysLocalizationText Values(2092,'2092','ActiveAccount-Description','Não consegue acessar ?',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2093</v>
       </c>
@@ -10749,7 +11207,7 @@
         <v>insert into sysLocalizationText Values(2093,'2093','ActiveAccount-Step1','Envie o código de ativação para o seu e-mail de cadastro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2094</v>
       </c>
@@ -10773,7 +11231,7 @@
         <v>insert into sysLocalizationText Values(2094,'2094','ActiveAccount-Step2','Informe o código de ativação recebido',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2095</v>
       </c>
@@ -10797,7 +11255,7 @@
         <v>insert into sysLocalizationText Values(2095,'2095','SendCodeButton-Label','Enviar Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2096</v>
       </c>
@@ -10821,7 +11279,7 @@
         <v>insert into sysLocalizationText Values(2096,'2096','ActiveLoading-Label','Solicitar Ativação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2097</v>
       </c>
@@ -10845,7 +11303,7 @@
         <v>insert into sysLocalizationText Values(2097,'2097','InputCode-Description','Digite o código recebido por e-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2098</v>
       </c>
@@ -10869,7 +11327,7 @@
         <v>insert into sysLocalizationText Values(2098,'2098','Unlogged-Label','Você não está logado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2099</v>
       </c>
@@ -10893,7 +11351,7 @@
         <v>insert into sysLocalizationText Values(2099,'2099','MyProfile-Label','Meu Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2100</v>
       </c>
@@ -10917,7 +11375,7 @@
         <v>insert into sysLocalizationText Values(2100,'2100','MainProfileData-Label','Dados do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2101</v>
       </c>
@@ -10941,7 +11399,7 @@
         <v>insert into sysLocalizationText Values(2101,'2101','AlterPassword-Label','Trocar Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2102</v>
       </c>
@@ -10965,7 +11423,7 @@
         <v>insert into sysLocalizationText Values(2102,'2102','LanguageRole-Label','Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2103</v>
       </c>
@@ -10989,7 +11447,7 @@
         <v>insert into sysLocalizationText Values(2103,'2103','AlterProfileImage-Label','Alterar a imagem de perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2104</v>
       </c>
@@ -11013,7 +11471,7 @@
         <v>insert into sysLocalizationText Values(2104,'2104','AlterPasswordStep1-Label','Clique no link abaixo para receber um email com o código de segurança para troca de senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2105</v>
       </c>
@@ -11037,7 +11495,7 @@
         <v>insert into sysLocalizationText Values(2105,'2105','AlterPasswordStep2-Label','Após receber código, preencha as informações abaixo e clique em Altera Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2106</v>
       </c>
@@ -11061,7 +11519,7 @@
         <v>insert into sysLocalizationText Values(2106,'2106','InputNewPassword-Label','Digite a nova senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2107</v>
       </c>
@@ -11085,7 +11543,7 @@
         <v>insert into sysLocalizationText Values(2107,'2107','AlterPasswordButton-Label','Alterar a Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2108</v>
       </c>
@@ -11109,7 +11567,7 @@
         <v>insert into sysLocalizationText Values(2108,'2108','AlterPasswordButton-Loading','Alterando a senha....',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2109</v>
       </c>
@@ -11133,7 +11591,7 @@
         <v>insert into sysLocalizationText Values(2109,'2109','InvalidCredentials-Title','Credenciais Inválidas',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2110</v>
       </c>
@@ -11157,7 +11615,7 @@
         <v>insert into sysLocalizationText Values(2110,'2110','InvalidCredentials-Message','E-mail ou senha inválidos!',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2111</v>
       </c>
@@ -11181,7 +11639,7 @@
         <v>insert into sysLocalizationText Values(2111,'2111','TemporaryPassword-Title','Senha Enviada',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2112</v>
       </c>
@@ -11205,7 +11663,7 @@
         <v>insert into sysLocalizationText Values(2112,'2112','TemporaryPassword-Message','Uma senha temporária foi enviada para o seu e-mail de cadastro. Ao logar, solicite a troca de senha.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2113</v>
       </c>
@@ -11229,7 +11687,7 @@
         <v>insert into sysLocalizationText Values(2113,'2113','SuccessActivated-Title','Conta Ativada com Sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2114</v>
       </c>
@@ -11253,7 +11711,7 @@
         <v>insert into sysLocalizationText Values(2114,'2114','SuccessActivated-Message','A conta foi ativada com sucesso. Você já pode efetuar login.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2115</v>
       </c>
@@ -11277,7 +11735,7 @@
         <v>insert into sysLocalizationText Values(2115,'2115','ActivateCode-Title','Código Enviado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2116</v>
       </c>
@@ -11301,7 +11759,7 @@
         <v>insert into sysLocalizationText Values(2116,'2116','ActivateCode-Message','O código de segurança foi enviado por e-mail.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2117</v>
       </c>
@@ -11325,7 +11783,7 @@
         <v>insert into sysLocalizationText Values(2117,'2117','PasswordChanged-Title','Senha Alterada',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2118</v>
       </c>
@@ -11349,7 +11807,7 @@
         <v>insert into sysLocalizationText Values(2118,'2118','PasswordChanged-Message','A senha foi alterada com sucesso. Efetue login novamente.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2119</v>
       </c>
@@ -11373,7 +11831,7 @@
         <v>insert into sysLocalizationText Values(2119,'2119','ImageChanged-Title','Imagem Alterada',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2120</v>
       </c>
@@ -11397,7 +11855,7 @@
         <v>insert into sysLocalizationText Values(2120,'2120','ImageChanged-Message','A imagem de perfil foi alterada. No próximo login a nova imagem será exibida.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2121</v>
       </c>
@@ -11421,7 +11879,7 @@
         <v>insert into sysLocalizationText Values(2121,'2121','SearchByEmail-Label','Por E-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2122</v>
       </c>
@@ -11445,7 +11903,7 @@
         <v>insert into sysLocalizationText Values(2122,'2122','SearchByUserName-Label','Por Nome de Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2123</v>
       </c>
@@ -11469,7 +11927,7 @@
         <v>insert into sysLocalizationText Values(2123,'2123','SearchByEmail-Description','Pesquisar por E-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2124</v>
       </c>
@@ -11493,7 +11951,7 @@
         <v>insert into sysLocalizationText Values(2124,'2124','SearchByUserName-Description','Pesquisar por Nome de Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2125</v>
       </c>
@@ -11517,7 +11975,7 @@
         <v>insert into sysLocalizationText Values(2125,'2125','SearchByInstance-Label','Por Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2126</v>
       </c>
@@ -11541,7 +11999,7 @@
         <v>insert into sysLocalizationText Values(2126,'2126','SearchByRole-Label','Por Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2127</v>
       </c>
@@ -11565,7 +12023,7 @@
         <v>insert into sysLocalizationText Values(2127,'2127','NewUser-Label','Novo Usuáro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2128</v>
       </c>
@@ -11589,7 +12047,7 @@
         <v>insert into sysLocalizationText Values(2128,'2128','NewUser-Description','Clique aqui para criar novo usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2129</v>
       </c>
@@ -11613,7 +12071,7 @@
         <v>insert into sysLocalizationText Values(2129,'2129','Active-Label','Ativo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2130</v>
       </c>
@@ -11637,7 +12095,7 @@
         <v>insert into sysLocalizationText Values(2130,'2130','Locked-Label','Bloqueado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2131</v>
       </c>
@@ -11661,7 +12119,7 @@
         <v>insert into sysLocalizationText Values(2131,'2131','MainData-Label','Dados Principais',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2132</v>
       </c>
@@ -11685,7 +12143,7 @@
         <v>insert into sysLocalizationText Values(2132,'2132','User-SecondTabLabel','Instância e Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2133</v>
       </c>
@@ -11709,7 +12167,7 @@
         <v>insert into sysLocalizationText Values(2133,'2133','CreateDate-Label','Data de Cadastro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2134</v>
       </c>
@@ -11733,7 +12191,7 @@
         <v>insert into sysLocalizationText Values(2134,'2134','LastLoginDate-Label','Data do Último Acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2135</v>
       </c>
@@ -11757,7 +12215,7 @@
         <v>insert into sysLocalizationText Values(2135,'2135','DefaultLanguage-Label','Idioma Padrão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2136</v>
       </c>
@@ -11781,7 +12239,7 @@
         <v>insert into sysLocalizationText Values(2136,'2136','LastLoginIP-Label','IP do Último Acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2137</v>
       </c>
@@ -11805,7 +12263,7 @@
         <v>insert into sysLocalizationText Values(2137,'2137','LoginCounter-Label','Total de Acessos',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2138</v>
       </c>
@@ -11829,7 +12287,7 @@
         <v>insert into sysLocalizationText Values(2138,'2138','PasswordRecovery-Label','Código de Recuperação de Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2139</v>
       </c>
@@ -11853,7 +12311,7 @@
         <v>insert into sysLocalizationText Values(2139,'2139','AlterInstance-Label','Alterar a Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2140</v>
       </c>
@@ -11877,7 +12335,7 @@
         <v>insert into sysLocalizationText Values(2140,'2140','AlterInstance-Description','Selecione uma Instância para alterar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2141</v>
       </c>
@@ -11901,7 +12359,7 @@
         <v>insert into sysLocalizationText Values(2141,'2141','Altering-Label','Alterando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2142</v>
       </c>
@@ -11925,7 +12383,7 @@
         <v>insert into sysLocalizationText Values(2142,'2142','AlterRole-Label','Alterar Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2143</v>
       </c>
@@ -11949,7 +12407,7 @@
         <v>insert into sysLocalizationText Values(2143,'2143','AlterRole-Description','Selecione um Perfil para alterar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2144</v>
       </c>
@@ -11973,7 +12431,7 @@
         <v>insert into sysLocalizationText Values(2144,'2144','UserStatus-Label','Status do Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2145</v>
       </c>
@@ -11997,7 +12455,7 @@
         <v>insert into sysLocalizationText Values(2145,'2145','ChangeUserState-Description','Clique aqui para alterar o status',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2146</v>
       </c>
@@ -12021,7 +12479,7 @@
         <v>insert into sysLocalizationText Values(2146,'2146','ChangeUserState-Label','Atualizar Status',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2147</v>
       </c>
@@ -12045,7 +12503,7 @@
         <v>insert into sysLocalizationText Values(2147,'2147','CreateUser-Label','Novo Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2148</v>
       </c>
@@ -12069,7 +12527,7 @@
         <v>insert into sysLocalizationText Values(2148,'2148','CreateUser-Description','Clique aqui para cciar o novo usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2149</v>
       </c>
@@ -12093,7 +12551,7 @@
         <v>insert into sysLocalizationText Values(2149,'2149','CreateUserButton-Label','Salvar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2150</v>
       </c>
@@ -12117,7 +12575,7 @@
         <v>insert into sysLocalizationText Values(2150,'2150','AlterStatus-Error','Error ao alterar o status do usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2151</v>
       </c>
@@ -12141,7 +12599,7 @@
         <v>insert into sysLocalizationText Values(2151,'2151','AlterStatus-Success','O status do usuário foi alterado com sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2152</v>
       </c>
@@ -12165,7 +12623,7 @@
         <v>insert into sysLocalizationText Values(2152,'2152','AlterInstance-Error','Erro ao alterar instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2153</v>
       </c>
@@ -12189,7 +12647,7 @@
         <v>insert into sysLocalizationText Values(2153,'2153','AlterInstance-Success','A instância foi alterada com sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2154</v>
       </c>
@@ -12213,7 +12671,7 @@
         <v>insert into sysLocalizationText Values(2154,'2154','AlterRole-Error','Erro ao alterar o perfil.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2155</v>
       </c>
@@ -12237,7 +12695,7 @@
         <v>insert into sysLocalizationText Values(2155,'2155','AlterRole-Success','O status foi alterado com sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2156</v>
       </c>
@@ -12261,7 +12719,7 @@
         <v>insert into sysLocalizationText Values(2156,'2156','Instance-PageTitle','Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2157</v>
       </c>
@@ -12285,7 +12743,7 @@
         <v>insert into sysLocalizationText Values(2157,'2157','SearchByInstanceName-Label','Por Nome da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2158</v>
       </c>
@@ -12309,7 +12767,7 @@
         <v>insert into sysLocalizationText Values(2158,'2158','SearchByInstanceName-Description','Pesquisar por Nome da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2159</v>
       </c>
@@ -12333,7 +12791,7 @@
         <v>insert into sysLocalizationText Values(2159,'2159','SearchByInstanceTypeName-Label','Por Tipo da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2160</v>
       </c>
@@ -12357,7 +12815,7 @@
         <v>insert into sysLocalizationText Values(2160,'2160','SearchByInstanceTypeName-Description','Pesquisar por Tipo da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2161</v>
       </c>
@@ -12381,7 +12839,7 @@
         <v>insert into sysLocalizationText Values(2161,'2161','NewInstance-Label','Nova Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2162</v>
       </c>
@@ -12405,7 +12863,7 @@
         <v>insert into sysLocalizationText Values(2162,'2162','NewInstance-Description','Clique aqui para criar uma nova Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2163</v>
       </c>
@@ -12429,7 +12887,7 @@
         <v>insert into sysLocalizationText Values(2163,'2163','InstanceTypeName-Label','Tipo de Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2164</v>
       </c>
@@ -12453,7 +12911,7 @@
         <v>insert into sysLocalizationText Values(2164,'2164','InstanceName-Label','Nome da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2165</v>
       </c>
@@ -12477,7 +12935,7 @@
         <v>insert into sysLocalizationText Values(2165,'2165','InstanceRecord-Label','Dados da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2166</v>
       </c>
@@ -12501,7 +12959,7 @@
         <v>insert into sysLocalizationText Values(2166,'2166','SaveInstanceButton-Label','Salvar Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2167</v>
       </c>
@@ -12525,7 +12983,7 @@
         <v>insert into sysLocalizationText Values(2167,'2167','SaveInstanceButton-Description','Clque aqui para salvar a Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2168</v>
       </c>
@@ -12549,7 +13007,7 @@
         <v>insert into sysLocalizationText Values(2168,'2168','DataLog-PageTitle','Log de Dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2169</v>
       </c>
@@ -12573,7 +13031,7 @@
         <v>insert into sysLocalizationText Values(2169,'2169','SearchByOperationType-Label','Por Tipo de Operação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2170</v>
       </c>
@@ -12597,7 +13055,7 @@
         <v>insert into sysLocalizationText Values(2170,'2170','SearchByObject-Label','Por Objeto',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2171</v>
       </c>
@@ -12621,7 +13079,7 @@
         <v>insert into sysLocalizationText Values(2171,'2171','SearchByIntervalDate-Label','Por Intervalo de Datas',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2172</v>
       </c>
@@ -12645,7 +13103,7 @@
         <v>insert into sysLocalizationText Values(2172,'2172','SearchByInicialDate-Label','Data Inicial',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2173</v>
       </c>
@@ -12669,7 +13127,7 @@
         <v>insert into sysLocalizationText Values(2173,'2173','SearchByFinalDate-Label','Data Final',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2174</v>
       </c>
@@ -12693,7 +13151,7 @@
         <v>insert into sysLocalizationText Values(2174,'2174','SearchByRecordID-Label','Por ID do Registro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2175</v>
       </c>
@@ -12717,7 +13175,7 @@
         <v>insert into sysLocalizationText Values(2175,'2175','TableName-Label','Tabela',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2176</v>
       </c>
@@ -12741,7 +13199,7 @@
         <v>insert into sysLocalizationText Values(2176,'2176','OperationText-Label','Operação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2177</v>
       </c>
@@ -12765,7 +13223,7 @@
         <v>insert into sysLocalizationText Values(2177,'2177','LogID-Label','Log ID',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2178</v>
       </c>
@@ -12789,7 +13247,7 @@
         <v>insert into sysLocalizationText Values(2178,'2178','LogInformation-Label','Informação do Log',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2179</v>
       </c>
@@ -12813,7 +13271,7 @@
         <v>insert into sysLocalizationText Values(2179,'2179','ShowTimeLine-Label','Exibir Linha do Tempo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2180</v>
       </c>
@@ -12837,7 +13295,7 @@
         <v>insert into sysLocalizationText Values(2180,'2180','OldVersionData-Label','Versão Antiga',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2181</v>
       </c>
@@ -12861,7 +13319,7 @@
         <v>insert into sysLocalizationText Values(2181,'2181','HasNoOldVersion-Label','Não existe versão antiga',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2182</v>
       </c>
@@ -12885,7 +13343,7 @@
         <v>insert into sysLocalizationText Values(2182,'2182','CurrentVersionData-Label','Versão Atual',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2183</v>
       </c>
@@ -12909,7 +13367,7 @@
         <v>insert into sysLocalizationText Values(2183,'2183','HasNoCurrentVersion-Label','Não existe versão atual',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2184</v>
       </c>
@@ -12933,7 +13391,7 @@
         <v>insert into sysLocalizationText Values(2184,'2184','RecordTimeLine-Label','Linha do Tempo do Registro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2185</v>
       </c>
@@ -12957,7 +13415,7 @@
         <v>insert into sysLocalizationText Values(2185,'2185','HasNoTimeLine-Label','Não existe dados da Linha do Tempo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2186</v>
       </c>
@@ -12981,7 +13439,7 @@
         <v>insert into sysLocalizationText Values(2186,'2186','Localization-PageTitle','Textos de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2187</v>
       </c>
@@ -13005,7 +13463,7 @@
         <v>insert into sysLocalizationText Values(2187,'2187','SearchByLanguage-Label','Por Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2188</v>
       </c>
@@ -13029,7 +13487,7 @@
         <v>insert into sysLocalizationText Values(2188,'2188','SearchByLanguage-Description','Pesquisar por Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2189</v>
       </c>
@@ -13053,7 +13511,7 @@
         <v>insert into sysLocalizationText Values(2189,'2189','SearchByLocalizationCode-Label','Por Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2190</v>
       </c>
@@ -13077,7 +13535,7 @@
         <v>insert into sysLocalizationText Values(2190,'2190','SearchByLocalizationCode-Description','Pesquisar por Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2191</v>
       </c>
@@ -13101,7 +13559,7 @@
         <v>insert into sysLocalizationText Values(2191,'2191','SearchByLocalizationName-Label','Por Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2192</v>
       </c>
@@ -13125,7 +13583,7 @@
         <v>insert into sysLocalizationText Values(2192,'2192','SearchByLocalizationName-Description','Pesquisar por Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2193</v>
       </c>
@@ -13149,7 +13607,7 @@
         <v>insert into sysLocalizationText Values(2193,'2193','SearchByLocalizationText-Label','Por Texto',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2194</v>
       </c>
@@ -13173,7 +13631,7 @@
         <v>insert into sysLocalizationText Values(2194,'2194','SearchByLocalizationText-Description','Pesquisar por Texto',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2195</v>
       </c>
@@ -13197,7 +13655,7 @@
         <v>insert into sysLocalizationText Values(2195,'2195','Language-Label','Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2196</v>
       </c>
@@ -13221,7 +13679,7 @@
         <v>insert into sysLocalizationText Values(2196,'2196','LocalizationCode-Label','Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2197</v>
       </c>
@@ -13245,7 +13703,7 @@
         <v>insert into sysLocalizationText Values(2197,'2197','LocalizationName-Label','Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2198</v>
       </c>
@@ -13269,7 +13727,7 @@
         <v>insert into sysLocalizationText Values(2198,'2198','LocalizationRecord-Label','Dados do Texto de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2199</v>
       </c>
@@ -13293,7 +13751,7 @@
         <v>insert into sysLocalizationText Values(2199,'2199','LocalizationText-Label','Texto ',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2200</v>
       </c>
@@ -13317,7 +13775,7 @@
         <v>insert into sysLocalizationText Values(2200,'2200','SaveLocalizationButton-Label','Salvar Texto de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2201</v>
       </c>
@@ -13341,7 +13799,7 @@
         <v>insert into sysLocalizationText Values(2201,'2201','SaveLocalizationButton-Description','Clique aqui para salvar os dados.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2202</v>
       </c>
@@ -13365,7 +13823,7 @@
         <v>insert into sysLocalizationText Values(2202,'2202','NewLocalization-Label','Novo Texto de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2203</v>
       </c>
@@ -13389,7 +13847,7 @@
         <v>insert into sysLocalizationText Values(2203,'2203','ObjectPermission-PageTitle','Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2204</v>
       </c>
@@ -13413,7 +13871,7 @@
         <v>insert into sysLocalizationText Values(2204,'2204','SearchByObjectName-Label','Por Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2205</v>
       </c>
@@ -13437,7 +13895,7 @@
         <v>insert into sysLocalizationText Values(2205,'2205','SearchByObjectName-Description','Pesquisar por Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2206</v>
       </c>
@@ -13461,7 +13919,7 @@
         <v>insert into sysLocalizationText Values(2206,'2206','SearchByObjectCode-Label','Por Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2207</v>
       </c>
@@ -13485,7 +13943,7 @@
         <v>insert into sysLocalizationText Values(2207,'2207','SearchByObjectCode-Description','Pesquisar por Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2208</v>
       </c>
@@ -13509,7 +13967,7 @@
         <v>insert into sysLocalizationText Values(2208,'2208','NewObject-Label','Novo Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2209</v>
       </c>
@@ -13533,7 +13991,7 @@
         <v>insert into sysLocalizationText Values(2209,'2209','ObjectName-Label','Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2210</v>
       </c>
@@ -13557,7 +14015,7 @@
         <v>insert into sysLocalizationText Values(2210,'2210','ObjectCode-Label','Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2211</v>
       </c>
@@ -13581,7 +14039,7 @@
         <v>insert into sysLocalizationText Values(2211,'2211','ObjectPermissionRecord-Label','Dados do Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2212</v>
       </c>
@@ -13605,7 +14063,7 @@
         <v>insert into sysLocalizationText Values(2212,'2212','SaveObjectPermissionButton-Label','Salvar Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2213</v>
       </c>
@@ -13629,7 +14087,7 @@
         <v>insert into sysLocalizationText Values(2213,'2213','SaveObjectPermissionButton-Description','Clique aqui para salvar o Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2214</v>
       </c>
@@ -13653,7 +14111,7 @@
         <v>insert into sysLocalizationText Values(2214,'2214','Permission-PageTitle','Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2215</v>
       </c>
@@ -13677,7 +14135,7 @@
         <v>insert into sysLocalizationText Values(2215,'2215','SearchByObjectPermission-Label','Por Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2216</v>
       </c>
@@ -13701,7 +14159,7 @@
         <v>insert into sysLocalizationText Values(2216,'2216','SearchByRole-Label','Por Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2217</v>
       </c>
@@ -13725,7 +14183,7 @@
         <v>insert into sysLocalizationText Values(2217,'2217','SearchByUser-Label','Por Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2218</v>
       </c>
@@ -13749,7 +14207,7 @@
         <v>insert into sysLocalizationText Values(2218,'2218','NewPermission-Label','Nova Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2219</v>
       </c>
@@ -13773,7 +14231,7 @@
         <v>insert into sysLocalizationText Values(2219,'2219','NewPermission-Description','Clique aqui para inserir uma nova Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2220</v>
       </c>
@@ -13797,7 +14255,7 @@
         <v>insert into sysLocalizationText Values(2220,'2220','ObjectName-Label','Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2221</v>
       </c>
@@ -13821,7 +14279,7 @@
         <v>insert into sysLocalizationText Values(2221,'2221','RoleName-Label','Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2222</v>
       </c>
@@ -13845,7 +14303,7 @@
         <v>insert into sysLocalizationText Values(2222,'2222','PermissionRecord-Label','Dados da Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2223</v>
       </c>
@@ -13869,7 +14327,7 @@
         <v>insert into sysLocalizationText Values(2223,'2223','PermissionType-Label','Tipo de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2224</v>
       </c>
@@ -13893,7 +14351,7 @@
         <v>insert into sysLocalizationText Values(2224,'2224','ReadStatus-Label','Status de Leitura',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2225</v>
       </c>
@@ -13917,7 +14375,7 @@
         <v>insert into sysLocalizationText Values(2225,'2225','SaveStatus-Label','Status de Gravação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2226</v>
       </c>
@@ -13941,7 +14399,7 @@
         <v>insert into sysLocalizationText Values(2226,'2226','DeleteStatus-Label','Status de Exclusão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2227</v>
       </c>
@@ -13965,7 +14423,7 @@
         <v>insert into sysLocalizationText Values(2227,'2227','SavePermissionButton-Label','Salvar Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2228</v>
       </c>
@@ -13989,7 +14447,7 @@
         <v>insert into sysLocalizationText Values(2228,'2228','SavePermissionButton-Description','Clique aqui para salvar a Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2229</v>
       </c>
@@ -14013,7 +14471,7 @@
         <v>insert into sysLocalizationText Values(2229,'2229','Role-PageTitle','Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2230</v>
       </c>
@@ -14037,7 +14495,7 @@
         <v>insert into sysLocalizationText Values(2230,'2230','SearchByRoleName-Label','Por Nome do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2231</v>
       </c>
@@ -14061,7 +14519,7 @@
         <v>insert into sysLocalizationText Values(2231,'2231','SearchByRoleName-Description','Pesquisar por Nome do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2232</v>
       </c>
@@ -14085,7 +14543,7 @@
         <v>insert into sysLocalizationText Values(2232,'2232','NewRole-Label','Novo Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2233</v>
       </c>
@@ -14109,7 +14567,7 @@
         <v>insert into sysLocalizationText Values(2233,'2233','NewRole-Description','Clique aqui para criar um novo Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2234</v>
       </c>
@@ -14133,7 +14591,7 @@
         <v>insert into sysLocalizationText Values(2234,'2234','RoleName-Label','Nome do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2235</v>
       </c>
@@ -14157,7 +14615,7 @@
         <v>insert into sysLocalizationText Values(2235,'2235','RoleRecord-Label','Dados do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2236</v>
       </c>
@@ -14181,7 +14639,7 @@
         <v>insert into sysLocalizationText Values(2236,'2236','SaveRoleButton-Label','Salvar Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2237</v>
       </c>
@@ -14205,7 +14663,7 @@
         <v>insert into sysLocalizationText Values(2237,'2237','SaveRoleButton-Description','Clique aqui para salvar o Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2238</v>
       </c>
@@ -14229,7 +14687,7 @@
         <v>insert into sysLocalizationText Values(2238,'2238','SessionLog-PageTitle','Dados de Sessão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2239</v>
       </c>
@@ -14253,7 +14711,7 @@
         <v>insert into sysLocalizationText Values(2239,'2239','SearchByEmail-Description','Pesquisar por E-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2240</v>
       </c>
@@ -14277,7 +14735,7 @@
         <v>insert into sysLocalizationText Values(2240,'2240','SearchByDateInterval-Label','Por Intervalo de Dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2241</v>
       </c>
@@ -14301,7 +14759,7 @@
         <v>insert into sysLocalizationText Values(2241,'2241','SearchByInicialDate-Label','Data Inicial',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2242</v>
       </c>
@@ -14325,7 +14783,7 @@
         <v>insert into sysLocalizationText Values(2242,'2242','SearchByFinalDate-Label','Data Final',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2243</v>
       </c>
@@ -14349,7 +14807,7 @@
         <v>insert into sysLocalizationText Values(2243,'2243','AccessDate-Label','Data de Acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2244</v>
       </c>
@@ -14373,7 +14831,7 @@
         <v>insert into sysLocalizationText Values(2244,'2244','IP-Label','IP',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2245</v>
       </c>
@@ -14397,7 +14855,7 @@
         <v>insert into sysLocalizationText Values(2245,'2245','SuperAdmin-MenuText','Super Admin',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2246</v>
       </c>
@@ -14421,7 +14879,7 @@
         <v>insert into sysLocalizationText Values(2246,'2246','BasicsData-MenuText','Gerenciamento',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2247</v>
       </c>
@@ -14445,7 +14903,7 @@
         <v>insert into sysLocalizationText Values(2247,'2247','Monitoring-MenuText','Monitoramento',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2248</v>
       </c>
@@ -14469,7 +14927,7 @@
         <v>insert into sysLocalizationText Values(2248,'2248','Instance-MenuText','Instâncias',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2249</v>
       </c>
@@ -14493,7 +14951,7 @@
         <v>insert into sysLocalizationText Values(2249,'2249','Role-MenuText','Perfils',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2250</v>
       </c>
@@ -14517,7 +14975,7 @@
         <v>insert into sysLocalizationText Values(2250,'2250','Users-MenuText','Usuários',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2251</v>
       </c>
@@ -14541,7 +14999,7 @@
         <v>insert into sysLocalizationText Values(2251,'2251','ObjectPermission-MenuText','Objetos de Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2252</v>
       </c>
@@ -14565,7 +15023,7 @@
         <v>insert into sysLocalizationText Values(2252,'2252','Permissions-MenuText','Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2253</v>
       </c>
@@ -14589,7 +15047,7 @@
         <v>insert into sysLocalizationText Values(2253,'2253','Localization-MenuText','Textos de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2256</v>
       </c>
@@ -14613,7 +15071,7 @@
         <v>insert into sysLocalizationText Values(2256,'2256','DataLog-MenuText','Log de Dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2257</v>
       </c>
@@ -14637,7 +15095,7 @@
         <v>insert into sysLocalizationText Values(2257,'2257','SessionLog-MenuText','Log de Sessão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2258</v>
       </c>
@@ -14661,7 +15119,7 @@
         <v>insert into sysLocalizationText Values(2258,'2258','SearchByGroupParameterName-Label','Nome do Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2259</v>
       </c>
@@ -14685,7 +15143,7 @@
         <v>insert into sysLocalizationText Values(2259,'2259','SearchByGroupParameterName-Description','Pesquisar por Nome de Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2260</v>
       </c>
@@ -14709,7 +15167,7 @@
         <v>insert into sysLocalizationText Values(2260,'2260','NewGroupParameter-Label','Novo Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2261</v>
       </c>
@@ -14733,7 +15191,7 @@
         <v>insert into sysLocalizationText Values(2261,'2261','NewGroupParameter-Description','Clique aqui para criar um novo Grupo de Parâmetro ',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2262</v>
       </c>
@@ -14757,7 +15215,7 @@
         <v>insert into sysLocalizationText Values(2262,'2262','GroupParameterRecord-Label','Dados do Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2263</v>
       </c>
@@ -14781,7 +15239,7 @@
         <v>insert into sysLocalizationText Values(2263,'2263','GroupParameterName-Label','Nome do Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2264</v>
       </c>
@@ -14805,7 +15263,7 @@
         <v>insert into sysLocalizationText Values(2264,'2264','SaveGroupParameterButton-Label','Save Group Parameter',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2265</v>
       </c>
@@ -14829,7 +15287,7 @@
         <v>insert into sysLocalizationText Values(2265,'2265','SaveGroupParameterButton-Description','Clique aqui para salvar o Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2266</v>
       </c>
@@ -14853,7 +15311,7 @@
         <v>insert into sysLocalizationText Values(2266,'2266','GroupParameter-PageTitle','Grupo de Parâmetros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2267</v>
       </c>
@@ -14877,7 +15335,7 @@
         <v>insert into sysLocalizationText Values(2267,'2267','SearchByParameterName-Label','Nome do Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2268</v>
       </c>
@@ -14901,7 +15359,7 @@
         <v>insert into sysLocalizationText Values(2268,'2268','SearchByParameterName-Description','Pesquisar por Nome do Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2269</v>
       </c>
@@ -14925,7 +15383,7 @@
         <v>insert into sysLocalizationText Values(2269,'2269','NewParameter-Label','Novo Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2270</v>
       </c>
@@ -14949,7 +15407,7 @@
         <v>insert into sysLocalizationText Values(2270,'2270','NewParameter-Description','Clique aqui par acriar um novo Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2271</v>
       </c>
@@ -14973,7 +15431,7 @@
         <v>insert into sysLocalizationText Values(2271,'2271','ParameterRecord-Label','Dados do Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2272</v>
       </c>
@@ -14997,7 +15455,7 @@
         <v>insert into sysLocalizationText Values(2272,'2272','ParameterName-Label','Nome do Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2273</v>
       </c>
@@ -15021,7 +15479,7 @@
         <v>insert into sysLocalizationText Values(2273,'2273','SaveParameterButton-Label','Salvar Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2274</v>
       </c>
@@ -15045,7 +15503,7 @@
         <v>insert into sysLocalizationText Values(2274,'2274','SaveParameterButton-Description','Clique aqui para salvar o Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2275</v>
       </c>
@@ -15069,7 +15527,7 @@
         <v>insert into sysLocalizationText Values(2275,'2275','Parameter-PageTitle','Parâmetros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2276</v>
       </c>
@@ -15091,7 +15549,7 @@
         <v>insert into sysLocalizationText Values(2276,'2276','ChangeUserLanguage-Title','Alterar linguagem do usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2277</v>
       </c>
@@ -15113,7 +15571,7 @@
         <v>insert into sysLocalizationText Values(2277,'2277','ChangeUserLanguage-Message','A linguagem do usuário foi alterada com sucesso. Faça login novamente.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2278</v>
       </c>
@@ -15137,7 +15595,7 @@
         <v>insert into sysLocalizationText Values(2278,'2278','ExceptionLog-PageTitle','Log de Exceções',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2279</v>
       </c>
@@ -15161,7 +15619,7 @@
         <v>insert into sysLocalizationText Values(2279,'2279','SearchByOrgin-Label','Pesquisar por Origem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2280</v>
       </c>
@@ -15185,7 +15643,7 @@
         <v>insert into sysLocalizationText Values(2280,'2280','Origin-Label','Origem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2281</v>
       </c>
@@ -15209,7 +15667,7 @@
         <v>insert into sysLocalizationText Values(2281,'2281','TargetSite-Label','Local Alvo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2282</v>
       </c>
@@ -15233,7 +15691,7 @@
         <v>insert into sysLocalizationText Values(2282,'2282','ErrMessage-Label','Messagem de Erro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2283</v>
       </c>
@@ -15257,7 +15715,7 @@
         <v>insert into sysLocalizationText Values(2283,'2283','StackTrace-Label','Rastreamento da Pilha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2284</v>
       </c>
@@ -15281,7 +15739,7 @@
         <v>insert into sysLocalizationText Values(2284,'2284','ClientIP-Label','IP do Cliente',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2285</v>
       </c>
@@ -15305,7 +15763,7 @@
         <v>insert into sysLocalizationText Values(2285,'2285','SearchByConfigName-Label','Por Nome Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2286</v>
       </c>
@@ -15329,7 +15787,7 @@
         <v>insert into sysLocalizationText Values(2286,'2286','SearchByConfigName-Description','Pesquisar por Nome Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2287</v>
       </c>
@@ -15353,7 +15811,7 @@
         <v>insert into sysLocalizationText Values(2287,'2287','NewConfig-Label','Nova Configguração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2288</v>
       </c>
@@ -15377,7 +15835,7 @@
         <v>insert into sysLocalizationText Values(2288,'2288','NewConfig-Description','Clique aqui para criar uma nova Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2289</v>
       </c>
@@ -15401,7 +15859,7 @@
         <v>insert into sysLocalizationText Values(2289,'2289','ConfigName','Nome Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2290</v>
       </c>
@@ -15425,7 +15883,7 @@
         <v>insert into sysLocalizationText Values(2290,'2290','ConfigRecord-Label','Configurações',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2291</v>
       </c>
@@ -15449,7 +15907,7 @@
         <v>insert into sysLocalizationText Values(2291,'2291','ConfigName-Label','Nome da Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2292</v>
       </c>
@@ -15473,7 +15931,7 @@
         <v>insert into sysLocalizationText Values(2292,'2292','ConfigValue-Label','Valor da Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2293</v>
       </c>
@@ -15497,7 +15955,7 @@
         <v>insert into sysLocalizationText Values(2293,'2293','ConfigValue','Valor da Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2294</v>
       </c>
@@ -15521,7 +15979,7 @@
         <v>insert into sysLocalizationText Values(2294,'2294','SaveConfigButton-Label','Salvar Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2295</v>
       </c>
@@ -15545,7 +16003,7 @@
         <v>insert into sysLocalizationText Values(2295,'2295','SaveConfigButton-Description','Clique aqui para salvar a Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2296</v>
       </c>
@@ -15569,7 +16027,7 @@
         <v>insert into sysLocalizationText Values(2296,'2296','Configs-PageTitle','Configurações',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2297</v>
       </c>
@@ -15593,7 +16051,7 @@
         <v>insert into sysLocalizationText Values(2297,'2297','Logout-Label','Sair',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2298</v>
       </c>
@@ -15617,7 +16075,7 @@
         <v>insert into sysLocalizationText Values(2298,'2298','AlterProfileImage-Description','Arraste aqui o arquivo que deseja, ou clique no botão acima para navegar.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2299</v>
       </c>
@@ -15625,7 +16083,7 @@
         <v>2</v>
       </c>
       <c r="C297" t="str">
-        <f t="shared" ref="C297:C327" si="18">"'" &amp; A297 &amp; "'"</f>
+        <f t="shared" ref="C297:C336" si="18">"'" &amp; A297 &amp; "'"</f>
         <v>'2299'</v>
       </c>
       <c r="D297" t="str">
@@ -15641,7 +16099,7 @@
         <v>insert into sysLocalizationText Values(2299,'2299','Menu-Superadmin','Super Admin',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2300</v>
       </c>
@@ -15665,7 +16123,7 @@
         <v>insert into sysLocalizationText Values(2300,'2300','Menu-Configs','Configs de Negócio',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2301</v>
       </c>
@@ -15689,7 +16147,7 @@
         <v>insert into sysLocalizationText Values(2301,'2301','Menu-Instance','Instâncias',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2302</v>
       </c>
@@ -15713,7 +16171,7 @@
         <v>insert into sysLocalizationText Values(2302,'2302','Menu-Roles','Roles',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2303</v>
       </c>
@@ -15737,7 +16195,7 @@
         <v>insert into sysLocalizationText Values(2303,'2303','Menu-ObjectPermissions','Objetos de Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2304</v>
       </c>
@@ -15761,7 +16219,7 @@
         <v>insert into sysLocalizationText Values(2304,'2304','Menu-Permissions','Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2305</v>
       </c>
@@ -15785,7 +16243,7 @@
         <v>insert into sysLocalizationText Values(2305,'2305','Menu-Users','Usuários',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2306</v>
       </c>
@@ -15809,7 +16267,7 @@
         <v>insert into sysLocalizationText Values(2306,'2306','Menu-LocalizationTexts','Textos de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2307</v>
       </c>
@@ -15833,7 +16291,7 @@
         <v>insert into sysLocalizationText Values(2307,'2307','Menu-GroupParameters','Grupo de Parâmetros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2308</v>
       </c>
@@ -15857,7 +16315,7 @@
         <v>insert into sysLocalizationText Values(2308,'2308','Menu-Parameters','Parâmetros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2309</v>
       </c>
@@ -15881,7 +16339,7 @@
         <v>insert into sysLocalizationText Values(2309,'2309','Menu-Monitoring','Monitoramento',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2310</v>
       </c>
@@ -15905,7 +16363,7 @@
         <v>insert into sysLocalizationText Values(2310,'2310','Menu-SessionLog','Logs de Acessos',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2311</v>
       </c>
@@ -15929,7 +16387,7 @@
         <v>insert into sysLocalizationText Values(2311,'2311','Menu-DataLog','Logs de Dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2312</v>
       </c>
@@ -15953,7 +16411,7 @@
         <v>insert into sysLocalizationText Values(2312,'2312','Menu-ExceptionLog','Logs de Erros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2313</v>
       </c>
@@ -15977,7 +16435,7 @@
         <v>insert into sysLocalizationText Values(2313,'2313','Editing-Label','Editando',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2314</v>
       </c>
@@ -16001,7 +16459,7 @@
         <v>insert into sysLocalizationText Values(2314,'2314','Inserting-Label','Inserindo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2315</v>
       </c>
@@ -16025,7 +16483,7 @@
         <v>insert into sysLocalizationText Values(2315,'2315','RemoveConfirmation-Label','Deseja realmente remover este registro?',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2316</v>
       </c>
@@ -16049,7 +16507,7 @@
         <v>insert into sysLocalizationText Values(2316,'2316','RemoveConfirmation-Message','O registro foi removido com sucesso.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2317</v>
       </c>
@@ -16073,7 +16531,7 @@
         <v>insert into sysLocalizationText Values(2317,'2317','AllowRead-Label','Ler',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2318</v>
       </c>
@@ -16097,7 +16555,7 @@
         <v>insert into sysLocalizationText Values(2318,'2318','AllowSave-Label','Salvar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2319</v>
       </c>
@@ -16121,7 +16579,7 @@
         <v>insert into sysLocalizationText Values(2319,'2319','AllowDelete-Label','Remover',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2320</v>
       </c>
@@ -16145,7 +16603,7 @@
         <v>insert into sysLocalizationText Values(2320,'2320','InsertOperation-Text','Inserção',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2321</v>
       </c>
@@ -16169,7 +16627,7 @@
         <v>insert into sysLocalizationText Values(2321,'2321','UpdateOperation-Text','Edição',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2322</v>
       </c>
@@ -16193,7 +16651,7 @@
         <v>insert into sysLocalizationText Values(2322,'2322','DeleteOperation-Text','Exclusão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2323</v>
       </c>
@@ -16217,7 +16675,7 @@
         <v>insert into sysLocalizationText Values(2323,'2323','NewLanguage-Label','Nova Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2324</v>
       </c>
@@ -16237,11 +16695,11 @@
         <v>'Salvar Linguagem'</v>
       </c>
       <c r="F322" t="str">
-        <f t="shared" ref="F322:F327" si="19">"insert into sysLocalizationText Values(" &amp;A322 &amp; "," &amp;C322 &amp; "," &amp; D322 &amp; "," &amp; E322 &amp; ",getdate(),getdate()," &amp; B322 &amp; ")"</f>
+        <f t="shared" ref="F322:F346" si="19">"insert into sysLocalizationText Values(" &amp;A322 &amp; "," &amp;C322 &amp; "," &amp; D322 &amp; "," &amp; E322 &amp; ",getdate(),getdate()," &amp; B322 &amp; ")"</f>
         <v>insert into sysLocalizationText Values(2324,'2324','SaveLanguageButton-Label','Salvar Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2325</v>
       </c>
@@ -16265,7 +16723,7 @@
         <v>insert into sysLocalizationText Values(2325,'2325','SearchByLanguageName-Label','Por Nome da Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2326</v>
       </c>
@@ -16289,7 +16747,7 @@
         <v>insert into sysLocalizationText Values(2326,'2326','LanguageName-Label','Nome da Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2327</v>
       </c>
@@ -16313,7 +16771,7 @@
         <v>insert into sysLocalizationText Values(2327,'2327','Description-Label','Descrição',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2328</v>
       </c>
@@ -16337,7 +16795,7 @@
         <v>insert into sysLocalizationText Values(2328,'2328','Language-PageTitle','Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2329</v>
       </c>
@@ -16359,6 +16817,462 @@
       <c r="F327" t="str">
         <f t="shared" si="19"/>
         <v>insert into sysLocalizationText Values(2329,'2329','Menu-Language','Linguagens',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2330</v>
+      </c>
+      <c r="B328" s="2">
+        <v>2</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" si="18"/>
+        <v>'2330'</v>
+      </c>
+      <c r="D328" t="str">
+        <f>$N$1 &amp; "Person-PageTitle" &amp; $N$1</f>
+        <v>'Person-PageTitle'</v>
+      </c>
+      <c r="E328" t="str">
+        <f>$N$1 &amp; "Pessoa" &amp; $N$1</f>
+        <v>'Pessoa'</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2330,'2330','Person-PageTitle','Pessoa',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2331</v>
+      </c>
+      <c r="B329" s="2">
+        <v>2</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" si="18"/>
+        <v>'2331'</v>
+      </c>
+      <c r="D329" t="str">
+        <f>$N$1 &amp; "Menu-Admin" &amp; $N$1</f>
+        <v>'Menu-Admin'</v>
+      </c>
+      <c r="E329" t="str">
+        <f>$N$1 &amp; "Administração" &amp; $N$1</f>
+        <v>'Administração'</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2331,'2331','Menu-Admin','Administração',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2332</v>
+      </c>
+      <c r="B330" s="2">
+        <v>2</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" si="18"/>
+        <v>'2332'</v>
+      </c>
+      <c r="D330" t="str">
+        <f>$N$1 &amp; "Menu-Person" &amp; $N$1</f>
+        <v>'Menu-Person'</v>
+      </c>
+      <c r="E330" t="str">
+        <f>$N$1 &amp; "Pessoa" &amp; $N$1</f>
+        <v>'Pessoa'</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2332,'2332','Menu-Person','Pessoa',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2333</v>
+      </c>
+      <c r="B331" s="2">
+        <v>2</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" si="18"/>
+        <v>'2333'</v>
+      </c>
+      <c r="D331" t="str">
+        <f>$N$1 &amp; "NewPerson-Label" &amp; $N$1</f>
+        <v>'NewPerson-Label'</v>
+      </c>
+      <c r="E331" t="str">
+        <f>$N$1 &amp; "Nova Pessoa" &amp; $N$1</f>
+        <v>'Nova Pessoa'</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2333,'2333','NewPerson-Label','Nova Pessoa',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2334</v>
+      </c>
+      <c r="B332" s="2">
+        <v>2</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" si="18"/>
+        <v>'2334'</v>
+      </c>
+      <c r="D332" t="str">
+        <f>$N$1 &amp; "SavePersonButton-Label" &amp; $N$1</f>
+        <v>'SavePersonButton-Label'</v>
+      </c>
+      <c r="E332" t="str">
+        <f>$N$1 &amp; "Salvar Pessoa" &amp; $N$1</f>
+        <v>'Salvar Pessoa'</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2334,'2334','SavePersonButton-Label','Salvar Pessoa',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2335</v>
+      </c>
+      <c r="B333" s="2">
+        <v>2</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" si="18"/>
+        <v>'2335'</v>
+      </c>
+      <c r="D333" t="str">
+        <f>$N$1 &amp; "SearchByPersonName-Label" &amp; $N$1</f>
+        <v>'SearchByPersonName-Label'</v>
+      </c>
+      <c r="E333" t="str">
+        <f>$N$1 &amp; "Por Nome Pessoa" &amp; $N$1</f>
+        <v>'Por Nome Pessoa'</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2335,'2335','SearchByPersonName-Label','Por Nome Pessoa',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2336</v>
+      </c>
+      <c r="B334" s="2">
+        <v>2</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" si="18"/>
+        <v>'2336'</v>
+      </c>
+      <c r="D334" t="str">
+        <f>$N$1 &amp; "PersonName-Label" &amp; $N$1</f>
+        <v>'PersonName-Label'</v>
+      </c>
+      <c r="E334" t="str">
+        <f>$N$1 &amp; "Nome Pessoa" &amp; $N$1</f>
+        <v>'Nome Pessoa'</v>
+      </c>
+      <c r="F334" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2336,'2336','PersonName-Label','Nome Pessoa',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2337</v>
+      </c>
+      <c r="B335" s="2">
+        <v>2</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" si="18"/>
+        <v>'2337'</v>
+      </c>
+      <c r="D335" t="str">
+        <f>$N$1 &amp; "PersonEmail-Label" &amp; $N$1</f>
+        <v>'PersonEmail-Label'</v>
+      </c>
+      <c r="E335" t="str">
+        <f>$N$1 &amp; "E-mail" &amp; $N$1</f>
+        <v>'E-mail'</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2337,'2337','PersonEmail-Label','E-mail',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2338</v>
+      </c>
+      <c r="B336" s="2">
+        <v>2</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="18"/>
+        <v>'2338'</v>
+      </c>
+      <c r="D336" t="str">
+        <f>$N$1 &amp; "PhoneNumber-Label" &amp; $N$1</f>
+        <v>'PhoneNumber-Label'</v>
+      </c>
+      <c r="E336" t="str">
+        <f>$N$1 &amp; "Telefone/Celular" &amp; $N$1</f>
+        <v>'Telefone/Celular'</v>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2338,'2338','PhoneNumber-Label','Telefone/Celular',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2339</v>
+      </c>
+      <c r="B337" s="2">
+        <v>2</v>
+      </c>
+      <c r="C337" t="str">
+        <f>"'" &amp; A337 &amp; "'"</f>
+        <v>'2339'</v>
+      </c>
+      <c r="D337" t="str">
+        <f>$N$1 &amp; "SearchByPersonEmail-Label" &amp; $N$1</f>
+        <v>'SearchByPersonEmail-Label'</v>
+      </c>
+      <c r="E337" t="str">
+        <f>$N$1 &amp; "Por E-mail Pessoa" &amp; $N$1</f>
+        <v>'Por E-mail Pessoa'</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2339,'2339','SearchByPersonEmail-Label','Por E-mail Pessoa',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2340</v>
+      </c>
+      <c r="B338" s="2">
+        <v>2</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" ref="C338:C346" si="20">"'" &amp; A338 &amp; "'"</f>
+        <v>'2340'</v>
+      </c>
+      <c r="D338" t="str">
+        <f>$N$1 &amp; "Contacts-Title" &amp; $N$1</f>
+        <v>'Contacts-Title'</v>
+      </c>
+      <c r="E338" t="str">
+        <f>$N$1 &amp; "Contatos" &amp; $N$1</f>
+        <v>'Contatos'</v>
+      </c>
+      <c r="F338" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2340,'2340','Contacts-Title','Contatos',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2341</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" si="20"/>
+        <v>'2341'</v>
+      </c>
+      <c r="D339" t="str">
+        <f>$N$1 &amp; "ContactEditing-Label" &amp; $N$1</f>
+        <v>'ContactEditing-Label'</v>
+      </c>
+      <c r="E339" t="str">
+        <f>$N$1 &amp; "Editando Contato" &amp; $N$1</f>
+        <v>'Editando Contato'</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2341,'2341','ContactEditing-Label','Editando Contato',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2342</v>
+      </c>
+      <c r="B340" s="2">
+        <v>2</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="20"/>
+        <v>'2342'</v>
+      </c>
+      <c r="D340" t="str">
+        <f>$N$1 &amp; "ContactInserting-Label" &amp; $N$1</f>
+        <v>'ContactInserting-Label'</v>
+      </c>
+      <c r="E340" t="str">
+        <f>$N$1 &amp; "Inserindo Contato" &amp; $N$1</f>
+        <v>'Inserindo Contato'</v>
+      </c>
+      <c r="F340" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2342,'2342','ContactInserting-Label','Inserindo Contato',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2343</v>
+      </c>
+      <c r="B341" s="2">
+        <v>2</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" si="20"/>
+        <v>'2343'</v>
+      </c>
+      <c r="D341" t="str">
+        <f>$N$1 &amp; "ContactName-Label" &amp; $N$1</f>
+        <v>'ContactName-Label'</v>
+      </c>
+      <c r="E341" t="str">
+        <f>$N$1 &amp; "Nome do Contato" &amp; $N$1</f>
+        <v>'Nome do Contato'</v>
+      </c>
+      <c r="F341" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2343,'2343','ContactName-Label','Nome do Contato',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2344</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" si="20"/>
+        <v>'2344'</v>
+      </c>
+      <c r="D342" t="str">
+        <f>$N$1 &amp; "ContactEmail-Label" &amp; $N$1</f>
+        <v>'ContactEmail-Label'</v>
+      </c>
+      <c r="E342" t="str">
+        <f>$N$1 &amp; "E-mail do Contato" &amp; $N$1</f>
+        <v>'E-mail do Contato'</v>
+      </c>
+      <c r="F342" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2344,'2344','ContactEmail-Label','E-mail do Contato',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2345</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" si="20"/>
+        <v>'2345'</v>
+      </c>
+      <c r="D343" t="str">
+        <f>$N$1 &amp; "ContactCellPhoneNumber-Label" &amp; $N$1</f>
+        <v>'ContactCellPhoneNumber-Label'</v>
+      </c>
+      <c r="E343" t="str">
+        <f>$N$1 &amp; "Celular Contato" &amp; $N$1</f>
+        <v>'Celular Contato'</v>
+      </c>
+      <c r="F343" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2345,'2345','ContactCellPhoneNumber-Label','Celular Contato',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2346</v>
+      </c>
+      <c r="B344" s="2">
+        <v>2</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" si="20"/>
+        <v>'2346'</v>
+      </c>
+      <c r="D344" t="str">
+        <f>$N$1 &amp; "SavePersonContactButton-Label" &amp; $N$1</f>
+        <v>'SavePersonContactButton-Label'</v>
+      </c>
+      <c r="E344" t="str">
+        <f>$N$1 &amp; "Salvar Contato" &amp; $N$1</f>
+        <v>'Salvar Contato'</v>
+      </c>
+      <c r="F344" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2346,'2346','SavePersonContactButton-Label','Salvar Contato',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2347</v>
+      </c>
+      <c r="B345" s="2">
+        <v>2</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="20"/>
+        <v>'2347'</v>
+      </c>
+      <c r="D345" t="str">
+        <f t="shared" ref="D345:E346" si="21">$N$1 &amp; "" &amp; $N$1</f>
+        <v>''</v>
+      </c>
+      <c r="E345" t="str">
+        <f t="shared" si="21"/>
+        <v>''</v>
+      </c>
+      <c r="F345" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2347,'2347','','',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2348</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="20"/>
+        <v>'2348'</v>
+      </c>
+      <c r="D346" t="str">
+        <f t="shared" si="21"/>
+        <v>''</v>
+      </c>
+      <c r="E346" t="str">
+        <f t="shared" si="21"/>
+        <v>''</v>
+      </c>
+      <c r="F346" t="str">
+        <f t="shared" si="19"/>
+        <v>insert into sysLocalizationText Values(2348,'2348','','',getdate(),getdate(),2)</v>
       </c>
     </row>
   </sheetData>
@@ -16367,19 +17281,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2001</v>
       </c>
@@ -16388,7 +17302,7 @@
         <v>'2001'</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -16397,7 +17311,7 @@
         <v>'2002'</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -16406,7 +17320,7 @@
         <v>'2003'</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -16415,7 +17329,7 @@
         <v>'2004'</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -16424,7 +17338,7 @@
         <v>'2005'</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -16433,7 +17347,7 @@
         <v>'2006'</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -16442,7 +17356,7 @@
         <v>'2007'</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -16451,7 +17365,7 @@
         <v>'2008'</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -16460,7 +17374,7 @@
         <v>'2009'</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -16469,7 +17383,7 @@
         <v>'2010'</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -16478,7 +17392,7 @@
         <v>'2011'</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -16487,7 +17401,7 @@
         <v>'2012'</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -16496,7 +17410,7 @@
         <v>'2013'</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -16505,7 +17419,7 @@
         <v>'2014'</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -16514,7 +17428,7 @@
         <v>'2015'</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -16523,7 +17437,7 @@
         <v>'2016'</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -16532,7 +17446,7 @@
         <v>'2017'</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -16541,7 +17455,7 @@
         <v>'2018'</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -16550,7 +17464,7 @@
         <v>'2019'</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -16559,7 +17473,7 @@
         <v>'2020'</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -16568,7 +17482,7 @@
         <v>'2021'</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -16577,7 +17491,7 @@
         <v>'2022'</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2023</v>
       </c>
@@ -16586,7 +17500,7 @@
         <v>'2023'</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2024</v>
       </c>
@@ -16595,7 +17509,7 @@
         <v>'2024'</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2025</v>
       </c>
@@ -16604,7 +17518,7 @@
         <v>'2025'</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2026</v>
       </c>
@@ -16613,7 +17527,7 @@
         <v>'2026'</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2027</v>
       </c>
@@ -16622,7 +17536,7 @@
         <v>'2027'</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -16631,7 +17545,7 @@
         <v>'2028'</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2029</v>
       </c>
@@ -16640,7 +17554,7 @@
         <v>'2029'</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2030</v>
       </c>
@@ -16649,7 +17563,7 @@
         <v>'2030'</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2031</v>
       </c>
@@ -16658,7 +17572,7 @@
         <v>'2031'</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2032</v>
       </c>
@@ -16667,7 +17581,7 @@
         <v>'2032'</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2033</v>
       </c>
@@ -16676,7 +17590,7 @@
         <v>'2033'</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2034</v>
       </c>
@@ -16685,7 +17599,7 @@
         <v>'2034'</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2035</v>
       </c>
@@ -16694,7 +17608,7 @@
         <v>'2035'</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2036</v>
       </c>
@@ -16703,7 +17617,7 @@
         <v>'2036'</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2037</v>
       </c>
@@ -16712,7 +17626,7 @@
         <v>'2037'</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2038</v>
       </c>
@@ -16721,7 +17635,7 @@
         <v>'2038'</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2039</v>
       </c>
@@ -16730,7 +17644,7 @@
         <v>'2039'</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2040</v>
       </c>
@@ -16739,7 +17653,7 @@
         <v>'2040'</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2041</v>
       </c>
@@ -16748,7 +17662,7 @@
         <v>'2041'</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2042</v>
       </c>
@@ -16757,7 +17671,7 @@
         <v>'2042'</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2043</v>
       </c>
@@ -16766,7 +17680,7 @@
         <v>'2043'</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2044</v>
       </c>
@@ -16775,7 +17689,7 @@
         <v>'2044'</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2045</v>
       </c>
@@ -16784,7 +17698,7 @@
         <v>'2045'</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2046</v>
       </c>
@@ -16793,7 +17707,7 @@
         <v>'2046'</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2047</v>
       </c>
@@ -16802,7 +17716,7 @@
         <v>'2047'</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2048</v>
       </c>
@@ -16811,7 +17725,7 @@
         <v>'2048'</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2049</v>
       </c>
@@ -16820,7 +17734,7 @@
         <v>'2049'</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2050</v>
       </c>
@@ -16836,20 +17750,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1001</v>
       </c>
@@ -16858,7 +17772,7 @@
         <v>'1001'</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -16867,7 +17781,7 @@
         <v>'1002'</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -16876,7 +17790,7 @@
         <v>'1003'</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1004</v>
       </c>
@@ -16885,7 +17799,7 @@
         <v>'1004'</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1005</v>
       </c>
@@ -16894,7 +17808,7 @@
         <v>'1005'</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1006</v>
       </c>
@@ -16903,7 +17817,7 @@
         <v>'1006'</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1007</v>
       </c>
@@ -16912,7 +17826,7 @@
         <v>'1007'</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1008</v>
       </c>
@@ -16921,7 +17835,7 @@
         <v>'1008'</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1009</v>
       </c>
@@ -16930,7 +17844,7 @@
         <v>'1009'</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1010</v>
       </c>
@@ -16939,7 +17853,7 @@
         <v>'1010'</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1011</v>
       </c>
@@ -16948,7 +17862,7 @@
         <v>'1011'</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1012</v>
       </c>
@@ -16957,7 +17871,7 @@
         <v>'1012'</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1013</v>
       </c>
@@ -16966,7 +17880,7 @@
         <v>'1013'</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1014</v>
       </c>
@@ -16975,7 +17889,7 @@
         <v>'1014'</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1015</v>
       </c>
@@ -16984,7 +17898,7 @@
         <v>'1015'</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1016</v>
       </c>
@@ -16993,7 +17907,7 @@
         <v>'1016'</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1017</v>
       </c>
@@ -17002,7 +17916,7 @@
         <v>'1017'</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1018</v>
       </c>
@@ -17011,7 +17925,7 @@
         <v>'1018'</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1019</v>
       </c>
@@ -17020,7 +17934,7 @@
         <v>'1019'</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1020</v>
       </c>
@@ -17029,7 +17943,7 @@
         <v>'1020'</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1021</v>
       </c>
@@ -17038,7 +17952,7 @@
         <v>'1021'</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1022</v>
       </c>
@@ -17047,7 +17961,7 @@
         <v>'1022'</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1023</v>
       </c>
@@ -17056,7 +17970,7 @@
         <v>'1023'</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1024</v>
       </c>
@@ -17065,7 +17979,7 @@
         <v>'1024'</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1025</v>
       </c>
@@ -17074,7 +17988,7 @@
         <v>'1025'</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1026</v>
       </c>
@@ -17083,7 +17997,7 @@
         <v>'1026'</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1027</v>
       </c>
@@ -17092,7 +18006,7 @@
         <v>'1027'</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1028</v>
       </c>
@@ -17101,7 +18015,7 @@
         <v>'1028'</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1029</v>
       </c>
@@ -17110,7 +18024,7 @@
         <v>'1029'</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1030</v>
       </c>
@@ -17119,7 +18033,7 @@
         <v>'1030'</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1031</v>
       </c>
@@ -17128,7 +18042,7 @@
         <v>'1031'</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1032</v>
       </c>
@@ -17137,7 +18051,7 @@
         <v>'1032'</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1033</v>
       </c>
@@ -17146,7 +18060,7 @@
         <v>'1033'</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1034</v>
       </c>
@@ -17155,7 +18069,7 @@
         <v>'1034'</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1035</v>
       </c>
@@ -17164,7 +18078,7 @@
         <v>'1035'</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1036</v>
       </c>
@@ -17173,7 +18087,7 @@
         <v>'1036'</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1037</v>
       </c>
@@ -17182,7 +18096,7 @@
         <v>'1037'</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1038</v>
       </c>
@@ -17191,7 +18105,7 @@
         <v>'1038'</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1039</v>
       </c>
@@ -17200,7 +18114,7 @@
         <v>'1039'</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1040</v>
       </c>
@@ -17209,7 +18123,7 @@
         <v>'1040'</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1041</v>
       </c>
@@ -17218,7 +18132,7 @@
         <v>'1041'</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1042</v>
       </c>
@@ -17227,7 +18141,7 @@
         <v>'1042'</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1043</v>
       </c>
@@ -17236,7 +18150,7 @@
         <v>'1043'</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1044</v>
       </c>
@@ -17245,7 +18159,7 @@
         <v>'1044'</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1045</v>
       </c>
@@ -17254,7 +18168,7 @@
         <v>'1045'</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1046</v>
       </c>
@@ -17263,7 +18177,7 @@
         <v>'1046'</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1047</v>
       </c>
@@ -17272,7 +18186,7 @@
         <v>'1047'</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1048</v>
       </c>
@@ -17281,7 +18195,7 @@
         <v>'1048'</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1049</v>
       </c>
@@ -17290,7 +18204,7 @@
         <v>'1049'</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1050</v>
       </c>
@@ -17299,7 +18213,7 @@
         <v>'1050'</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1051</v>
       </c>
@@ -17308,7 +18222,7 @@
         <v>'1051'</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1052</v>
       </c>
@@ -17317,7 +18231,7 @@
         <v>'1052'</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1053</v>
       </c>
@@ -17326,7 +18240,7 @@
         <v>'1053'</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1054</v>
       </c>
@@ -17335,7 +18249,7 @@
         <v>'1054'</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1055</v>
       </c>
@@ -17344,7 +18258,7 @@
         <v>'1055'</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1056</v>
       </c>
@@ -17353,7 +18267,7 @@
         <v>'1056'</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1057</v>
       </c>
@@ -17362,7 +18276,7 @@
         <v>'1057'</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1058</v>
       </c>
@@ -17371,7 +18285,7 @@
         <v>'1058'</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1059</v>
       </c>
@@ -17380,7 +18294,7 @@
         <v>'1059'</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1060</v>
       </c>
@@ -17389,7 +18303,7 @@
         <v>'1060'</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1061</v>
       </c>
@@ -17398,7 +18312,7 @@
         <v>'1061'</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1062</v>
       </c>
@@ -17407,7 +18321,7 @@
         <v>'1062'</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1063</v>
       </c>
@@ -17416,7 +18330,7 @@
         <v>'1063'</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1064</v>
       </c>

--- a/Docs/InsertLocalizationText-v2.xlsx
+++ b/Docs/InsertLocalizationText-v2.xlsx
@@ -824,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N346"/>
+  <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="F338" sqref="F338:F344"/>
+    <sheetView topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="F348" sqref="F348:F350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9013,16 +9013,16 @@
         <v>'1347'</v>
       </c>
       <c r="D345" t="str">
-        <f t="shared" ref="D343:E346" si="53">$N$1 &amp; "" &amp; $N$1</f>
-        <v>''</v>
+        <f>$N$1 &amp; "Keepconnection-Label" &amp; $N$1</f>
+        <v>'Keepconnection-Label'</v>
       </c>
       <c r="E345" t="str">
-        <f t="shared" si="53"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Keep connected" &amp; $N$1</f>
+        <v>'Keep connected'</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="52"/>
-        <v>insert into sysLocalizationText Values(1347,'1347','','',getdate(),getdate(),1)</v>
+        <v>insert into sysLocalizationText Values(1347,'1347','Keepconnection-Label','Keep connected',getdate(),getdate(),1)</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -9037,16 +9037,232 @@
         <v>'1348'</v>
       </c>
       <c r="D346" t="str">
-        <f t="shared" si="53"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Records-Label" &amp; $N$1</f>
+        <v>'Records-Label'</v>
       </c>
       <c r="E346" t="str">
-        <f t="shared" si="53"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Records" &amp; $N$1</f>
+        <v>'Records'</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" si="52"/>
-        <v>insert into sysLocalizationText Values(1348,'1348','','',getdate(),getdate(),1)</v>
+        <v>insert into sysLocalizationText Values(1348,'1348','Records-Label','Records',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1349</v>
+      </c>
+      <c r="B347" s="2">
+        <v>1</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" ref="C347:C355" si="53">"'" &amp; A347 &amp; "'"</f>
+        <v>'1349'</v>
+      </c>
+      <c r="D347" t="str">
+        <f>$N$1 &amp; "Page-Label" &amp; $N$1</f>
+        <v>'Page-Label'</v>
+      </c>
+      <c r="E347" t="str">
+        <f>$N$1 &amp; "Page" &amp; $N$1</f>
+        <v>'Page'</v>
+      </c>
+      <c r="F347" t="str">
+        <f t="shared" ref="F347:F355" si="54">"insert into sysLocalizationText Values(" &amp;A347 &amp; "," &amp;C347 &amp; "," &amp; D347 &amp; "," &amp; E347 &amp; ",getdate(),getdate()," &amp; B347 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1349,'1349','Page-Label','Page',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1350</v>
+      </c>
+      <c r="B348" s="2">
+        <v>1</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="53"/>
+        <v>'1350'</v>
+      </c>
+      <c r="D348" t="str">
+        <f>$N$1 &amp; "PaginationConfigs-Title" &amp; $N$1</f>
+        <v>'PaginationConfigs-Title'</v>
+      </c>
+      <c r="E348" t="str">
+        <f>$N$1 &amp; "Pagination Configuration" &amp; $N$1</f>
+        <v>'Pagination Configuration'</v>
+      </c>
+      <c r="F348" t="str">
+        <f t="shared" si="54"/>
+        <v>insert into sysLocalizationText Values(1350,'1350','PaginationConfigs-Title','Pagination Configuration',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1351</v>
+      </c>
+      <c r="B349" s="2">
+        <v>1</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="53"/>
+        <v>'1351'</v>
+      </c>
+      <c r="D349" t="str">
+        <f>$N$1 &amp; "SelectRecordsPerPage-Title" &amp; $N$1</f>
+        <v>'SelectRecordsPerPage-Title'</v>
+      </c>
+      <c r="E349" t="str">
+        <f>$N$1 &amp; "Records Per Page" &amp; $N$1</f>
+        <v>'Records Per Page'</v>
+      </c>
+      <c r="F349" t="str">
+        <f t="shared" si="54"/>
+        <v>insert into sysLocalizationText Values(1351,'1351','SelectRecordsPerPage-Title','Records Per Page',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1352</v>
+      </c>
+      <c r="B350" s="2">
+        <v>1</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="53"/>
+        <v>'1352'</v>
+      </c>
+      <c r="D350" t="str">
+        <f>$N$1 &amp; "SelectPage-Title" &amp; $N$1</f>
+        <v>'SelectPage-Title'</v>
+      </c>
+      <c r="E350" t="str">
+        <f>$N$1 &amp; "Select the page" &amp; $N$1</f>
+        <v>'Select the page'</v>
+      </c>
+      <c r="F350" t="str">
+        <f t="shared" si="54"/>
+        <v>insert into sysLocalizationText Values(1352,'1352','SelectPage-Title','Select the page',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1353</v>
+      </c>
+      <c r="B351" s="2">
+        <v>1</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="53"/>
+        <v>'1353'</v>
+      </c>
+      <c r="D351" t="str">
+        <f t="shared" ref="D349:E355" si="55">$N$1 &amp; "" &amp; $N$1</f>
+        <v>''</v>
+      </c>
+      <c r="E351" t="str">
+        <f t="shared" si="55"/>
+        <v>''</v>
+      </c>
+      <c r="F351" t="str">
+        <f t="shared" si="54"/>
+        <v>insert into sysLocalizationText Values(1353,'1353','','',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1354</v>
+      </c>
+      <c r="B352" s="2">
+        <v>1</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="53"/>
+        <v>'1354'</v>
+      </c>
+      <c r="D352" t="str">
+        <f t="shared" si="55"/>
+        <v>''</v>
+      </c>
+      <c r="E352" t="str">
+        <f t="shared" si="55"/>
+        <v>''</v>
+      </c>
+      <c r="F352" t="str">
+        <f t="shared" si="54"/>
+        <v>insert into sysLocalizationText Values(1354,'1354','','',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1355</v>
+      </c>
+      <c r="B353" s="2">
+        <v>1</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="53"/>
+        <v>'1355'</v>
+      </c>
+      <c r="D353" t="str">
+        <f t="shared" si="55"/>
+        <v>''</v>
+      </c>
+      <c r="E353" t="str">
+        <f t="shared" si="55"/>
+        <v>''</v>
+      </c>
+      <c r="F353" t="str">
+        <f t="shared" si="54"/>
+        <v>insert into sysLocalizationText Values(1355,'1355','','',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1356</v>
+      </c>
+      <c r="B354" s="2">
+        <v>1</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="53"/>
+        <v>'1356'</v>
+      </c>
+      <c r="D354" t="str">
+        <f t="shared" si="55"/>
+        <v>''</v>
+      </c>
+      <c r="E354" t="str">
+        <f t="shared" si="55"/>
+        <v>''</v>
+      </c>
+      <c r="F354" t="str">
+        <f t="shared" si="54"/>
+        <v>insert into sysLocalizationText Values(1356,'1356','','',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1357</v>
+      </c>
+      <c r="B355" s="2">
+        <v>1</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="53"/>
+        <v>'1357'</v>
+      </c>
+      <c r="D355" t="str">
+        <f t="shared" si="55"/>
+        <v>''</v>
+      </c>
+      <c r="E355" t="str">
+        <f t="shared" si="55"/>
+        <v>''</v>
+      </c>
+      <c r="F355" t="str">
+        <f t="shared" si="54"/>
+        <v>insert into sysLocalizationText Values(1357,'1357','','',getdate(),getdate(),1)</v>
       </c>
     </row>
   </sheetData>
@@ -9057,18 +9273,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N346"/>
+  <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="E348" sqref="E348"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
-    <col min="5" max="5" width="76.140625" customWidth="1"/>
-    <col min="6" max="6" width="92.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -17239,16 +17455,16 @@
         <v>'2347'</v>
       </c>
       <c r="D345" t="str">
-        <f t="shared" ref="D345:E346" si="21">$N$1 &amp; "" &amp; $N$1</f>
-        <v>''</v>
+        <f>$N$1 &amp; "Keepconnection-Label" &amp; $N$1</f>
+        <v>'Keepconnection-Label'</v>
       </c>
       <c r="E345" t="str">
-        <f t="shared" si="21"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Manter conexão" &amp; $N$1</f>
+        <v>'Manter conexão'</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="19"/>
-        <v>insert into sysLocalizationText Values(2347,'2347','','',getdate(),getdate(),2)</v>
+        <v>insert into sysLocalizationText Values(2347,'2347','Keepconnection-Label','Manter conexão',getdate(),getdate(),2)</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -17263,16 +17479,232 @@
         <v>'2348'</v>
       </c>
       <c r="D346" t="str">
-        <f t="shared" si="21"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Records-Label" &amp; $N$1</f>
+        <v>'Records-Label'</v>
       </c>
       <c r="E346" t="str">
-        <f t="shared" si="21"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Registros" &amp; $N$1</f>
+        <v>'Registros'</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" si="19"/>
-        <v>insert into sysLocalizationText Values(2348,'2348','','',getdate(),getdate(),2)</v>
+        <v>insert into sysLocalizationText Values(2348,'2348','Records-Label','Registros',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2349</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" ref="C347:C355" si="21">"'" &amp; A347 &amp; "'"</f>
+        <v>'2349'</v>
+      </c>
+      <c r="D347" t="str">
+        <f>$N$1 &amp; "Page-Label" &amp; $N$1</f>
+        <v>'Page-Label'</v>
+      </c>
+      <c r="E347" t="str">
+        <f>$N$1 &amp; "Página" &amp; $N$1</f>
+        <v>'Página'</v>
+      </c>
+      <c r="F347" t="str">
+        <f t="shared" ref="F347:F355" si="22">"insert into sysLocalizationText Values(" &amp;A347 &amp; "," &amp;C347 &amp; "," &amp; D347 &amp; "," &amp; E347 &amp; ",getdate(),getdate()," &amp; B347 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(2349,'2349','Page-Label','Página',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2350</v>
+      </c>
+      <c r="B348" s="2">
+        <v>2</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="21"/>
+        <v>'2350'</v>
+      </c>
+      <c r="D348" t="str">
+        <f>$N$1 &amp; "PaginationConfigs-Title" &amp; $N$1</f>
+        <v>'PaginationConfigs-Title'</v>
+      </c>
+      <c r="E348" t="str">
+        <f>$N$1 &amp; "Configurações da Paginação" &amp; $N$1</f>
+        <v>'Configurações da Paginação'</v>
+      </c>
+      <c r="F348" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into sysLocalizationText Values(2350,'2350','PaginationConfigs-Title','Configurações da Paginação',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2351</v>
+      </c>
+      <c r="B349" s="2">
+        <v>2</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="21"/>
+        <v>'2351'</v>
+      </c>
+      <c r="D349" t="str">
+        <f>$N$1 &amp; "SelectRecordsPerPage-Title" &amp; $N$1</f>
+        <v>'SelectRecordsPerPage-Title'</v>
+      </c>
+      <c r="E349" t="str">
+        <f>$N$1 &amp; "Registros por página" &amp; $N$1</f>
+        <v>'Registros por página'</v>
+      </c>
+      <c r="F349" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into sysLocalizationText Values(2351,'2351','SelectRecordsPerPage-Title','Registros por página',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2352</v>
+      </c>
+      <c r="B350" s="2">
+        <v>2</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="21"/>
+        <v>'2352'</v>
+      </c>
+      <c r="D350" t="str">
+        <f>$N$1 &amp; "SelectPage-Title" &amp; $N$1</f>
+        <v>'SelectPage-Title'</v>
+      </c>
+      <c r="E350" t="str">
+        <f>$N$1 &amp; "Seleciona a página" &amp; $N$1</f>
+        <v>'Seleciona a página'</v>
+      </c>
+      <c r="F350" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into sysLocalizationText Values(2352,'2352','SelectPage-Title','Seleciona a página',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2353</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="21"/>
+        <v>'2353'</v>
+      </c>
+      <c r="D351" t="str">
+        <f t="shared" ref="D349:E355" si="23">$N$1 &amp; "" &amp; $N$1</f>
+        <v>''</v>
+      </c>
+      <c r="E351" t="str">
+        <f t="shared" si="23"/>
+        <v>''</v>
+      </c>
+      <c r="F351" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into sysLocalizationText Values(2353,'2353','','',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2354</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="21"/>
+        <v>'2354'</v>
+      </c>
+      <c r="D352" t="str">
+        <f t="shared" si="23"/>
+        <v>''</v>
+      </c>
+      <c r="E352" t="str">
+        <f t="shared" si="23"/>
+        <v>''</v>
+      </c>
+      <c r="F352" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into sysLocalizationText Values(2354,'2354','','',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2355</v>
+      </c>
+      <c r="B353" s="2">
+        <v>2</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="21"/>
+        <v>'2355'</v>
+      </c>
+      <c r="D353" t="str">
+        <f t="shared" si="23"/>
+        <v>''</v>
+      </c>
+      <c r="E353" t="str">
+        <f t="shared" si="23"/>
+        <v>''</v>
+      </c>
+      <c r="F353" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into sysLocalizationText Values(2355,'2355','','',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2356</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="21"/>
+        <v>'2356'</v>
+      </c>
+      <c r="D354" t="str">
+        <f t="shared" si="23"/>
+        <v>''</v>
+      </c>
+      <c r="E354" t="str">
+        <f t="shared" si="23"/>
+        <v>''</v>
+      </c>
+      <c r="F354" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into sysLocalizationText Values(2356,'2356','','',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2357</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="21"/>
+        <v>'2357'</v>
+      </c>
+      <c r="D355" t="str">
+        <f t="shared" si="23"/>
+        <v>''</v>
+      </c>
+      <c r="E355" t="str">
+        <f t="shared" si="23"/>
+        <v>''</v>
+      </c>
+      <c r="F355" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into sysLocalizationText Values(2357,'2357','','',getdate(),getdate(),2)</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/InsertLocalizationText-v2.xlsx
+++ b/Docs/InsertLocalizationText-v2.xlsx
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="F348" sqref="F348:F350"/>
+    <sheetView topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="F351" sqref="F351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9157,16 +9157,16 @@
         <v>'1353'</v>
       </c>
       <c r="D351" t="str">
-        <f t="shared" ref="D349:E355" si="55">$N$1 &amp; "" &amp; $N$1</f>
-        <v>''</v>
+        <f>$N$1 &amp; "Messagebox-Confirmation-Title" &amp; $N$1</f>
+        <v>'Messagebox-Confirmation-Title'</v>
       </c>
       <c r="E351" t="str">
-        <f t="shared" si="55"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Confirmation" &amp; $N$1</f>
+        <v>'Confirmation'</v>
       </c>
       <c r="F351" t="str">
         <f t="shared" si="54"/>
-        <v>insert into sysLocalizationText Values(1353,'1353','','',getdate(),getdate(),1)</v>
+        <v>insert into sysLocalizationText Values(1353,'1353','Messagebox-Confirmation-Title','Confirmation',getdate(),getdate(),1)</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -9181,7 +9181,7 @@
         <v>'1354'</v>
       </c>
       <c r="D352" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="D351:E355" si="55">$N$1 &amp; "" &amp; $N$1</f>
         <v>''</v>
       </c>
       <c r="E352" t="str">
@@ -9275,8 +9275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="D356" sqref="D356"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17599,16 +17599,16 @@
         <v>'2353'</v>
       </c>
       <c r="D351" t="str">
-        <f t="shared" ref="D349:E355" si="23">$N$1 &amp; "" &amp; $N$1</f>
-        <v>''</v>
+        <f>$N$1 &amp; "Messagebox-Confirmation-Title" &amp; $N$1</f>
+        <v>'Messagebox-Confirmation-Title'</v>
       </c>
       <c r="E351" t="str">
-        <f t="shared" si="23"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Confirmação" &amp; $N$1</f>
+        <v>'Confirmação'</v>
       </c>
       <c r="F351" t="str">
         <f t="shared" si="22"/>
-        <v>insert into sysLocalizationText Values(2353,'2353','','',getdate(),getdate(),2)</v>
+        <v>insert into sysLocalizationText Values(2353,'2353','Messagebox-Confirmation-Title','Confirmação',getdate(),getdate(),2)</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -17623,7 +17623,7 @@
         <v>'2354'</v>
       </c>
       <c r="D352" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="D351:E355" si="23">$N$1 &amp; "" &amp; $N$1</f>
         <v>''</v>
       </c>
       <c r="E352" t="str">

--- a/Docs/InsertLocalizationText-v2.xlsx
+++ b/Docs/InsertLocalizationText-v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5415" yWindow="-195" windowWidth="18735" windowHeight="11700" activeTab="1"/>
@@ -12,7 +12,7 @@
     <sheet name="num" sheetId="2" r:id="rId3"/>
     <sheet name="Plan3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -484,8 +484,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,7 +540,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,9 +578,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,10 +612,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,10 +646,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -823,14 +821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N355"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="F351" sqref="F351"/>
+    <sheetView topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="F356" sqref="F356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
@@ -841,7 +839,7 @@
     <col min="7" max="7" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1">
         <v>1001</v>
       </c>
@@ -867,7 +865,7 @@
         <v>'</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -889,7 +887,7 @@
         <v>insert into sysLocalizationText Values(1002,'1002',     'Validation-Error',    'Data validation error.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -911,7 +909,7 @@
         <v>insert into sysLocalizationText Values(1003,'1003',     'Record-NotFound',    'The requested record was not found.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1004</v>
       </c>
@@ -933,7 +931,7 @@
         <v>insert into sysLocalizationText Values(1004,'1004',     'Login-Invalid-Password',    'Invalid password. You still have 0 attempts before the account is deactivated.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1005</v>
       </c>
@@ -955,7 +953,7 @@
         <v>insert into sysLocalizationText Values(1005,'1005',     'Login-Attempts',    'You have already used access attempts and the account has been disabled. Request activation.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1006</v>
       </c>
@@ -977,7 +975,7 @@
         <v>insert into sysLocalizationText Values(1006,'1006',     'Login-Inactive-Account',    'The account associated with the User is not active. Request account activation.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1007</v>
       </c>
@@ -999,7 +997,7 @@
         <v>insert into sysLocalizationText Values(1007,'1007',     'Login-Locked-Account',    'The account associated with the User is locked out. Contact your system administrator.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1008</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>insert into sysLocalizationText Values(1008,'1008',     'Login-User-NotFound',    'User not found.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1009</v>
       </c>
@@ -1043,7 +1041,7 @@
         <v>insert into sysLocalizationText Values(1009,'1009',     'User-Exists',    'There is already a user with the email',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1010</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>insert into sysLocalizationText Values(1010,'1010',     'Email-Exists',    'The email you entered already exists.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1011</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>insert into sysLocalizationText Values(1011,'1011',     'Profile-NotBe-Null',    'The Profile cannot be null.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>1012</v>
       </c>
@@ -1109,7 +1107,7 @@
         <v>insert into sysLocalizationText Values(1012,'1012',     'User-Error-Exclude-Childs',    'There was an error deleting child items (Roles).',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1013</v>
       </c>
@@ -1131,7 +1129,7 @@
         <v>insert into sysLocalizationText Values(1013,'1013',     'User-Invalid-Password-Code',    'The password exchange authorization code is invalid.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1014</v>
       </c>
@@ -1153,7 +1151,7 @@
         <v>insert into sysLocalizationText Values(1014,'1014',     'Account-Active',    'The account associated with the User is already active.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>1015</v>
       </c>
@@ -1175,7 +1173,7 @@
         <v>insert into sysLocalizationText Values(1015,'1015',     'User-Invalid-Activation-Code',    'The activation authorization code is invalid.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>1016</v>
       </c>
@@ -1197,7 +1195,7 @@
         <v>insert into sysLocalizationText Values(1016,'1016',     'User-No-Image',    'Send the image file.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1017</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>insert into sysLocalizationText Values(1017,'1017',     'User-Role-Exists',    'This Role is already associated with the user.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1018</v>
       </c>
@@ -1241,7 +1239,7 @@
         <v>insert into sysLocalizationText Values(1018,'1018',     'User-Role-No-Exists',    'This Role does not belong to the user.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1019</v>
       </c>
@@ -1263,7 +1261,7 @@
         <v>insert into sysLocalizationText Values(1019,'1019',     'Http-Unauthorized',    'Unauthorized access',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1020</v>
       </c>
@@ -1285,7 +1283,7 @@
         <v>insert into sysLocalizationText Values(1020,'1020',     'Http-NotFound',    'The resource could not be found',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1021</v>
       </c>
@@ -1307,7 +1305,7 @@
         <v>insert into sysLocalizationText Values(1021,'1021',     'Http-Forbidden',    'User profile without access permission.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1022</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>insert into sysLocalizationText Values(1022,'1022',     'Http-500Error',    'An error occurred in the processing of the request.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1023</v>
       </c>
@@ -1351,7 +1349,7 @@
         <v>insert into sysLocalizationText Values(1023,'1023',     'Http-ServiceUnavailable',    'The requested service is unavailable.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1024</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>insert into sysLocalizationText Values(1024,'1024',     'API-Unexpected-Exception',    'Unexpected error not identified GetInnerExceptions@f2]',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>1025</v>
       </c>
@@ -1395,7 +1393,7 @@
         <v>insert into sysLocalizationText Values(1025,'1025',     'ShortDayName-1',    'Sun',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1026</v>
       </c>
@@ -1417,7 +1415,7 @@
         <v>insert into sysLocalizationText Values(1026,'1026',     'ShortDayName-2',    'Mon',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>1027</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>insert into sysLocalizationText Values(1027,'1027',     'ShortDayName-3',    'Tue',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1028</v>
       </c>
@@ -1461,7 +1459,7 @@
         <v>insert into sysLocalizationText Values(1028,'1028',     'ShortDayName-4',    'Wed',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1029</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>insert into sysLocalizationText Values(1029,'1029',     'ShortDayName-5',    'Thu',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1030</v>
       </c>
@@ -1505,7 +1503,7 @@
         <v>insert into sysLocalizationText Values(1030,'1030',     'ShortDayName-6',    'Fri',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>1031</v>
       </c>
@@ -1527,7 +1525,7 @@
         <v>insert into sysLocalizationText Values(1031,'1031',     'ShortDayName-7',    'Sat'  ,getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>1032</v>
       </c>
@@ -1549,7 +1547,7 @@
         <v>insert into sysLocalizationText Values(1032,'1032',     'MonthName-1',    'JANUARY',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>1033</v>
       </c>
@@ -1571,7 +1569,7 @@
         <v>insert into sysLocalizationText Values(1033,'1033',     'MonthName-2',    'FEBRUARY',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>1034</v>
       </c>
@@ -1593,7 +1591,7 @@
         <v>insert into sysLocalizationText Values(1034,'1034',     'MonthName-3',    'MARCH',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>1035</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>insert into sysLocalizationText Values(1035,'1035',     'MonthName-4',    'APRIL',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>1036</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>insert into sysLocalizationText Values(1036,'1036',     'MonthName-5',    'MAY',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>1037</v>
       </c>
@@ -1659,7 +1657,7 @@
         <v>insert into sysLocalizationText Values(1037,'1037',     'MonthName-6',    'JUNE',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1038</v>
       </c>
@@ -1681,7 +1679,7 @@
         <v>insert into sysLocalizationText Values(1038,'1038',     'MonthName-7',    'JULY',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>1039</v>
       </c>
@@ -1703,7 +1701,7 @@
         <v>insert into sysLocalizationText Values(1039,'1039',     'MonthName-8',    'AUGUST',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>1040</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>insert into sysLocalizationText Values(1040,'1040',     'MonthName-9',    'SEPTEMBER',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>1041</v>
       </c>
@@ -1747,7 +1745,7 @@
         <v>insert into sysLocalizationText Values(1041,'1041',     'MonthName-10',    'OCTOBER',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>1042</v>
       </c>
@@ -1769,7 +1767,7 @@
         <v>insert into sysLocalizationText Values(1042,'1042',     'MonthName-11',    'NOVEMBER',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>1043</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>insert into sysLocalizationText Values(1043,'1043',     'MonthName-12',    'DECEMBER',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>1044</v>
       </c>
@@ -1813,7 +1811,7 @@
         <v>insert into sysLocalizationText Values(1044,'1044',     'Validation-NotNull',    'cannot be null.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>1045</v>
       </c>
@@ -1835,7 +1833,7 @@
         <v>insert into sysLocalizationText Values(1045,'1045',     'Validation-Max-Characters',    'The {0} field cannot have more than 1 characters.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>1046</v>
       </c>
@@ -1857,7 +1855,7 @@
         <v>insert into sysLocalizationText Values(1046,'1046',     'Validation-Invalid-Field',    'The {0} field is invalid.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>1047</v>
       </c>
@@ -1879,7 +1877,7 @@
         <v>insert into sysLocalizationText Values(1047,'1047',     'Validation-Invalid-UserName',    'The {0} field is invalid. Do not use special characters or spaces.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>1048</v>
       </c>
@@ -1901,7 +1899,7 @@
         <v>insert into sysLocalizationText Values(1048,'1048',     'Validation-Unique-Value',    'The {0} field is invalid. Value must be unique.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>1049</v>
       </c>
@@ -1923,7 +1921,7 @@
         <v>insert into sysLocalizationText Values(1049,'1049',     'User-Instance-Exists',    'This Instance is already associated with the user.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>1050</v>
       </c>
@@ -1945,7 +1943,7 @@
         <v>insert into sysLocalizationText Values(1050,'1050',     'User-Instance-No-Exists',    'This Instance does not belong to the user.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>1051</v>
       </c>
@@ -1969,7 +1967,7 @@
         <v>insert into sysLocalizationText Values(1051,'1051','User-PageTitle','User Management',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>1052</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>insert into sysLocalizationText Values(1052,'1052','SearchButtonLabel','Search',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>1053</v>
       </c>
@@ -2017,7 +2015,7 @@
         <v>insert into sysLocalizationText Values(1053,'1053','SearchingLabel','Searching...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>1054</v>
       </c>
@@ -2041,7 +2039,7 @@
         <v>insert into sysLocalizationText Values(1054,'1054','InsertingLoadingLabel','Inserting...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>1055</v>
       </c>
@@ -2065,7 +2063,7 @@
         <v>insert into sysLocalizationText Values(1055,'1055','SearchResultLabel','Search Result',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>1056</v>
       </c>
@@ -2089,7 +2087,7 @@
         <v>insert into sysLocalizationText Values(1056,'1056','DetailsLabel','Details',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>1057</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>insert into sysLocalizationText Values(1057,'1057','NoRecordsFound','No records was found',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>1058</v>
       </c>
@@ -2137,7 +2135,7 @@
         <v>insert into sysLocalizationText Values(1058,'1058','LoadingPage','Loading. Wait...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>1059</v>
       </c>
@@ -2161,7 +2159,7 @@
         <v>insert into sysLocalizationText Values(1059,'1059','LoadingData','Loading Page. Wait...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>1060</v>
       </c>
@@ -2185,7 +2183,7 @@
         <v>insert into sysLocalizationText Values(1060,'1060','ErrorOnExecuteSearch','Error on execute search',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>1061</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>insert into sysLocalizationText Values(1061,'1061','ErrorOnReturnData','Error on return data',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>1062</v>
       </c>
@@ -2233,7 +2231,7 @@
         <v>insert into sysLocalizationText Values(1062,'1062','ErrorOnCreateNewRecord','Error on create record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>1063</v>
       </c>
@@ -2257,7 +2255,7 @@
         <v>insert into sysLocalizationText Values(1063,'1063','AfterSaveAnswering','The new record was created successfuly. Do you want inserting ?',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>1064</v>
       </c>
@@ -2281,7 +2279,7 @@
         <v>insert into sysLocalizationText Values(1064,'1064','NoticeLabel','Notice',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>1065</v>
       </c>
@@ -2305,7 +2303,7 @@
         <v>insert into sysLocalizationText Values(1065,'1065','SuccessLabel','Success',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>1066</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>insert into sysLocalizationText Values(1066,'1066','SuccessSaveMessage','The record was saved successfuly.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>1067</v>
       </c>
@@ -2353,7 +2351,7 @@
         <v>insert into sysLocalizationText Values(1067,'1067','Email-Label','E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>1068</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>insert into sysLocalizationText Values(1068,'1068','UserName-Label','User Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>1069</v>
       </c>
@@ -2401,7 +2399,7 @@
         <v>insert into sysLocalizationText Values(1069,'1069','Password-Label','Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>1070</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>insert into sysLocalizationText Values(1070,'1070','Instance-Label','Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>1071</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>insert into sysLocalizationText Values(1071,'1071','Role-Label','Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>1072</v>
       </c>
@@ -2473,7 +2471,7 @@
         <v>insert into sysLocalizationText Values(1072,'1072','Yes-Text','Yes',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>1073</v>
       </c>
@@ -2497,7 +2495,7 @@
         <v>insert into sysLocalizationText Values(1073,'1073','No-Text','No',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>1074</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>insert into sysLocalizationText Values(1074,'1074','Saving-Label','Saving...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>1075</v>
       </c>
@@ -2545,7 +2543,7 @@
         <v>insert into sysLocalizationText Values(1075,'1075','Edit-Label','Edit',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -2569,7 +2567,7 @@
         <v>insert into sysLocalizationText Values(1076,'1076','Date-Label','Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>1077</v>
       </c>
@@ -2593,7 +2591,7 @@
         <v>insert into sysLocalizationText Values(1077,'1077','Field-Label','Field',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>1078</v>
       </c>
@@ -2617,7 +2615,7 @@
         <v>insert into sysLocalizationText Values(1078,'1078','Value-Label','Value',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>1079</v>
       </c>
@@ -2641,7 +2639,7 @@
         <v>insert into sysLocalizationText Values(1079,'1079','SelectItem-Description','Select a item',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>1080</v>
       </c>
@@ -2665,7 +2663,7 @@
         <v>insert into sysLocalizationText Values(1080,'1080','AllItem-Description','All',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>1081</v>
       </c>
@@ -2689,7 +2687,7 @@
         <v>insert into sysLocalizationText Values(1081,'1081','Welcome-Label','Welcome to GW Template',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>1082</v>
       </c>
@@ -2713,7 +2711,7 @@
         <v>insert into sysLocalizationText Values(1082,'1082','LoginTitle-Label','Sign In',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>1083</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>insert into sysLocalizationText Values(1083,'1083','LoginTitle-Description','Enter your access credentials',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>1084</v>
       </c>
@@ -2761,7 +2759,7 @@
         <v>insert into sysLocalizationText Values(1084,'1084','InputEmail-Description','Input your account e-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>1085</v>
       </c>
@@ -2785,7 +2783,7 @@
         <v>insert into sysLocalizationText Values(1085,'1085','InputPassword-Description','Input your password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>1086</v>
       </c>
@@ -2809,7 +2807,7 @@
         <v>insert into sysLocalizationText Values(1086,'1086','ForgetPassword-Description','Forgot your password ?',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>1087</v>
       </c>
@@ -2833,7 +2831,7 @@
         <v>insert into sysLocalizationText Values(1087,'1087','LoginButton-Label','Confirm',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>1088</v>
       </c>
@@ -2857,7 +2855,7 @@
         <v>insert into sysLocalizationText Values(1088,'1088','LoginLoading-Label','Entering...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>1089</v>
       </c>
@@ -2881,7 +2879,7 @@
         <v>insert into sysLocalizationText Values(1089,'1089','SendText-Description','Sending...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>1090</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>insert into sysLocalizationText Values(1090,'1090','ActiveAccountButton-Label','Activate Account',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>1091</v>
       </c>
@@ -2929,7 +2927,7 @@
         <v>insert into sysLocalizationText Values(1091,'1091','ActiveAccount-Label','Account Activation',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>1092</v>
       </c>
@@ -2953,7 +2951,7 @@
         <v>insert into sysLocalizationText Values(1092,'1092','ActiveAccount-Description','Cannot access ?',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>1093</v>
       </c>
@@ -2977,7 +2975,7 @@
         <v>insert into sysLocalizationText Values(1093,'1093','ActiveAccount-Step1','Send the activation code to your registration email',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>1094</v>
       </c>
@@ -3001,7 +2999,7 @@
         <v>insert into sysLocalizationText Values(1094,'1094','ActiveAccount-Step2','Enter the activation code received',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>1095</v>
       </c>
@@ -3025,7 +3023,7 @@
         <v>insert into sysLocalizationText Values(1095,'1095','SendCodeButton-Label','Send code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>1096</v>
       </c>
@@ -3049,7 +3047,7 @@
         <v>insert into sysLocalizationText Values(1096,'1096','ActiveLoading-Label','Request Activation',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>1097</v>
       </c>
@@ -3073,7 +3071,7 @@
         <v>insert into sysLocalizationText Values(1097,'1097','InputCode-Description','Input code received on e-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>1098</v>
       </c>
@@ -3097,7 +3095,7 @@
         <v>insert into sysLocalizationText Values(1098,'1098','Unlogged-Label','Not Logged',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>1099</v>
       </c>
@@ -3121,7 +3119,7 @@
         <v>insert into sysLocalizationText Values(1099,'1099','MyProfile-Label','My Profile',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>1100</v>
       </c>
@@ -3145,7 +3143,7 @@
         <v>insert into sysLocalizationText Values(1100,'1100','MainProfileData-Label','Main Info',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>1101</v>
       </c>
@@ -3169,7 +3167,7 @@
         <v>insert into sysLocalizationText Values(1101,'1101','AlterPassword-Label','Change Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>1102</v>
       </c>
@@ -3193,7 +3191,7 @@
         <v>insert into sysLocalizationText Values(1102,'1102','LanguageRole-Label','Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>1103</v>
       </c>
@@ -3217,7 +3215,7 @@
         <v>insert into sysLocalizationText Values(1103,'1103','AlterProfileImage-Label','Change Profile Image',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>1104</v>
       </c>
@@ -3241,7 +3239,7 @@
         <v>insert into sysLocalizationText Values(1104,'1104','AlterPasswordStep1-Label','Click on the link below to receive an email with the security code to change your password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>1105</v>
       </c>
@@ -3265,7 +3263,7 @@
         <v>insert into sysLocalizationText Values(1105,'1105','AlterPasswordStep2-Label','After receiving the code, fill in the information below and click Change Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>1106</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>insert into sysLocalizationText Values(1106,'1106','InputNewPassword-Label','Input the new password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>1107</v>
       </c>
@@ -3313,7 +3311,7 @@
         <v>insert into sysLocalizationText Values(1107,'1107','AlterPasswordButton-Label','Change Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>1108</v>
       </c>
@@ -3337,7 +3335,7 @@
         <v>insert into sysLocalizationText Values(1108,'1108','AlterPasswordButton-Loading','Changing password...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>1109</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>insert into sysLocalizationText Values(1109,'1109','InvalidCredentials-Title','Invalid Credentiais',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>1110</v>
       </c>
@@ -3385,7 +3383,7 @@
         <v>insert into sysLocalizationText Values(1110,'1110','InvalidCredentials-Message','E-mail or password invalid.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>1111</v>
       </c>
@@ -3409,7 +3407,7 @@
         <v>insert into sysLocalizationText Values(1111,'1111','TemporaryPassword-Title','Temporary Password Sent',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>1112</v>
       </c>
@@ -3433,7 +3431,7 @@
         <v>insert into sysLocalizationText Values(1112,'1112','TemporaryPassword-Message','A temporary password has been sent to your registration e-mail. When logging in, ask to change your password.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>1113</v>
       </c>
@@ -3457,7 +3455,7 @@
         <v>insert into sysLocalizationText Values(1113,'1113','SuccessActivated-Title','Activation Successfuly',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>1114</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>insert into sysLocalizationText Values(1114,'1114','SuccessActivated-Message','The account has been successfully activated. You can now log in.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>1115</v>
       </c>
@@ -3505,7 +3503,7 @@
         <v>insert into sysLocalizationText Values(1115,'1115','ActivateCode-Title','Code was Sent .',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>1116</v>
       </c>
@@ -3529,7 +3527,7 @@
         <v>insert into sysLocalizationText Values(1116,'1116','ActivateCode-Message','A security code has been sent by e-mail.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>1117</v>
       </c>
@@ -3553,7 +3551,7 @@
         <v>insert into sysLocalizationText Values(1117,'1117','PasswordChanged-Title','Changed Password',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>1118</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>insert into sysLocalizationText Values(1118,'1118','PasswordChanged-Message','The password has been successfully changed. Log in again.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>1119</v>
       </c>
@@ -3601,7 +3599,7 @@
         <v>insert into sysLocalizationText Values(1119,'1119','ImageChanged-Title','Altered Image',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>1120</v>
       </c>
@@ -3625,7 +3623,7 @@
         <v>insert into sysLocalizationText Values(1120,'1120','ImageChanged-Message','The profile picture has been changed. At the next login the new image will be displayed.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>1121</v>
       </c>
@@ -3649,7 +3647,7 @@
         <v>insert into sysLocalizationText Values(1121,'1121','SearchByEmail-Label','By E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>1122</v>
       </c>
@@ -3673,7 +3671,7 @@
         <v>insert into sysLocalizationText Values(1122,'1122','SearchByUserName-Label','By User Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>1123</v>
       </c>
@@ -3697,7 +3695,7 @@
         <v>insert into sysLocalizationText Values(1123,'1123','SearchByEmail-Description','Search By E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>1124</v>
       </c>
@@ -3721,7 +3719,7 @@
         <v>insert into sysLocalizationText Values(1124,'1124','SearchByUserName-Description','Search By User Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>1125</v>
       </c>
@@ -3745,7 +3743,7 @@
         <v>insert into sysLocalizationText Values(1125,'1125','SearchByInstance-Label','By Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>1126</v>
       </c>
@@ -3769,7 +3767,7 @@
         <v>insert into sysLocalizationText Values(1126,'1126','SearchByRole-Label','By Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>1127</v>
       </c>
@@ -3793,7 +3791,7 @@
         <v>insert into sysLocalizationText Values(1127,'1127','NewUser-Label','New User',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>1128</v>
       </c>
@@ -3817,7 +3815,7 @@
         <v>insert into sysLocalizationText Values(1128,'1128','NewUser-Description','Click here to create new User',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>1129</v>
       </c>
@@ -3841,7 +3839,7 @@
         <v>insert into sysLocalizationText Values(1129,'1129','Active-Label','Active',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>1130</v>
       </c>
@@ -3865,7 +3863,7 @@
         <v>insert into sysLocalizationText Values(1130,'1130','Locked-Label','Locked',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>1131</v>
       </c>
@@ -3889,7 +3887,7 @@
         <v>insert into sysLocalizationText Values(1131,'1131','MainData-Label','Main Data',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>1132</v>
       </c>
@@ -3913,7 +3911,7 @@
         <v>insert into sysLocalizationText Values(1132,'1132','User-SecondTabLabel','Instances &amp; Roles',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>1133</v>
       </c>
@@ -3937,7 +3935,7 @@
         <v>insert into sysLocalizationText Values(1133,'1133','CreateDate-Label','Create Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>1134</v>
       </c>
@@ -3961,7 +3959,7 @@
         <v>insert into sysLocalizationText Values(1134,'1134','LastLoginDate-Label','Last Login Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>1135</v>
       </c>
@@ -3985,7 +3983,7 @@
         <v>insert into sysLocalizationText Values(1135,'1135','DefaultLanguage-Label','Default Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>1136</v>
       </c>
@@ -4009,7 +4007,7 @@
         <v>insert into sysLocalizationText Values(1136,'1136','LastLoginIP-Label','Last Login IP',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>1137</v>
       </c>
@@ -4033,7 +4031,7 @@
         <v>insert into sysLocalizationText Values(1137,'1137','LoginCounter-Label','Login Counter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>1138</v>
       </c>
@@ -4057,7 +4055,7 @@
         <v>insert into sysLocalizationText Values(1138,'1138','PasswordRecovery-Label','Password Recovery Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>1139</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>insert into sysLocalizationText Values(1139,'1139','AlterInstance-Label','Alter Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>1140</v>
       </c>
@@ -4105,7 +4103,7 @@
         <v>insert into sysLocalizationText Values(1140,'1140','AlterInstance-Description','Select a Instance to change',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>1141</v>
       </c>
@@ -4129,7 +4127,7 @@
         <v>insert into sysLocalizationText Values(1141,'1141','Altering-Label','Altering...',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>1142</v>
       </c>
@@ -4153,7 +4151,7 @@
         <v>insert into sysLocalizationText Values(1142,'1142','AlterRole-Label','Alter Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>1143</v>
       </c>
@@ -4177,7 +4175,7 @@
         <v>insert into sysLocalizationText Values(1143,'1143','AlterRole-Description','Select a Role to change',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>1144</v>
       </c>
@@ -4201,7 +4199,7 @@
         <v>insert into sysLocalizationText Values(1144,'1144','UserStatus-Label','User Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>1145</v>
       </c>
@@ -4225,7 +4223,7 @@
         <v>insert into sysLocalizationText Values(1145,'1145','ChangeUserState-Description','Click here to change status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>1146</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>insert into sysLocalizationText Values(1146,'1146','ChangeUserState-Label','Update Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>1147</v>
       </c>
@@ -4273,7 +4271,7 @@
         <v>insert into sysLocalizationText Values(1147,'1147','CreateUser-Label','Creating New User',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>1148</v>
       </c>
@@ -4297,7 +4295,7 @@
         <v>insert into sysLocalizationText Values(1148,'1148','CreateUser-Description','Click here to create new user record.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>1149</v>
       </c>
@@ -4321,7 +4319,7 @@
         <v>insert into sysLocalizationText Values(1149,'1149','CreateUserButton-Label','Save',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>1150</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>insert into sysLocalizationText Values(1150,'1150','AlterStatus-Error','Error on alter user status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>1151</v>
       </c>
@@ -4369,7 +4367,7 @@
         <v>insert into sysLocalizationText Values(1151,'1151','AlterStatus-Success','User status altered successfuly',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>1152</v>
       </c>
@@ -4393,7 +4391,7 @@
         <v>insert into sysLocalizationText Values(1152,'1152','AlterInstance-Error','Error on alter instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>1153</v>
       </c>
@@ -4417,7 +4415,7 @@
         <v>insert into sysLocalizationText Values(1153,'1153','AlterInstance-Success','Instance altered successfuly',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>1154</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>insert into sysLocalizationText Values(1154,'1154','AlterRole-Error','Error on alter user role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>1155</v>
       </c>
@@ -4465,7 +4463,7 @@
         <v>insert into sysLocalizationText Values(1155,'1155','AlterRole-Success','Role altered successfuly',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>1156</v>
       </c>
@@ -4489,7 +4487,7 @@
         <v>insert into sysLocalizationText Values(1156,'1156','Instance-PageTitle','Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>1157</v>
       </c>
@@ -4513,7 +4511,7 @@
         <v>insert into sysLocalizationText Values(1157,'1157','SearchByInstanceName-Label','By Instance Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>1158</v>
       </c>
@@ -4537,7 +4535,7 @@
         <v>insert into sysLocalizationText Values(1158,'1158','SearchByInstanceName-Description','Search by Instance Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>1159</v>
       </c>
@@ -4561,7 +4559,7 @@
         <v>insert into sysLocalizationText Values(1159,'1159','SearchByInstanceTypeName-Label','By Type Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>1160</v>
       </c>
@@ -4585,7 +4583,7 @@
         <v>insert into sysLocalizationText Values(1160,'1160','SearchByInstanceTypeName-Description','Search by Type Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>1161</v>
       </c>
@@ -4609,7 +4607,7 @@
         <v>insert into sysLocalizationText Values(1161,'1161','NewInstance-Label','New Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>1162</v>
       </c>
@@ -4633,7 +4631,7 @@
         <v>insert into sysLocalizationText Values(1162,'1162','NewInstance-Description','Click here to create new Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>1163</v>
       </c>
@@ -4657,7 +4655,7 @@
         <v>insert into sysLocalizationText Values(1163,'1163','InstanceTypeName-Label','Instance Type Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>1164</v>
       </c>
@@ -4681,7 +4679,7 @@
         <v>insert into sysLocalizationText Values(1164,'1164','InstanceName-Label','Instance Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>1165</v>
       </c>
@@ -4705,7 +4703,7 @@
         <v>insert into sysLocalizationText Values(1165,'1165','InstanceRecord-Label','Instance Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>1166</v>
       </c>
@@ -4729,7 +4727,7 @@
         <v>insert into sysLocalizationText Values(1166,'1166','SaveInstanceButton-Label','Save Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>1167</v>
       </c>
@@ -4753,7 +4751,7 @@
         <v>insert into sysLocalizationText Values(1167,'1167','SaveInstanceButton-Description','Click here to save Instance',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>1168</v>
       </c>
@@ -4777,7 +4775,7 @@
         <v>insert into sysLocalizationText Values(1168,'1168','DataLog-PageTitle','Data Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>1169</v>
       </c>
@@ -4801,7 +4799,7 @@
         <v>insert into sysLocalizationText Values(1169,'1169','SearchByOperationType-Label','By Operation Type',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>1170</v>
       </c>
@@ -4825,7 +4823,7 @@
         <v>insert into sysLocalizationText Values(1170,'1170','SearchByObject-Label','By Object',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>1171</v>
       </c>
@@ -4849,7 +4847,7 @@
         <v>insert into sysLocalizationText Values(1171,'1171','SearchByIntervalDate-Label','By Date Range',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>1172</v>
       </c>
@@ -4873,7 +4871,7 @@
         <v>insert into sysLocalizationText Values(1172,'1172','SearchByInicialDate-Label','Start Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>1173</v>
       </c>
@@ -4897,7 +4895,7 @@
         <v>insert into sysLocalizationText Values(1173,'1173','SearchByFinalDate-Label','End Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>1174</v>
       </c>
@@ -4921,7 +4919,7 @@
         <v>insert into sysLocalizationText Values(1174,'1174','SearchByRecordID-Label','Search Record ID',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>1175</v>
       </c>
@@ -4945,7 +4943,7 @@
         <v>insert into sysLocalizationText Values(1175,'1175','TableName-Label','Table Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>1176</v>
       </c>
@@ -4969,7 +4967,7 @@
         <v>insert into sysLocalizationText Values(1176,'1176','OperationText-Label','Operation Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>1177</v>
       </c>
@@ -4993,7 +4991,7 @@
         <v>insert into sysLocalizationText Values(1177,'1177','LogID-Label','Log ID',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>1178</v>
       </c>
@@ -5017,7 +5015,7 @@
         <v>insert into sysLocalizationText Values(1178,'1178','LogInformation-Label','Log Information',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>1179</v>
       </c>
@@ -5041,7 +5039,7 @@
         <v>insert into sysLocalizationText Values(1179,'1179','ShowTimeLine-Label','Show Time Line',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>1180</v>
       </c>
@@ -5065,7 +5063,7 @@
         <v>insert into sysLocalizationText Values(1180,'1180','OldVersionData-Label','Old Version',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>1181</v>
       </c>
@@ -5089,7 +5087,7 @@
         <v>insert into sysLocalizationText Values(1181,'1181','HasNoOldVersion-Label','No data was found',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>1182</v>
       </c>
@@ -5113,7 +5111,7 @@
         <v>insert into sysLocalizationText Values(1182,'1182','CurrentVersionData-Label','Current Version',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>1183</v>
       </c>
@@ -5137,7 +5135,7 @@
         <v>insert into sysLocalizationText Values(1183,'1183','HasNoCurrentVersion-Label','No data was found',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>1184</v>
       </c>
@@ -5161,7 +5159,7 @@
         <v>insert into sysLocalizationText Values(1184,'1184','RecordTimeLine-Label','Record Time Line',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>1185</v>
       </c>
@@ -5185,7 +5183,7 @@
         <v>insert into sysLocalizationText Values(1185,'1185','HasNoTimeLine-Label','No data on time line',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>1186</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>insert into sysLocalizationText Values(1186,'1186','Localization-PageTitle','Localization Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>1187</v>
       </c>
@@ -5233,7 +5231,7 @@
         <v>insert into sysLocalizationText Values(1187,'1187','SearchByLanguage-Label','By Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>1188</v>
       </c>
@@ -5257,7 +5255,7 @@
         <v>insert into sysLocalizationText Values(1188,'1188','SearchByLanguage-Description','Search by Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>1189</v>
       </c>
@@ -5281,7 +5279,7 @@
         <v>insert into sysLocalizationText Values(1189,'1189','SearchByLocalizationCode-Label','By Localization Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>1190</v>
       </c>
@@ -5305,7 +5303,7 @@
         <v>insert into sysLocalizationText Values(1190,'1190','SearchByLocalizationCode-Description','Search by Localization Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>1191</v>
       </c>
@@ -5329,7 +5327,7 @@
         <v>insert into sysLocalizationText Values(1191,'1191','SearchByLocalizationName-Label','By Localization Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>1192</v>
       </c>
@@ -5353,7 +5351,7 @@
         <v>insert into sysLocalizationText Values(1192,'1192','SearchByLocalizationName-Description','Search by Localization Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>1193</v>
       </c>
@@ -5377,7 +5375,7 @@
         <v>insert into sysLocalizationText Values(1193,'1193','SearchByLocalizationText-Label','By Localization Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>1194</v>
       </c>
@@ -5401,7 +5399,7 @@
         <v>insert into sysLocalizationText Values(1194,'1194','SearchByLocalizationText-Description','Search by Localization Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>1195</v>
       </c>
@@ -5425,7 +5423,7 @@
         <v>insert into sysLocalizationText Values(1195,'1195','Language-Label','Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>1196</v>
       </c>
@@ -5449,7 +5447,7 @@
         <v>insert into sysLocalizationText Values(1196,'1196','LocalizationCode-Label','Localization Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>1197</v>
       </c>
@@ -5473,7 +5471,7 @@
         <v>insert into sysLocalizationText Values(1197,'1197','LocalizationName-Label','Localization Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>1198</v>
       </c>
@@ -5497,7 +5495,7 @@
         <v>insert into sysLocalizationText Values(1198,'1198','LocalizationRecord-Label','Localization Text Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>1199</v>
       </c>
@@ -5521,7 +5519,7 @@
         <v>insert into sysLocalizationText Values(1199,'1199','LocalizationText-Label','Localization Text',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>1200</v>
       </c>
@@ -5545,7 +5543,7 @@
         <v>insert into sysLocalizationText Values(1200,'1200','SaveLocalizationButton-Label','Save Localization',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>1201</v>
       </c>
@@ -5569,7 +5567,7 @@
         <v>insert into sysLocalizationText Values(1201,'1201','SaveLocalizationButton-Description','Click here to save localization',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>1202</v>
       </c>
@@ -5593,7 +5591,7 @@
         <v>insert into sysLocalizationText Values(1202,'1202','NewLocalization-Label','New Localization',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>1203</v>
       </c>
@@ -5617,7 +5615,7 @@
         <v>insert into sysLocalizationText Values(1203,'1203','ObjectPermission-PageTitle','Object Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>1204</v>
       </c>
@@ -5641,7 +5639,7 @@
         <v>insert into sysLocalizationText Values(1204,'1204','SearchByObjectName-Label','By Object Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>1205</v>
       </c>
@@ -5665,7 +5663,7 @@
         <v>insert into sysLocalizationText Values(1205,'1205','SearchByObjectName-Description','Search by Object Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>1206</v>
       </c>
@@ -5689,7 +5687,7 @@
         <v>insert into sysLocalizationText Values(1206,'1206','SearchByObjectCode-Label','By Object Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>1207</v>
       </c>
@@ -5713,7 +5711,7 @@
         <v>insert into sysLocalizationText Values(1207,'1207','SearchByObjectCode-Description','Search by Object Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>1208</v>
       </c>
@@ -5737,7 +5735,7 @@
         <v>insert into sysLocalizationText Values(1208,'1208','NewObject-Label','New Object',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>1209</v>
       </c>
@@ -5761,7 +5759,7 @@
         <v>insert into sysLocalizationText Values(1209,'1209','ObjectName-Label','Object Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>1210</v>
       </c>
@@ -5785,7 +5783,7 @@
         <v>insert into sysLocalizationText Values(1210,'1210','ObjectCode-Label','Object Code',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>1211</v>
       </c>
@@ -5809,7 +5807,7 @@
         <v>insert into sysLocalizationText Values(1211,'1211','ObjectPermissionRecord-Label','Object Permission Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>1212</v>
       </c>
@@ -5833,7 +5831,7 @@
         <v>insert into sysLocalizationText Values(1212,'1212','SaveObjectPermissionButton-Label','Save Object Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>1213</v>
       </c>
@@ -5857,7 +5855,7 @@
         <v>insert into sysLocalizationText Values(1213,'1213','SaveObjectPermissionButton-Description','Click here to save Object Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>1214</v>
       </c>
@@ -5881,7 +5879,7 @@
         <v>insert into sysLocalizationText Values(1214,'1214','Permission-PageTitle','Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>1215</v>
       </c>
@@ -5905,7 +5903,7 @@
         <v>insert into sysLocalizationText Values(1215,'1215','SearchByObjectPermission-Label','By Object Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>1216</v>
       </c>
@@ -5929,7 +5927,7 @@
         <v>insert into sysLocalizationText Values(1216,'1216','SearchByRole-Label','By Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>1217</v>
       </c>
@@ -5953,7 +5951,7 @@
         <v>insert into sysLocalizationText Values(1217,'1217','SearchByUser-Label','By User',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>1218</v>
       </c>
@@ -5977,7 +5975,7 @@
         <v>insert into sysLocalizationText Values(1218,'1218','NewPermission-Label','New Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>1219</v>
       </c>
@@ -6001,7 +5999,7 @@
         <v>insert into sysLocalizationText Values(1219,'1219','NewPermission-Description','Click here to create new permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>1220</v>
       </c>
@@ -6025,7 +6023,7 @@
         <v>insert into sysLocalizationText Values(1220,'1220','ObjectName-Label','Object Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>1221</v>
       </c>
@@ -6049,7 +6047,7 @@
         <v>insert into sysLocalizationText Values(1221,'1221','RoleName-Label','Role Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>1222</v>
       </c>
@@ -6073,7 +6071,7 @@
         <v>insert into sysLocalizationText Values(1222,'1222','PermissionRecord-Label','Permission Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>1223</v>
       </c>
@@ -6097,7 +6095,7 @@
         <v>insert into sysLocalizationText Values(1223,'1223','PermissionType-Label','Permission Type',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>1224</v>
       </c>
@@ -6121,7 +6119,7 @@
         <v>insert into sysLocalizationText Values(1224,'1224','ReadStatus-Label','Read Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>1225</v>
       </c>
@@ -6145,7 +6143,7 @@
         <v>insert into sysLocalizationText Values(1225,'1225','SaveStatus-Label','Save Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>1226</v>
       </c>
@@ -6169,7 +6167,7 @@
         <v>insert into sysLocalizationText Values(1226,'1226','DeleteStatus-Label','Delete Status',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>1227</v>
       </c>
@@ -6193,7 +6191,7 @@
         <v>insert into sysLocalizationText Values(1227,'1227','SavePermissionButton-Label','Save Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>1228</v>
       </c>
@@ -6217,7 +6215,7 @@
         <v>insert into sysLocalizationText Values(1228,'1228','SavePermissionButton-Description','Click here to save Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>1229</v>
       </c>
@@ -6241,7 +6239,7 @@
         <v>insert into sysLocalizationText Values(1229,'1229','Role-PageTitle','Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>1230</v>
       </c>
@@ -6265,7 +6263,7 @@
         <v>insert into sysLocalizationText Values(1230,'1230','SearchByRoleName-Label','By Role Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>1231</v>
       </c>
@@ -6289,7 +6287,7 @@
         <v>insert into sysLocalizationText Values(1231,'1231','SearchByRoleName-Description','Search by Role Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>1232</v>
       </c>
@@ -6313,7 +6311,7 @@
         <v>insert into sysLocalizationText Values(1232,'1232','NewRole-Label','New Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>1233</v>
       </c>
@@ -6337,7 +6335,7 @@
         <v>insert into sysLocalizationText Values(1233,'1233','NewRole-Description','Click here to create new Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>1234</v>
       </c>
@@ -6361,7 +6359,7 @@
         <v>insert into sysLocalizationText Values(1234,'1234','RoleName-Label','Role Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>1235</v>
       </c>
@@ -6385,7 +6383,7 @@
         <v>insert into sysLocalizationText Values(1235,'1235','RoleRecord-Label','Role Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>1236</v>
       </c>
@@ -6409,7 +6407,7 @@
         <v>insert into sysLocalizationText Values(1236,'1236','SaveRoleButton-Label','Save Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -6433,7 +6431,7 @@
         <v>insert into sysLocalizationText Values(1237,'1237','SaveRoleButton-Description','Click here to save Role',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>1238</v>
       </c>
@@ -6457,7 +6455,7 @@
         <v>insert into sysLocalizationText Values(1238,'1238','SessionLog-PageTitle','Session Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>1239</v>
       </c>
@@ -6481,7 +6479,7 @@
         <v>insert into sysLocalizationText Values(1239,'1239','SearchByEmail-Description','Search by E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>1240</v>
       </c>
@@ -6505,7 +6503,7 @@
         <v>insert into sysLocalizationText Values(1240,'1240','SearchByDateInterval-Label','By Date Range',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>1241</v>
       </c>
@@ -6529,7 +6527,7 @@
         <v>insert into sysLocalizationText Values(1241,'1241','SearchByInicialDate-Label','Start Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>1242</v>
       </c>
@@ -6553,7 +6551,7 @@
         <v>insert into sysLocalizationText Values(1242,'1242','SearchByFinalDate-Label','End Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>1243</v>
       </c>
@@ -6577,7 +6575,7 @@
         <v>insert into sysLocalizationText Values(1243,'1243','AccessDate-Label','Access Date',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>1244</v>
       </c>
@@ -6601,7 +6599,7 @@
         <v>insert into sysLocalizationText Values(1244,'1244','IP-Label','IP',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>1245</v>
       </c>
@@ -6625,7 +6623,7 @@
         <v>insert into sysLocalizationText Values(1245,'1245','SuperAdmin-MenuText','Super Admin',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>1246</v>
       </c>
@@ -6649,7 +6647,7 @@
         <v>insert into sysLocalizationText Values(1246,'1246','BasicsData-MenuText','Management',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>1247</v>
       </c>
@@ -6673,7 +6671,7 @@
         <v>insert into sysLocalizationText Values(1247,'1247','Monitoring-MenuText','Monitoring',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>1248</v>
       </c>
@@ -6697,7 +6695,7 @@
         <v>insert into sysLocalizationText Values(1248,'1248','Instance-MenuText','Instances',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>1249</v>
       </c>
@@ -6721,7 +6719,7 @@
         <v>insert into sysLocalizationText Values(1249,'1249','Role-MenuText','Roles',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>1250</v>
       </c>
@@ -6745,7 +6743,7 @@
         <v>insert into sysLocalizationText Values(1250,'1250','Users-MenuText','Users',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>1251</v>
       </c>
@@ -6769,7 +6767,7 @@
         <v>insert into sysLocalizationText Values(1251,'1251','ObjectPermission-MenuText','Objects Permission',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>1252</v>
       </c>
@@ -6793,7 +6791,7 @@
         <v>insert into sysLocalizationText Values(1252,'1252','Permissions-MenuText','Permissions',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>1253</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>insert into sysLocalizationText Values(1253,'1253','Localization-MenuText','Localization Texts',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>1256</v>
       </c>
@@ -6841,7 +6839,7 @@
         <v>insert into sysLocalizationText Values(1256,'1256','DataLog-MenuText','Data Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>1257</v>
       </c>
@@ -6865,7 +6863,7 @@
         <v>insert into sysLocalizationText Values(1257,'1257','SessionLog-MenuText','Session Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>1258</v>
       </c>
@@ -6889,7 +6887,7 @@
         <v>insert into sysLocalizationText Values(1258,'1258','SearchByGroupParameterName-Label','Group Parameter Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>1259</v>
       </c>
@@ -6913,7 +6911,7 @@
         <v>insert into sysLocalizationText Values(1259,'1259','SearchByGroupParameterName-Description','Search by Group Parameter Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>1260</v>
       </c>
@@ -6937,7 +6935,7 @@
         <v>insert into sysLocalizationText Values(1260,'1260','NewGroupParameter-Label','New Group Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>1261</v>
       </c>
@@ -6961,7 +6959,7 @@
         <v>insert into sysLocalizationText Values(1261,'1261','NewGroupParameter-Description','Click here to create new Group Parameter ',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>1262</v>
       </c>
@@ -6985,7 +6983,7 @@
         <v>insert into sysLocalizationText Values(1262,'1262','GroupParameterRecord-Label','Group Parameter Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>1263</v>
       </c>
@@ -7009,7 +7007,7 @@
         <v>insert into sysLocalizationText Values(1263,'1263','GroupParameterName-Label','Group Parameter Name ',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>1264</v>
       </c>
@@ -7033,7 +7031,7 @@
         <v>insert into sysLocalizationText Values(1264,'1264','SaveGroupParameterButton-Label','Save Group Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>1265</v>
       </c>
@@ -7057,7 +7055,7 @@
         <v>insert into sysLocalizationText Values(1265,'1265','SaveGroupParameterButton-Description','Click here to save Group Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>1266</v>
       </c>
@@ -7081,7 +7079,7 @@
         <v>insert into sysLocalizationText Values(1266,'1266','GroupParameter-PageTitle','Group Parameters',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>1267</v>
       </c>
@@ -7105,7 +7103,7 @@
         <v>insert into sysLocalizationText Values(1267,'1267','SearchByParameterName-Label','Parameter Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>1268</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>insert into sysLocalizationText Values(1268,'1268','SearchByParameterName-Description','Search by Parameter Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>1269</v>
       </c>
@@ -7153,7 +7151,7 @@
         <v>insert into sysLocalizationText Values(1269,'1269','NewParameter-Label','New Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>1270</v>
       </c>
@@ -7177,7 +7175,7 @@
         <v>insert into sysLocalizationText Values(1270,'1270','NewParameter-Description','Click here to create new Parameter ',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>1271</v>
       </c>
@@ -7201,7 +7199,7 @@
         <v>insert into sysLocalizationText Values(1271,'1271','ParameterRecord-Label','Parameter Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>1272</v>
       </c>
@@ -7225,7 +7223,7 @@
         <v>insert into sysLocalizationText Values(1272,'1272','ParameterName-Label','Parameter Name ',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>1273</v>
       </c>
@@ -7249,7 +7247,7 @@
         <v>insert into sysLocalizationText Values(1273,'1273','SaveParameterButton-Label','Save Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>1274</v>
       </c>
@@ -7273,7 +7271,7 @@
         <v>insert into sysLocalizationText Values(1274,'1274','SaveParameterButton-Description','Click here to save Parameter',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>1275</v>
       </c>
@@ -7297,7 +7295,7 @@
         <v>insert into sysLocalizationText Values(1275,'1275','Parameter-PageTitle','Parameters',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>1276</v>
       </c>
@@ -7321,7 +7319,7 @@
         <v>insert into sysLocalizationText Values(1276,'1276','ChangeUserLanguage-Title','ChangeUserLanguage-Title',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>1277</v>
       </c>
@@ -7345,7 +7343,7 @@
         <v>insert into sysLocalizationText Values(1277,'1277','ChangeUserLanguage-Message','The User Language has been successfully changed. Log in again.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>1278</v>
       </c>
@@ -7369,7 +7367,7 @@
         <v>insert into sysLocalizationText Values(1278,'1278','ExceptionLog-PageTitle','Exception Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>1279</v>
       </c>
@@ -7393,7 +7391,7 @@
         <v>insert into sysLocalizationText Values(1279,'1279','SearchByOrgin-Label','Search by Origin',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>1280</v>
       </c>
@@ -7417,7 +7415,7 @@
         <v>insert into sysLocalizationText Values(1280,'1280','Origin-Label','Origin',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>1281</v>
       </c>
@@ -7441,7 +7439,7 @@
         <v>insert into sysLocalizationText Values(1281,'1281','TargetSite-Label','Target Site',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>1282</v>
       </c>
@@ -7465,7 +7463,7 @@
         <v>insert into sysLocalizationText Values(1282,'1282','ErrMessage-Label','Err Message',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>1283</v>
       </c>
@@ -7489,7 +7487,7 @@
         <v>insert into sysLocalizationText Values(1283,'1283','StackTrace-Label','Stack Trace',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>1284</v>
       </c>
@@ -7513,7 +7511,7 @@
         <v>insert into sysLocalizationText Values(1284,'1284','ClientIP-Label','Client IP',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>1285</v>
       </c>
@@ -7537,7 +7535,7 @@
         <v>insert into sysLocalizationText Values(1285,'1285','SearchByConfigName-Label','By Config Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>1286</v>
       </c>
@@ -7561,7 +7559,7 @@
         <v>insert into sysLocalizationText Values(1286,'1286','SearchByConfigName-Description','Search by Config Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>1287</v>
       </c>
@@ -7585,7 +7583,7 @@
         <v>insert into sysLocalizationText Values(1287,'1287','NewConfig-Label','New Config',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>1288</v>
       </c>
@@ -7609,7 +7607,7 @@
         <v>insert into sysLocalizationText Values(1288,'1288','NewConfig-Description','Click here to create new Config',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>1289</v>
       </c>
@@ -7633,7 +7631,7 @@
         <v>insert into sysLocalizationText Values(1289,'1289','ConfigName','Config Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>1290</v>
       </c>
@@ -7657,7 +7655,7 @@
         <v>insert into sysLocalizationText Values(1290,'1290','ConfigRecord-Label','Config Record',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>1291</v>
       </c>
@@ -7681,7 +7679,7 @@
         <v>insert into sysLocalizationText Values(1291,'1291','ConfigName-Label','Config Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>1292</v>
       </c>
@@ -7705,7 +7703,7 @@
         <v>insert into sysLocalizationText Values(1292,'1292','ConfigValue-Label','Config Value',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>1293</v>
       </c>
@@ -7729,7 +7727,7 @@
         <v>insert into sysLocalizationText Values(1293,'1293','ConfigValue','Config Value',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>1294</v>
       </c>
@@ -7753,7 +7751,7 @@
         <v>insert into sysLocalizationText Values(1294,'1294','SaveConfigButton-Label','Save Config',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>1295</v>
       </c>
@@ -7777,7 +7775,7 @@
         <v>insert into sysLocalizationText Values(1295,'1295','SaveConfigButton-Description','Click here to save Config',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>1296</v>
       </c>
@@ -7801,7 +7799,7 @@
         <v>insert into sysLocalizationText Values(1296,'1296','Configs-PageTitle','Configurations',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>1297</v>
       </c>
@@ -7825,7 +7823,7 @@
         <v>insert into sysLocalizationText Values(1297,'1297','Logout-Label','Logout',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>1298</v>
       </c>
@@ -7849,7 +7847,7 @@
         <v>insert into sysLocalizationText Values(1298,'1298','AlterProfileImage-Description','Drag the file here you wish to upload, or click on buttom above to browse.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>1299</v>
       </c>
@@ -7873,7 +7871,7 @@
         <v>insert into sysLocalizationText Values(1299,'1299','Menu-Superadmin','Super Admin',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>1300</v>
       </c>
@@ -7897,7 +7895,7 @@
         <v>insert into sysLocalizationText Values(1300,'1300','Menu-Configs','Business Configs',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>1301</v>
       </c>
@@ -7921,7 +7919,7 @@
         <v>insert into sysLocalizationText Values(1301,'1301','Menu-Instance','Instances',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>1302</v>
       </c>
@@ -7945,7 +7943,7 @@
         <v>insert into sysLocalizationText Values(1302,'1302','Menu-Roles','Roles',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>1303</v>
       </c>
@@ -7969,7 +7967,7 @@
         <v>insert into sysLocalizationText Values(1303,'1303','Menu-ObjectPermissions','Object Permissions',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>1304</v>
       </c>
@@ -7993,7 +7991,7 @@
         <v>insert into sysLocalizationText Values(1304,'1304','Menu-Permissions','Permissions',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>1305</v>
       </c>
@@ -8017,7 +8015,7 @@
         <v>insert into sysLocalizationText Values(1305,'1305','Menu-Users','Users',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>1306</v>
       </c>
@@ -8041,7 +8039,7 @@
         <v>insert into sysLocalizationText Values(1306,'1306','Menu-LocalizationTexts','Localization Texts',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>1307</v>
       </c>
@@ -8065,7 +8063,7 @@
         <v>insert into sysLocalizationText Values(1307,'1307','Menu-GroupParameters','Group Parameters',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>1308</v>
       </c>
@@ -8089,7 +8087,7 @@
         <v>insert into sysLocalizationText Values(1308,'1308','Menu-Parameters','Parameters',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>1309</v>
       </c>
@@ -8113,7 +8111,7 @@
         <v>insert into sysLocalizationText Values(1309,'1309','Menu-Monitoring','Monitoring',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>1310</v>
       </c>
@@ -8137,7 +8135,7 @@
         <v>insert into sysLocalizationText Values(1310,'1310','Menu-SessionLog','Session Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>1311</v>
       </c>
@@ -8161,7 +8159,7 @@
         <v>insert into sysLocalizationText Values(1311,'1311','Menu-DataLog','Data Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>1312</v>
       </c>
@@ -8185,7 +8183,7 @@
         <v>insert into sysLocalizationText Values(1312,'1312','Menu-ExceptionLog','Exception Log',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>1313</v>
       </c>
@@ -8209,7 +8207,7 @@
         <v>insert into sysLocalizationText Values(1313,'1313','Editing-Label','Editing',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>1314</v>
       </c>
@@ -8233,7 +8231,7 @@
         <v>insert into sysLocalizationText Values(1314,'1314','Inserting-Label','Inserting',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>1315</v>
       </c>
@@ -8257,7 +8255,7 @@
         <v>insert into sysLocalizationText Values(1315,'1315','RemoveConfirmation-Label','Are you sure to remove this record?',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>1316</v>
       </c>
@@ -8281,7 +8279,7 @@
         <v>insert into sysLocalizationText Values(1316,'1316','RemoveConfirmation-Message','The record was removed successfuly.',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>1317</v>
       </c>
@@ -8305,7 +8303,7 @@
         <v>insert into sysLocalizationText Values(1317,'1317','AllowRead-Label','Read',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>1318</v>
       </c>
@@ -8329,7 +8327,7 @@
         <v>insert into sysLocalizationText Values(1318,'1318','AllowSave-Label','Save',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>1319</v>
       </c>
@@ -8353,7 +8351,7 @@
         <v>insert into sysLocalizationText Values(1319,'1319','AllowDelete-Label','Delete',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>1320</v>
       </c>
@@ -8377,7 +8375,7 @@
         <v>insert into sysLocalizationText Values(1320,'1320','InsertOperation-Text','Insert',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>1321</v>
       </c>
@@ -8401,7 +8399,7 @@
         <v>insert into sysLocalizationText Values(1321,'1321','UpdateOperation-Text','Update',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>1322</v>
       </c>
@@ -8425,7 +8423,7 @@
         <v>insert into sysLocalizationText Values(1322,'1322','DeleteOperation-Text','Delete',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>1323</v>
       </c>
@@ -8449,7 +8447,7 @@
         <v>insert into sysLocalizationText Values(1323,'1323','NewLanguage-Label','New Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>1324</v>
       </c>
@@ -8473,7 +8471,7 @@
         <v>insert into sysLocalizationText Values(1324,'1324','SaveLanguageButton-Label','Save Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>1325</v>
       </c>
@@ -8497,7 +8495,7 @@
         <v>insert into sysLocalizationText Values(1325,'1325','SearchByLanguageName-Label','By Language Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>1326</v>
       </c>
@@ -8521,7 +8519,7 @@
         <v>insert into sysLocalizationText Values(1326,'1326','LanguageName-Label','Language Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>1327</v>
       </c>
@@ -8545,7 +8543,7 @@
         <v>insert into sysLocalizationText Values(1327,'1327','Description-Label','Description',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>1328</v>
       </c>
@@ -8569,7 +8567,7 @@
         <v>insert into sysLocalizationText Values(1328,'1328','Language-PageTitle','Language',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>1329</v>
       </c>
@@ -8593,7 +8591,7 @@
         <v>insert into sysLocalizationText Values(1329,'1329','Menu-Language','Languages',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>1330</v>
       </c>
@@ -8617,7 +8615,7 @@
         <v>insert into sysLocalizationText Values(1330,'1330','Person-PageTitle','Person',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>1331</v>
       </c>
@@ -8641,7 +8639,7 @@
         <v>insert into sysLocalizationText Values(1331,'1331','Menu-Admin','Administration',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>1332</v>
       </c>
@@ -8665,7 +8663,7 @@
         <v>insert into sysLocalizationText Values(1332,'1332','Menu-Person','Person',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>1333</v>
       </c>
@@ -8689,7 +8687,7 @@
         <v>insert into sysLocalizationText Values(1333,'1333','NewPerson-Label','New Person',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>1334</v>
       </c>
@@ -8713,7 +8711,7 @@
         <v>insert into sysLocalizationText Values(1334,'1334','SavePersonButton-Label','Save Person',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>1335</v>
       </c>
@@ -8737,7 +8735,7 @@
         <v>insert into sysLocalizationText Values(1335,'1335','SearchByPersonName-Label','By Person Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>1336</v>
       </c>
@@ -8761,7 +8759,7 @@
         <v>insert into sysLocalizationText Values(1336,'1336','PersonName-Label','Person Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>1337</v>
       </c>
@@ -8785,7 +8783,7 @@
         <v>insert into sysLocalizationText Values(1337,'1337','PersonEmail-Label','E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>1338</v>
       </c>
@@ -8809,7 +8807,7 @@
         <v>insert into sysLocalizationText Values(1338,'1338','PhoneNumber-Label','Phone Number',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6">
       <c r="A337">
         <v>1339</v>
       </c>
@@ -8833,7 +8831,7 @@
         <v>insert into sysLocalizationText Values(1339,'1339','SearchByPersonEmail-Label','By Person E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6">
       <c r="A338">
         <v>1340</v>
       </c>
@@ -8857,7 +8855,7 @@
         <v>insert into sysLocalizationText Values(1340,'1340','Contacts-Title','Contacts',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6">
       <c r="A339">
         <v>1341</v>
       </c>
@@ -8881,7 +8879,7 @@
         <v>insert into sysLocalizationText Values(1341,'1341','ContactEditing-Label','Contact Editing',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6">
       <c r="A340">
         <v>1342</v>
       </c>
@@ -8905,7 +8903,7 @@
         <v>insert into sysLocalizationText Values(1342,'1342','ContactInserting-Label','Contact Inserting',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6">
       <c r="A341">
         <v>1343</v>
       </c>
@@ -8929,7 +8927,7 @@
         <v>insert into sysLocalizationText Values(1343,'1343','ContactName-Label','Contact Name',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6">
       <c r="A342">
         <v>1344</v>
       </c>
@@ -8953,7 +8951,7 @@
         <v>insert into sysLocalizationText Values(1344,'1344','ContactEmail-Label','Contact E-mail',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6">
       <c r="A343">
         <v>1345</v>
       </c>
@@ -8977,7 +8975,7 @@
         <v>insert into sysLocalizationText Values(1345,'1345','ContactCellPhoneNumber-Label','Cell Phone Number',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6">
       <c r="A344">
         <v>1346</v>
       </c>
@@ -9001,7 +8999,7 @@
         <v>insert into sysLocalizationText Values(1346,'1346','SavePersonContactButton-Label','Salve Contact',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6">
       <c r="A345">
         <v>1347</v>
       </c>
@@ -9025,7 +9023,7 @@
         <v>insert into sysLocalizationText Values(1347,'1347','Keepconnection-Label','Keep connected',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6">
       <c r="A346">
         <v>1348</v>
       </c>
@@ -9049,7 +9047,7 @@
         <v>insert into sysLocalizationText Values(1348,'1348','Records-Label','Records',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6">
       <c r="A347">
         <v>1349</v>
       </c>
@@ -9073,7 +9071,7 @@
         <v>insert into sysLocalizationText Values(1349,'1349','Page-Label','Page',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6">
       <c r="A348">
         <v>1350</v>
       </c>
@@ -9097,7 +9095,7 @@
         <v>insert into sysLocalizationText Values(1350,'1350','PaginationConfigs-Title','Pagination Configuration',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6">
       <c r="A349">
         <v>1351</v>
       </c>
@@ -9121,7 +9119,7 @@
         <v>insert into sysLocalizationText Values(1351,'1351','SelectRecordsPerPage-Title','Records Per Page',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6">
       <c r="A350">
         <v>1352</v>
       </c>
@@ -9145,7 +9143,7 @@
         <v>insert into sysLocalizationText Values(1352,'1352','SelectPage-Title','Select the page',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6">
       <c r="A351">
         <v>1353</v>
       </c>
@@ -9169,7 +9167,7 @@
         <v>insert into sysLocalizationText Values(1353,'1353','Messagebox-Confirmation-Title','Confirmation',getdate(),getdate(),1)</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6">
       <c r="A352">
         <v>1354</v>
       </c>
@@ -9181,19 +9179,19 @@
         <v>'1354'</v>
       </c>
       <c r="D352" t="str">
-        <f t="shared" ref="D351:E355" si="55">$N$1 &amp; "" &amp; $N$1</f>
-        <v>''</v>
+        <f>$N$1 &amp; "Directory-Label" &amp; $N$1</f>
+        <v>'Directory-Label'</v>
       </c>
       <c r="E352" t="str">
-        <f t="shared" si="55"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Directory" &amp; $N$1</f>
+        <v>'Directory'</v>
       </c>
       <c r="F352" t="str">
         <f t="shared" si="54"/>
-        <v>insert into sysLocalizationText Values(1354,'1354','','',getdate(),getdate(),1)</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+        <v>insert into sysLocalizationText Values(1354,'1354','Directory-Label','Directory',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353">
         <v>1355</v>
       </c>
@@ -9205,19 +9203,19 @@
         <v>'1355'</v>
       </c>
       <c r="D353" t="str">
-        <f t="shared" si="55"/>
-        <v>''</v>
+        <f>$N$1 &amp; "FileName-Label" &amp; $N$1</f>
+        <v>'FileName-Label'</v>
       </c>
       <c r="E353" t="str">
-        <f t="shared" si="55"/>
-        <v>''</v>
+        <f>$N$1 &amp; "File Name" &amp; $N$1</f>
+        <v>'File Name'</v>
       </c>
       <c r="F353" t="str">
         <f t="shared" si="54"/>
-        <v>insert into sysLocalizationText Values(1355,'1355','','',getdate(),getdate(),1)</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+        <v>insert into sysLocalizationText Values(1355,'1355','FileName-Label','File Name',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354">
         <v>1356</v>
       </c>
@@ -9229,19 +9227,19 @@
         <v>'1356'</v>
       </c>
       <c r="D354" t="str">
-        <f t="shared" si="55"/>
-        <v>''</v>
+        <f>$N$1 &amp; "DownloadFile-Label" &amp; $N$1</f>
+        <v>'DownloadFile-Label'</v>
       </c>
       <c r="E354" t="str">
-        <f t="shared" si="55"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Download File" &amp; $N$1</f>
+        <v>'Download File'</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" si="54"/>
-        <v>insert into sysLocalizationText Values(1356,'1356','','',getdate(),getdate(),1)</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+        <v>insert into sysLocalizationText Values(1356,'1356','DownloadFile-Label','Download File',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355">
         <v>1357</v>
       </c>
@@ -9253,16 +9251,112 @@
         <v>'1357'</v>
       </c>
       <c r="D355" t="str">
-        <f t="shared" si="55"/>
-        <v>''</v>
+        <f>$N$1 &amp; "FileServer-PageTitle" &amp; $N$1</f>
+        <v>'FileServer-PageTitle'</v>
       </c>
       <c r="E355" t="str">
-        <f t="shared" si="55"/>
-        <v>''</v>
+        <f>$N$1 &amp; "File Server Manager " &amp; $N$1</f>
+        <v>'File Server Manager '</v>
       </c>
       <c r="F355" t="str">
         <f t="shared" si="54"/>
-        <v>insert into sysLocalizationText Values(1357,'1357','','',getdate(),getdate(),1)</v>
+        <v>insert into sysLocalizationText Values(1357,'1357','FileServer-PageTitle','File Server Manager ',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356">
+        <v>1358</v>
+      </c>
+      <c r="B356" s="2">
+        <v>1</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" ref="C356:C359" si="55">"'" &amp; A356 &amp; "'"</f>
+        <v>'1358'</v>
+      </c>
+      <c r="D356" t="str">
+        <f>$N$1 &amp; "Menu-FileServerManager" &amp; $N$1</f>
+        <v>'Menu-FileServerManager'</v>
+      </c>
+      <c r="E356" t="str">
+        <f>$N$1 &amp; "File Server Manager" &amp; $N$1</f>
+        <v>'File Server Manager'</v>
+      </c>
+      <c r="F356" t="str">
+        <f t="shared" ref="F356:F359" si="56">"insert into sysLocalizationText Values(" &amp;A356 &amp; "," &amp;C356 &amp; "," &amp; D356 &amp; "," &amp; E356 &amp; ",getdate(),getdate()," &amp; B356 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1358,'1358','Menu-FileServerManager','File Server Manager',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357">
+        <v>1359</v>
+      </c>
+      <c r="B357" s="2">
+        <v>1</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="55"/>
+        <v>'1359'</v>
+      </c>
+      <c r="D357" t="str">
+        <f t="shared" ref="D352:E359" si="57">$N$1 &amp; "" &amp; $N$1</f>
+        <v>''</v>
+      </c>
+      <c r="E357" t="str">
+        <f t="shared" si="57"/>
+        <v>''</v>
+      </c>
+      <c r="F357" t="str">
+        <f t="shared" si="56"/>
+        <v>insert into sysLocalizationText Values(1359,'1359','','',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358">
+        <v>1360</v>
+      </c>
+      <c r="B358" s="2">
+        <v>1</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="55"/>
+        <v>'1360'</v>
+      </c>
+      <c r="D358" t="str">
+        <f t="shared" si="57"/>
+        <v>''</v>
+      </c>
+      <c r="E358" t="str">
+        <f t="shared" si="57"/>
+        <v>''</v>
+      </c>
+      <c r="F358" t="str">
+        <f t="shared" si="56"/>
+        <v>insert into sysLocalizationText Values(1360,'1360','','',getdate(),getdate(),1)</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359">
+        <v>1361</v>
+      </c>
+      <c r="B359" s="2">
+        <v>1</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" si="55"/>
+        <v>'1361'</v>
+      </c>
+      <c r="D359" t="str">
+        <f t="shared" si="57"/>
+        <v>''</v>
+      </c>
+      <c r="E359" t="str">
+        <f t="shared" si="57"/>
+        <v>''</v>
+      </c>
+      <c r="F359" t="str">
+        <f t="shared" si="56"/>
+        <v>insert into sysLocalizationText Values(1361,'1361','','',getdate(),getdate(),1)</v>
       </c>
     </row>
   </sheetData>
@@ -9272,14 +9366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N355"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="D352" sqref="D352"/>
+      <selection activeCell="D357" sqref="D357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
@@ -9287,7 +9381,7 @@
     <col min="6" max="6" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1">
         <v>2001</v>
       </c>
@@ -9313,7 +9407,7 @@
         <v>'</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -9335,7 +9429,7 @@
         <v>insert into sysLocalizationText Values(2002,'2002',     'Validation-Error',    'Erro na validação de dados.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -9357,7 +9451,7 @@
         <v>insert into sysLocalizationText Values(2003,'2003',     'Record-NotFound',    'O registro solicitado não foi encontrado.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -9379,7 +9473,7 @@
         <v>insert into sysLocalizationText Values(2004,'2004',     'Login-Invalid-Password',    'Senha inválida. Você ainda tem {0} tentativas antes da conta ser desativada.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -9401,7 +9495,7 @@
         <v>insert into sysLocalizationText Values(2005,'2005',     'Login-Attempts',    'Você já utilizou as tentativas de acesso e a conta foi desativada. Solicite a ativação.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -9423,7 +9517,7 @@
         <v>insert into sysLocalizationText Values(2006,'2006',     'Login-Inactive-Account',    'A conta associada ao Usuário não está ativa. Solicite a ativação da conta.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -9445,7 +9539,7 @@
         <v>insert into sysLocalizationText Values(2007,'2007',     'Login-Locked-Account',    'A conta associada ao Usuário está bloqueada. Contate o administrador do sistema.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -9467,7 +9561,7 @@
         <v>insert into sysLocalizationText Values(2008,'2008',     'Login-User-NotFound',    'Usuário não encontrado.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -9489,7 +9583,7 @@
         <v>insert into sysLocalizationText Values(2009,'2009',     'User-Exists',    'Já existe um usuário com o e-mail ',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -9511,7 +9605,7 @@
         <v>insert into sysLocalizationText Values(2010,'2010',     'Email-Exists',    'O e-mail informado já existe.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -9533,7 +9627,7 @@
         <v>insert into sysLocalizationText Values(2011,'2011',     'Profile-NotBe-Null',    'O Perfil não pode ser nulo.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -9555,7 +9649,7 @@
         <v>insert into sysLocalizationText Values(2012,'2012',     'User-Error-Exclude-Childs',    'Houve um erro ao excluir os itens filhos (Roles).',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -9577,7 +9671,7 @@
         <v>insert into sysLocalizationText Values(2013,'2013',     'User-Invalid-Password-Code',    'O código de autorização de troca de senha é inválido.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -9599,7 +9693,7 @@
         <v>insert into sysLocalizationText Values(2014,'2014',     'Account-Active',    'A conta associada ao Usuário já está ativa.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -9621,7 +9715,7 @@
         <v>insert into sysLocalizationText Values(2015,'2015',     'User-Invalid-Activation-Code',    'O código de autorização de ativação é inválido.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -9643,7 +9737,7 @@
         <v>insert into sysLocalizationText Values(2016,'2016',     'User-No-Image',    'Envie o arquivo da imagem.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -9665,7 +9759,7 @@
         <v>insert into sysLocalizationText Values(2017,'2017',     'User-Role-Exists',    'Esta Role já está associada ao usuário.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -9687,7 +9781,7 @@
         <v>insert into sysLocalizationText Values(2018,'2018',     'User-Role-No-Exists',    'Esta Role não pertence ao usuário.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -9709,7 +9803,7 @@
         <v>insert into sysLocalizationText Values(2019,'2019',     'Http-Unauthorized',    'Acesso não autorizado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -9731,7 +9825,7 @@
         <v>insert into sysLocalizationText Values(2020,'2020',     'Http-NotFound',    'O recurso não foi encontrado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -9753,7 +9847,7 @@
         <v>insert into sysLocalizationText Values(2021,'2021',     'Http-Forbidden',    'Perfil do usuário sem permissão de acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -9775,7 +9869,7 @@
         <v>insert into sysLocalizationText Values(2022,'2022',     'Http-500Error',    'Ocorreu um erro no processamento da requisição.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2023</v>
       </c>
@@ -9797,7 +9891,7 @@
         <v>insert into sysLocalizationText Values(2023,'2023',     'Http-ServiceUnavailable',    'O serviço solicitado está indisponível.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2024</v>
       </c>
@@ -9819,7 +9913,7 @@
         <v>insert into sysLocalizationText Values(2024,'2024',     'API-Unexpected-Exception',    'Erro inesperado não identificado GetInnerExceptions@f2]',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2025</v>
       </c>
@@ -9841,7 +9935,7 @@
         <v>insert into sysLocalizationText Values(2025,'2025',     'ShortDayName-1',    'Dom',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2026</v>
       </c>
@@ -9863,7 +9957,7 @@
         <v>insert into sysLocalizationText Values(2026,'2026',     'ShortDayName-2',    'Seg',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2027</v>
       </c>
@@ -9885,7 +9979,7 @@
         <v>insert into sysLocalizationText Values(2027,'2027',     'ShortDayName-3',    'Ter',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -9907,7 +10001,7 @@
         <v>insert into sysLocalizationText Values(2028,'2028',     'ShortDayName-4',    'Qua',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2029</v>
       </c>
@@ -9929,7 +10023,7 @@
         <v>insert into sysLocalizationText Values(2029,'2029',     'ShortDayName-5',    'Qui',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2030</v>
       </c>
@@ -9951,7 +10045,7 @@
         <v>insert into sysLocalizationText Values(2030,'2030',     'ShortDayName-6',    'Sex',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2031</v>
       </c>
@@ -9973,7 +10067,7 @@
         <v>insert into sysLocalizationText Values(2031,'2031',     'ShortDayName-7',    'Sáb',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2032</v>
       </c>
@@ -9995,7 +10089,7 @@
         <v>insert into sysLocalizationText Values(2032,'2032',     'MonthName-1',    'JANEIRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>2033</v>
       </c>
@@ -10017,7 +10111,7 @@
         <v>insert into sysLocalizationText Values(2033,'2033',     'MonthName-2',    'FEVEREIRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>2034</v>
       </c>
@@ -10039,7 +10133,7 @@
         <v>insert into sysLocalizationText Values(2034,'2034',     'MonthName-3',    'MARÇO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2035</v>
       </c>
@@ -10061,7 +10155,7 @@
         <v>insert into sysLocalizationText Values(2035,'2035',     'MonthName-4',    'ABRIL',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>2036</v>
       </c>
@@ -10083,7 +10177,7 @@
         <v>insert into sysLocalizationText Values(2036,'2036',     'MonthName-5',    'MAIO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>2037</v>
       </c>
@@ -10105,7 +10199,7 @@
         <v>insert into sysLocalizationText Values(2037,'2037',     'MonthName-6',    'JUNHO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>2038</v>
       </c>
@@ -10127,7 +10221,7 @@
         <v>insert into sysLocalizationText Values(2038,'2038',     'MonthName-7',    'JULHO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>2039</v>
       </c>
@@ -10149,7 +10243,7 @@
         <v>insert into sysLocalizationText Values(2039,'2039',     'MonthName-8',    'AGOSTO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>2040</v>
       </c>
@@ -10171,7 +10265,7 @@
         <v>insert into sysLocalizationText Values(2040,'2040',     'MonthName-9',    'SETEMBRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>2041</v>
       </c>
@@ -10193,7 +10287,7 @@
         <v>insert into sysLocalizationText Values(2041,'2041',     'MonthName-10',    'OUTUBRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>2042</v>
       </c>
@@ -10215,7 +10309,7 @@
         <v>insert into sysLocalizationText Values(2042,'2042',     'MonthName-11',    'NOVEMBRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>2043</v>
       </c>
@@ -10237,7 +10331,7 @@
         <v>insert into sysLocalizationText Values(2043,'2043',     'MonthName-12',    'DEZEMBRO',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>2044</v>
       </c>
@@ -10259,7 +10353,7 @@
         <v>insert into sysLocalizationText Values(2044,'2044',     'Validation-NotNull',    'não pode ser nulo.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>2045</v>
       </c>
@@ -10281,7 +10375,7 @@
         <v>insert into sysLocalizationText Values(2045,'2045',     'Validation-Max-Characters',    'O campo {0} não pode ter mais de maxlength caracteres.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>2046</v>
       </c>
@@ -10303,7 +10397,7 @@
         <v>insert into sysLocalizationText Values(2046,'2046',     'Validation-Invalid-Field',    'O campo {0} é inválido.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>2047</v>
       </c>
@@ -10325,7 +10419,7 @@
         <v>insert into sysLocalizationText Values(2047,'2047',     'Validation-Invalid-UserName',    'O campo {0} é inválido. Não use caracteres especiais ou espaços.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>2048</v>
       </c>
@@ -10347,7 +10441,7 @@
         <v>insert into sysLocalizationText Values(2048,'2048',     'Validation-Unique-Value',    'O campo {0} é inválido. O valor informado deve ser único.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>2049</v>
       </c>
@@ -10369,7 +10463,7 @@
         <v>insert into sysLocalizationText Values(2049,'2049',     'User-Instance-Exists',    'Esta Instância já está associada ao Usuário.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>2050</v>
       </c>
@@ -10391,7 +10485,7 @@
         <v>insert into sysLocalizationText Values(2050,'2050',     'User-Instance-No-Exists',    'Esta Instância não pertence ao Usuário.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>2051</v>
       </c>
@@ -10415,7 +10509,7 @@
         <v>insert into sysLocalizationText Values(2051,'2051','User-PageTitle','Gerenciamento de Usuários',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>2052</v>
       </c>
@@ -10439,7 +10533,7 @@
         <v>insert into sysLocalizationText Values(2052,'2052','SearchButtonLabel','Pesquisar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>2053</v>
       </c>
@@ -10463,7 +10557,7 @@
         <v>insert into sysLocalizationText Values(2053,'2053','SearchingLabel','Pesquisando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>2054</v>
       </c>
@@ -10487,7 +10581,7 @@
         <v>insert into sysLocalizationText Values(2054,'2054','InsertingLoadingLabel','Inserindo...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>2055</v>
       </c>
@@ -10511,7 +10605,7 @@
         <v>insert into sysLocalizationText Values(2055,'2055','SearchResultLabel','Resultado da Busca',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>2056</v>
       </c>
@@ -10535,7 +10629,7 @@
         <v>insert into sysLocalizationText Values(2056,'2056','DetailsLabel','Detalhes',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>2057</v>
       </c>
@@ -10559,7 +10653,7 @@
         <v>insert into sysLocalizationText Values(2057,'2057','NoRecordsFound','Nenhum registro encontrado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>2058</v>
       </c>
@@ -10583,7 +10677,7 @@
         <v>insert into sysLocalizationText Values(2058,'2058','LoadingPage','Carregando. Aguarde...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>2059</v>
       </c>
@@ -10607,7 +10701,7 @@
         <v>insert into sysLocalizationText Values(2059,'2059','LoadingData','Carregando a página. Aguarde...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>2060</v>
       </c>
@@ -10631,7 +10725,7 @@
         <v>insert into sysLocalizationText Values(2060,'2060','ErrorOnExecuteSearch','Erro ao efetuar a busca',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>2061</v>
       </c>
@@ -10655,7 +10749,7 @@
         <v>insert into sysLocalizationText Values(2061,'2061','ErrorOnReturnData','Erro ao retornar dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>2062</v>
       </c>
@@ -10679,7 +10773,7 @@
         <v>insert into sysLocalizationText Values(2062,'2062','ErrorOnCreateNewRecord','Erro ao criar registro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>2063</v>
       </c>
@@ -10703,7 +10797,7 @@
         <v>insert into sysLocalizationText Values(2063,'2063','AfterSaveAnswering','O novo registro foi criado com sucesso. Deseja continuar inserindo ?',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>2064</v>
       </c>
@@ -10727,7 +10821,7 @@
         <v>insert into sysLocalizationText Values(2064,'2064','NoticeLabel','Aviso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>2065</v>
       </c>
@@ -10751,7 +10845,7 @@
         <v>insert into sysLocalizationText Values(2065,'2065','SuccessLabel','Sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>2066</v>
       </c>
@@ -10775,7 +10869,7 @@
         <v>insert into sysLocalizationText Values(2066,'2066','SuccessSaveMessage','O registro foi salvo com sucesso.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>2067</v>
       </c>
@@ -10799,7 +10893,7 @@
         <v>insert into sysLocalizationText Values(2067,'2067','Email-Label','E-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>2068</v>
       </c>
@@ -10823,7 +10917,7 @@
         <v>insert into sysLocalizationText Values(2068,'2068','UserName-Label','Nome de Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>2069</v>
       </c>
@@ -10847,7 +10941,7 @@
         <v>insert into sysLocalizationText Values(2069,'2069','Password-Label','Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>2070</v>
       </c>
@@ -10871,7 +10965,7 @@
         <v>insert into sysLocalizationText Values(2070,'2070','Instance-Label','Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>2071</v>
       </c>
@@ -10895,7 +10989,7 @@
         <v>insert into sysLocalizationText Values(2071,'2071','Role-Label','Perfim',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>2072</v>
       </c>
@@ -10919,7 +11013,7 @@
         <v>insert into sysLocalizationText Values(2072,'2072','Yes-Text','Sim',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>2073</v>
       </c>
@@ -10943,7 +11037,7 @@
         <v>insert into sysLocalizationText Values(2073,'2073','No-Text','Não',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>2074</v>
       </c>
@@ -10967,7 +11061,7 @@
         <v>insert into sysLocalizationText Values(2074,'2074','Saving-Label','Salvando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>2075</v>
       </c>
@@ -10991,7 +11085,7 @@
         <v>insert into sysLocalizationText Values(2075,'2075','Edit-Label','Editar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>2076</v>
       </c>
@@ -11015,7 +11109,7 @@
         <v>insert into sysLocalizationText Values(2076,'2076','Date-Label','Data',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>2077</v>
       </c>
@@ -11039,7 +11133,7 @@
         <v>insert into sysLocalizationText Values(2077,'2077','Field-Label','Campo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>2078</v>
       </c>
@@ -11063,7 +11157,7 @@
         <v>insert into sysLocalizationText Values(2078,'2078','Value-Label','Valor',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>2079</v>
       </c>
@@ -11087,7 +11181,7 @@
         <v>insert into sysLocalizationText Values(2079,'2079','SelectItem-Description','Selecione um Item',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>2080</v>
       </c>
@@ -11111,7 +11205,7 @@
         <v>insert into sysLocalizationText Values(2080,'2080','AllItem-Description','Todos',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>2081</v>
       </c>
@@ -11135,7 +11229,7 @@
         <v>insert into sysLocalizationText Values(2081,'2081','Welcome-Label','Bem-vindo ao GW Template',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>2082</v>
       </c>
@@ -11159,7 +11253,7 @@
         <v>insert into sysLocalizationText Values(2082,'2082','LoginTitle-Label','Entrar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>2083</v>
       </c>
@@ -11183,7 +11277,7 @@
         <v>insert into sysLocalizationText Values(2083,'2083','LoginTitle-Description','Insira suas credenciais de acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>2084</v>
       </c>
@@ -11207,7 +11301,7 @@
         <v>insert into sysLocalizationText Values(2084,'2084','InputEmail-Description','Digite seu e-mail de cadastro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>2085</v>
       </c>
@@ -11231,7 +11325,7 @@
         <v>insert into sysLocalizationText Values(2085,'2085','InputPassword-Description','Digite sua senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>2086</v>
       </c>
@@ -11255,7 +11349,7 @@
         <v>insert into sysLocalizationText Values(2086,'2086','ForgetPassword-Description','Esqueceu a senha ?',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>2087</v>
       </c>
@@ -11279,7 +11373,7 @@
         <v>insert into sysLocalizationText Values(2087,'2087','LoginButton-Label','Confirmar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>2088</v>
       </c>
@@ -11303,7 +11397,7 @@
         <v>insert into sysLocalizationText Values(2088,'2088','LoginLoading-Label','Entrando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>2089</v>
       </c>
@@ -11327,7 +11421,7 @@
         <v>insert into sysLocalizationText Values(2089,'2089','SendText-Description','Enviando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>2090</v>
       </c>
@@ -11351,7 +11445,7 @@
         <v>insert into sysLocalizationText Values(2090,'2090','ActiveAccountButton-Label','Ativar Conta',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>2091</v>
       </c>
@@ -11375,7 +11469,7 @@
         <v>insert into sysLocalizationText Values(2091,'2091','ActiveAccount-Label','Ativação de Conta',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>2092</v>
       </c>
@@ -11399,7 +11493,7 @@
         <v>insert into sysLocalizationText Values(2092,'2092','ActiveAccount-Description','Não consegue acessar ?',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>2093</v>
       </c>
@@ -11423,7 +11517,7 @@
         <v>insert into sysLocalizationText Values(2093,'2093','ActiveAccount-Step1','Envie o código de ativação para o seu e-mail de cadastro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>2094</v>
       </c>
@@ -11447,7 +11541,7 @@
         <v>insert into sysLocalizationText Values(2094,'2094','ActiveAccount-Step2','Informe o código de ativação recebido',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>2095</v>
       </c>
@@ -11471,7 +11565,7 @@
         <v>insert into sysLocalizationText Values(2095,'2095','SendCodeButton-Label','Enviar Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>2096</v>
       </c>
@@ -11495,7 +11589,7 @@
         <v>insert into sysLocalizationText Values(2096,'2096','ActiveLoading-Label','Solicitar Ativação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>2097</v>
       </c>
@@ -11519,7 +11613,7 @@
         <v>insert into sysLocalizationText Values(2097,'2097','InputCode-Description','Digite o código recebido por e-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>2098</v>
       </c>
@@ -11543,7 +11637,7 @@
         <v>insert into sysLocalizationText Values(2098,'2098','Unlogged-Label','Você não está logado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>2099</v>
       </c>
@@ -11567,7 +11661,7 @@
         <v>insert into sysLocalizationText Values(2099,'2099','MyProfile-Label','Meu Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>2100</v>
       </c>
@@ -11591,7 +11685,7 @@
         <v>insert into sysLocalizationText Values(2100,'2100','MainProfileData-Label','Dados do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>2101</v>
       </c>
@@ -11615,7 +11709,7 @@
         <v>insert into sysLocalizationText Values(2101,'2101','AlterPassword-Label','Trocar Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>2102</v>
       </c>
@@ -11639,7 +11733,7 @@
         <v>insert into sysLocalizationText Values(2102,'2102','LanguageRole-Label','Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>2103</v>
       </c>
@@ -11663,7 +11757,7 @@
         <v>insert into sysLocalizationText Values(2103,'2103','AlterProfileImage-Label','Alterar a imagem de perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>2104</v>
       </c>
@@ -11687,7 +11781,7 @@
         <v>insert into sysLocalizationText Values(2104,'2104','AlterPasswordStep1-Label','Clique no link abaixo para receber um email com o código de segurança para troca de senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>2105</v>
       </c>
@@ -11711,7 +11805,7 @@
         <v>insert into sysLocalizationText Values(2105,'2105','AlterPasswordStep2-Label','Após receber código, preencha as informações abaixo e clique em Altera Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>2106</v>
       </c>
@@ -11735,7 +11829,7 @@
         <v>insert into sysLocalizationText Values(2106,'2106','InputNewPassword-Label','Digite a nova senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>2107</v>
       </c>
@@ -11759,7 +11853,7 @@
         <v>insert into sysLocalizationText Values(2107,'2107','AlterPasswordButton-Label','Alterar a Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>2108</v>
       </c>
@@ -11783,7 +11877,7 @@
         <v>insert into sysLocalizationText Values(2108,'2108','AlterPasswordButton-Loading','Alterando a senha....',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>2109</v>
       </c>
@@ -11807,7 +11901,7 @@
         <v>insert into sysLocalizationText Values(2109,'2109','InvalidCredentials-Title','Credenciais Inválidas',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>2110</v>
       </c>
@@ -11831,7 +11925,7 @@
         <v>insert into sysLocalizationText Values(2110,'2110','InvalidCredentials-Message','E-mail ou senha inválidos!',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>2111</v>
       </c>
@@ -11855,7 +11949,7 @@
         <v>insert into sysLocalizationText Values(2111,'2111','TemporaryPassword-Title','Senha Enviada',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>2112</v>
       </c>
@@ -11879,7 +11973,7 @@
         <v>insert into sysLocalizationText Values(2112,'2112','TemporaryPassword-Message','Uma senha temporária foi enviada para o seu e-mail de cadastro. Ao logar, solicite a troca de senha.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>2113</v>
       </c>
@@ -11903,7 +11997,7 @@
         <v>insert into sysLocalizationText Values(2113,'2113','SuccessActivated-Title','Conta Ativada com Sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>2114</v>
       </c>
@@ -11927,7 +12021,7 @@
         <v>insert into sysLocalizationText Values(2114,'2114','SuccessActivated-Message','A conta foi ativada com sucesso. Você já pode efetuar login.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>2115</v>
       </c>
@@ -11951,7 +12045,7 @@
         <v>insert into sysLocalizationText Values(2115,'2115','ActivateCode-Title','Código Enviado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>2116</v>
       </c>
@@ -11975,7 +12069,7 @@
         <v>insert into sysLocalizationText Values(2116,'2116','ActivateCode-Message','O código de segurança foi enviado por e-mail.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>2117</v>
       </c>
@@ -11999,7 +12093,7 @@
         <v>insert into sysLocalizationText Values(2117,'2117','PasswordChanged-Title','Senha Alterada',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>2118</v>
       </c>
@@ -12023,7 +12117,7 @@
         <v>insert into sysLocalizationText Values(2118,'2118','PasswordChanged-Message','A senha foi alterada com sucesso. Efetue login novamente.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>2119</v>
       </c>
@@ -12047,7 +12141,7 @@
         <v>insert into sysLocalizationText Values(2119,'2119','ImageChanged-Title','Imagem Alterada',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>2120</v>
       </c>
@@ -12071,7 +12165,7 @@
         <v>insert into sysLocalizationText Values(2120,'2120','ImageChanged-Message','A imagem de perfil foi alterada. No próximo login a nova imagem será exibida.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>2121</v>
       </c>
@@ -12095,7 +12189,7 @@
         <v>insert into sysLocalizationText Values(2121,'2121','SearchByEmail-Label','Por E-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>2122</v>
       </c>
@@ -12119,7 +12213,7 @@
         <v>insert into sysLocalizationText Values(2122,'2122','SearchByUserName-Label','Por Nome de Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>2123</v>
       </c>
@@ -12143,7 +12237,7 @@
         <v>insert into sysLocalizationText Values(2123,'2123','SearchByEmail-Description','Pesquisar por E-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>2124</v>
       </c>
@@ -12167,7 +12261,7 @@
         <v>insert into sysLocalizationText Values(2124,'2124','SearchByUserName-Description','Pesquisar por Nome de Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>2125</v>
       </c>
@@ -12191,7 +12285,7 @@
         <v>insert into sysLocalizationText Values(2125,'2125','SearchByInstance-Label','Por Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>2126</v>
       </c>
@@ -12215,7 +12309,7 @@
         <v>insert into sysLocalizationText Values(2126,'2126','SearchByRole-Label','Por Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>2127</v>
       </c>
@@ -12239,7 +12333,7 @@
         <v>insert into sysLocalizationText Values(2127,'2127','NewUser-Label','Novo Usuáro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>2128</v>
       </c>
@@ -12263,7 +12357,7 @@
         <v>insert into sysLocalizationText Values(2128,'2128','NewUser-Description','Clique aqui para criar novo usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>2129</v>
       </c>
@@ -12287,7 +12381,7 @@
         <v>insert into sysLocalizationText Values(2129,'2129','Active-Label','Ativo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>2130</v>
       </c>
@@ -12311,7 +12405,7 @@
         <v>insert into sysLocalizationText Values(2130,'2130','Locked-Label','Bloqueado',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>2131</v>
       </c>
@@ -12335,7 +12429,7 @@
         <v>insert into sysLocalizationText Values(2131,'2131','MainData-Label','Dados Principais',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>2132</v>
       </c>
@@ -12359,7 +12453,7 @@
         <v>insert into sysLocalizationText Values(2132,'2132','User-SecondTabLabel','Instância e Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>2133</v>
       </c>
@@ -12383,7 +12477,7 @@
         <v>insert into sysLocalizationText Values(2133,'2133','CreateDate-Label','Data de Cadastro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>2134</v>
       </c>
@@ -12407,7 +12501,7 @@
         <v>insert into sysLocalizationText Values(2134,'2134','LastLoginDate-Label','Data do Último Acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>2135</v>
       </c>
@@ -12431,7 +12525,7 @@
         <v>insert into sysLocalizationText Values(2135,'2135','DefaultLanguage-Label','Idioma Padrão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>2136</v>
       </c>
@@ -12455,7 +12549,7 @@
         <v>insert into sysLocalizationText Values(2136,'2136','LastLoginIP-Label','IP do Último Acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>2137</v>
       </c>
@@ -12479,7 +12573,7 @@
         <v>insert into sysLocalizationText Values(2137,'2137','LoginCounter-Label','Total de Acessos',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>2138</v>
       </c>
@@ -12503,7 +12597,7 @@
         <v>insert into sysLocalizationText Values(2138,'2138','PasswordRecovery-Label','Código de Recuperação de Senha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>2139</v>
       </c>
@@ -12527,7 +12621,7 @@
         <v>insert into sysLocalizationText Values(2139,'2139','AlterInstance-Label','Alterar a Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>2140</v>
       </c>
@@ -12551,7 +12645,7 @@
         <v>insert into sysLocalizationText Values(2140,'2140','AlterInstance-Description','Selecione uma Instância para alterar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>2141</v>
       </c>
@@ -12575,7 +12669,7 @@
         <v>insert into sysLocalizationText Values(2141,'2141','Altering-Label','Alterando...',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>2142</v>
       </c>
@@ -12599,7 +12693,7 @@
         <v>insert into sysLocalizationText Values(2142,'2142','AlterRole-Label','Alterar Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>2143</v>
       </c>
@@ -12623,7 +12717,7 @@
         <v>insert into sysLocalizationText Values(2143,'2143','AlterRole-Description','Selecione um Perfil para alterar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>2144</v>
       </c>
@@ -12647,7 +12741,7 @@
         <v>insert into sysLocalizationText Values(2144,'2144','UserStatus-Label','Status do Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>2145</v>
       </c>
@@ -12671,7 +12765,7 @@
         <v>insert into sysLocalizationText Values(2145,'2145','ChangeUserState-Description','Clique aqui para alterar o status',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>2146</v>
       </c>
@@ -12695,7 +12789,7 @@
         <v>insert into sysLocalizationText Values(2146,'2146','ChangeUserState-Label','Atualizar Status',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>2147</v>
       </c>
@@ -12719,7 +12813,7 @@
         <v>insert into sysLocalizationText Values(2147,'2147','CreateUser-Label','Novo Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>2148</v>
       </c>
@@ -12743,7 +12837,7 @@
         <v>insert into sysLocalizationText Values(2148,'2148','CreateUser-Description','Clique aqui para cciar o novo usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>2149</v>
       </c>
@@ -12767,7 +12861,7 @@
         <v>insert into sysLocalizationText Values(2149,'2149','CreateUserButton-Label','Salvar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>2150</v>
       </c>
@@ -12791,7 +12885,7 @@
         <v>insert into sysLocalizationText Values(2150,'2150','AlterStatus-Error','Error ao alterar o status do usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>2151</v>
       </c>
@@ -12815,7 +12909,7 @@
         <v>insert into sysLocalizationText Values(2151,'2151','AlterStatus-Success','O status do usuário foi alterado com sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>2152</v>
       </c>
@@ -12839,7 +12933,7 @@
         <v>insert into sysLocalizationText Values(2152,'2152','AlterInstance-Error','Erro ao alterar instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>2153</v>
       </c>
@@ -12863,7 +12957,7 @@
         <v>insert into sysLocalizationText Values(2153,'2153','AlterInstance-Success','A instância foi alterada com sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>2154</v>
       </c>
@@ -12887,7 +12981,7 @@
         <v>insert into sysLocalizationText Values(2154,'2154','AlterRole-Error','Erro ao alterar o perfil.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>2155</v>
       </c>
@@ -12911,7 +13005,7 @@
         <v>insert into sysLocalizationText Values(2155,'2155','AlterRole-Success','O status foi alterado com sucesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>2156</v>
       </c>
@@ -12935,7 +13029,7 @@
         <v>insert into sysLocalizationText Values(2156,'2156','Instance-PageTitle','Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>2157</v>
       </c>
@@ -12959,7 +13053,7 @@
         <v>insert into sysLocalizationText Values(2157,'2157','SearchByInstanceName-Label','Por Nome da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>2158</v>
       </c>
@@ -12983,7 +13077,7 @@
         <v>insert into sysLocalizationText Values(2158,'2158','SearchByInstanceName-Description','Pesquisar por Nome da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>2159</v>
       </c>
@@ -13007,7 +13101,7 @@
         <v>insert into sysLocalizationText Values(2159,'2159','SearchByInstanceTypeName-Label','Por Tipo da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>2160</v>
       </c>
@@ -13031,7 +13125,7 @@
         <v>insert into sysLocalizationText Values(2160,'2160','SearchByInstanceTypeName-Description','Pesquisar por Tipo da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>2161</v>
       </c>
@@ -13055,7 +13149,7 @@
         <v>insert into sysLocalizationText Values(2161,'2161','NewInstance-Label','Nova Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>2162</v>
       </c>
@@ -13079,7 +13173,7 @@
         <v>insert into sysLocalizationText Values(2162,'2162','NewInstance-Description','Clique aqui para criar uma nova Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>2163</v>
       </c>
@@ -13103,7 +13197,7 @@
         <v>insert into sysLocalizationText Values(2163,'2163','InstanceTypeName-Label','Tipo de Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>2164</v>
       </c>
@@ -13127,7 +13221,7 @@
         <v>insert into sysLocalizationText Values(2164,'2164','InstanceName-Label','Nome da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>2165</v>
       </c>
@@ -13151,7 +13245,7 @@
         <v>insert into sysLocalizationText Values(2165,'2165','InstanceRecord-Label','Dados da Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>2166</v>
       </c>
@@ -13175,7 +13269,7 @@
         <v>insert into sysLocalizationText Values(2166,'2166','SaveInstanceButton-Label','Salvar Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>2167</v>
       </c>
@@ -13199,7 +13293,7 @@
         <v>insert into sysLocalizationText Values(2167,'2167','SaveInstanceButton-Description','Clque aqui para salvar a Instância',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>2168</v>
       </c>
@@ -13223,7 +13317,7 @@
         <v>insert into sysLocalizationText Values(2168,'2168','DataLog-PageTitle','Log de Dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>2169</v>
       </c>
@@ -13247,7 +13341,7 @@
         <v>insert into sysLocalizationText Values(2169,'2169','SearchByOperationType-Label','Por Tipo de Operação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>2170</v>
       </c>
@@ -13271,7 +13365,7 @@
         <v>insert into sysLocalizationText Values(2170,'2170','SearchByObject-Label','Por Objeto',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>2171</v>
       </c>
@@ -13295,7 +13389,7 @@
         <v>insert into sysLocalizationText Values(2171,'2171','SearchByIntervalDate-Label','Por Intervalo de Datas',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>2172</v>
       </c>
@@ -13319,7 +13413,7 @@
         <v>insert into sysLocalizationText Values(2172,'2172','SearchByInicialDate-Label','Data Inicial',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>2173</v>
       </c>
@@ -13343,7 +13437,7 @@
         <v>insert into sysLocalizationText Values(2173,'2173','SearchByFinalDate-Label','Data Final',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>2174</v>
       </c>
@@ -13367,7 +13461,7 @@
         <v>insert into sysLocalizationText Values(2174,'2174','SearchByRecordID-Label','Por ID do Registro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>2175</v>
       </c>
@@ -13391,7 +13485,7 @@
         <v>insert into sysLocalizationText Values(2175,'2175','TableName-Label','Tabela',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>2176</v>
       </c>
@@ -13415,7 +13509,7 @@
         <v>insert into sysLocalizationText Values(2176,'2176','OperationText-Label','Operação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>2177</v>
       </c>
@@ -13439,7 +13533,7 @@
         <v>insert into sysLocalizationText Values(2177,'2177','LogID-Label','Log ID',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>2178</v>
       </c>
@@ -13463,7 +13557,7 @@
         <v>insert into sysLocalizationText Values(2178,'2178','LogInformation-Label','Informação do Log',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>2179</v>
       </c>
@@ -13487,7 +13581,7 @@
         <v>insert into sysLocalizationText Values(2179,'2179','ShowTimeLine-Label','Exibir Linha do Tempo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>2180</v>
       </c>
@@ -13511,7 +13605,7 @@
         <v>insert into sysLocalizationText Values(2180,'2180','OldVersionData-Label','Versão Antiga',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>2181</v>
       </c>
@@ -13535,7 +13629,7 @@
         <v>insert into sysLocalizationText Values(2181,'2181','HasNoOldVersion-Label','Não existe versão antiga',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>2182</v>
       </c>
@@ -13559,7 +13653,7 @@
         <v>insert into sysLocalizationText Values(2182,'2182','CurrentVersionData-Label','Versão Atual',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>2183</v>
       </c>
@@ -13583,7 +13677,7 @@
         <v>insert into sysLocalizationText Values(2183,'2183','HasNoCurrentVersion-Label','Não existe versão atual',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>2184</v>
       </c>
@@ -13607,7 +13701,7 @@
         <v>insert into sysLocalizationText Values(2184,'2184','RecordTimeLine-Label','Linha do Tempo do Registro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>2185</v>
       </c>
@@ -13631,7 +13725,7 @@
         <v>insert into sysLocalizationText Values(2185,'2185','HasNoTimeLine-Label','Não existe dados da Linha do Tempo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>2186</v>
       </c>
@@ -13655,7 +13749,7 @@
         <v>insert into sysLocalizationText Values(2186,'2186','Localization-PageTitle','Textos de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>2187</v>
       </c>
@@ -13679,7 +13773,7 @@
         <v>insert into sysLocalizationText Values(2187,'2187','SearchByLanguage-Label','Por Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>2188</v>
       </c>
@@ -13703,7 +13797,7 @@
         <v>insert into sysLocalizationText Values(2188,'2188','SearchByLanguage-Description','Pesquisar por Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>2189</v>
       </c>
@@ -13727,7 +13821,7 @@
         <v>insert into sysLocalizationText Values(2189,'2189','SearchByLocalizationCode-Label','Por Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>2190</v>
       </c>
@@ -13751,7 +13845,7 @@
         <v>insert into sysLocalizationText Values(2190,'2190','SearchByLocalizationCode-Description','Pesquisar por Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>2191</v>
       </c>
@@ -13775,7 +13869,7 @@
         <v>insert into sysLocalizationText Values(2191,'2191','SearchByLocalizationName-Label','Por Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>2192</v>
       </c>
@@ -13799,7 +13893,7 @@
         <v>insert into sysLocalizationText Values(2192,'2192','SearchByLocalizationName-Description','Pesquisar por Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>2193</v>
       </c>
@@ -13823,7 +13917,7 @@
         <v>insert into sysLocalizationText Values(2193,'2193','SearchByLocalizationText-Label','Por Texto',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>2194</v>
       </c>
@@ -13847,7 +13941,7 @@
         <v>insert into sysLocalizationText Values(2194,'2194','SearchByLocalizationText-Description','Pesquisar por Texto',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>2195</v>
       </c>
@@ -13871,7 +13965,7 @@
         <v>insert into sysLocalizationText Values(2195,'2195','Language-Label','Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>2196</v>
       </c>
@@ -13895,7 +13989,7 @@
         <v>insert into sysLocalizationText Values(2196,'2196','LocalizationCode-Label','Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>2197</v>
       </c>
@@ -13919,7 +14013,7 @@
         <v>insert into sysLocalizationText Values(2197,'2197','LocalizationName-Label','Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>2198</v>
       </c>
@@ -13943,7 +14037,7 @@
         <v>insert into sysLocalizationText Values(2198,'2198','LocalizationRecord-Label','Dados do Texto de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>2199</v>
       </c>
@@ -13967,7 +14061,7 @@
         <v>insert into sysLocalizationText Values(2199,'2199','LocalizationText-Label','Texto ',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>2200</v>
       </c>
@@ -13991,7 +14085,7 @@
         <v>insert into sysLocalizationText Values(2200,'2200','SaveLocalizationButton-Label','Salvar Texto de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>2201</v>
       </c>
@@ -14015,7 +14109,7 @@
         <v>insert into sysLocalizationText Values(2201,'2201','SaveLocalizationButton-Description','Clique aqui para salvar os dados.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>2202</v>
       </c>
@@ -14039,7 +14133,7 @@
         <v>insert into sysLocalizationText Values(2202,'2202','NewLocalization-Label','Novo Texto de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>2203</v>
       </c>
@@ -14063,7 +14157,7 @@
         <v>insert into sysLocalizationText Values(2203,'2203','ObjectPermission-PageTitle','Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>2204</v>
       </c>
@@ -14087,7 +14181,7 @@
         <v>insert into sysLocalizationText Values(2204,'2204','SearchByObjectName-Label','Por Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>2205</v>
       </c>
@@ -14111,7 +14205,7 @@
         <v>insert into sysLocalizationText Values(2205,'2205','SearchByObjectName-Description','Pesquisar por Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>2206</v>
       </c>
@@ -14135,7 +14229,7 @@
         <v>insert into sysLocalizationText Values(2206,'2206','SearchByObjectCode-Label','Por Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>2207</v>
       </c>
@@ -14159,7 +14253,7 @@
         <v>insert into sysLocalizationText Values(2207,'2207','SearchByObjectCode-Description','Pesquisar por Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>2208</v>
       </c>
@@ -14183,7 +14277,7 @@
         <v>insert into sysLocalizationText Values(2208,'2208','NewObject-Label','Novo Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>2209</v>
       </c>
@@ -14207,7 +14301,7 @@
         <v>insert into sysLocalizationText Values(2209,'2209','ObjectName-Label','Nome',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>2210</v>
       </c>
@@ -14231,7 +14325,7 @@
         <v>insert into sysLocalizationText Values(2210,'2210','ObjectCode-Label','Código',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>2211</v>
       </c>
@@ -14255,7 +14349,7 @@
         <v>insert into sysLocalizationText Values(2211,'2211','ObjectPermissionRecord-Label','Dados do Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>2212</v>
       </c>
@@ -14279,7 +14373,7 @@
         <v>insert into sysLocalizationText Values(2212,'2212','SaveObjectPermissionButton-Label','Salvar Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>2213</v>
       </c>
@@ -14303,7 +14397,7 @@
         <v>insert into sysLocalizationText Values(2213,'2213','SaveObjectPermissionButton-Description','Clique aqui para salvar o Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>2214</v>
       </c>
@@ -14327,7 +14421,7 @@
         <v>insert into sysLocalizationText Values(2214,'2214','Permission-PageTitle','Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>2215</v>
       </c>
@@ -14351,7 +14445,7 @@
         <v>insert into sysLocalizationText Values(2215,'2215','SearchByObjectPermission-Label','Por Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>2216</v>
       </c>
@@ -14375,7 +14469,7 @@
         <v>insert into sysLocalizationText Values(2216,'2216','SearchByRole-Label','Por Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>2217</v>
       </c>
@@ -14399,7 +14493,7 @@
         <v>insert into sysLocalizationText Values(2217,'2217','SearchByUser-Label','Por Usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>2218</v>
       </c>
@@ -14423,7 +14517,7 @@
         <v>insert into sysLocalizationText Values(2218,'2218','NewPermission-Label','Nova Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>2219</v>
       </c>
@@ -14447,7 +14541,7 @@
         <v>insert into sysLocalizationText Values(2219,'2219','NewPermission-Description','Clique aqui para inserir uma nova Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>2220</v>
       </c>
@@ -14471,7 +14565,7 @@
         <v>insert into sysLocalizationText Values(2220,'2220','ObjectName-Label','Objeto de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>2221</v>
       </c>
@@ -14495,7 +14589,7 @@
         <v>insert into sysLocalizationText Values(2221,'2221','RoleName-Label','Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>2222</v>
       </c>
@@ -14519,7 +14613,7 @@
         <v>insert into sysLocalizationText Values(2222,'2222','PermissionRecord-Label','Dados da Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>2223</v>
       </c>
@@ -14543,7 +14637,7 @@
         <v>insert into sysLocalizationText Values(2223,'2223','PermissionType-Label','Tipo de Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>2224</v>
       </c>
@@ -14567,7 +14661,7 @@
         <v>insert into sysLocalizationText Values(2224,'2224','ReadStatus-Label','Status de Leitura',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>2225</v>
       </c>
@@ -14591,7 +14685,7 @@
         <v>insert into sysLocalizationText Values(2225,'2225','SaveStatus-Label','Status de Gravação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>2226</v>
       </c>
@@ -14615,7 +14709,7 @@
         <v>insert into sysLocalizationText Values(2226,'2226','DeleteStatus-Label','Status de Exclusão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>2227</v>
       </c>
@@ -14639,7 +14733,7 @@
         <v>insert into sysLocalizationText Values(2227,'2227','SavePermissionButton-Label','Salvar Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>2228</v>
       </c>
@@ -14663,7 +14757,7 @@
         <v>insert into sysLocalizationText Values(2228,'2228','SavePermissionButton-Description','Clique aqui para salvar a Permissão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>2229</v>
       </c>
@@ -14687,7 +14781,7 @@
         <v>insert into sysLocalizationText Values(2229,'2229','Role-PageTitle','Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>2230</v>
       </c>
@@ -14711,7 +14805,7 @@
         <v>insert into sysLocalizationText Values(2230,'2230','SearchByRoleName-Label','Por Nome do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>2231</v>
       </c>
@@ -14735,7 +14829,7 @@
         <v>insert into sysLocalizationText Values(2231,'2231','SearchByRoleName-Description','Pesquisar por Nome do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>2232</v>
       </c>
@@ -14759,7 +14853,7 @@
         <v>insert into sysLocalizationText Values(2232,'2232','NewRole-Label','Novo Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>2233</v>
       </c>
@@ -14783,7 +14877,7 @@
         <v>insert into sysLocalizationText Values(2233,'2233','NewRole-Description','Clique aqui para criar um novo Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>2234</v>
       </c>
@@ -14807,7 +14901,7 @@
         <v>insert into sysLocalizationText Values(2234,'2234','RoleName-Label','Nome do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>2235</v>
       </c>
@@ -14831,7 +14925,7 @@
         <v>insert into sysLocalizationText Values(2235,'2235','RoleRecord-Label','Dados do Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>2236</v>
       </c>
@@ -14855,7 +14949,7 @@
         <v>insert into sysLocalizationText Values(2236,'2236','SaveRoleButton-Label','Salvar Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>2237</v>
       </c>
@@ -14879,7 +14973,7 @@
         <v>insert into sysLocalizationText Values(2237,'2237','SaveRoleButton-Description','Clique aqui para salvar o Perfil',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>2238</v>
       </c>
@@ -14903,7 +14997,7 @@
         <v>insert into sysLocalizationText Values(2238,'2238','SessionLog-PageTitle','Dados de Sessão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>2239</v>
       </c>
@@ -14927,7 +15021,7 @@
         <v>insert into sysLocalizationText Values(2239,'2239','SearchByEmail-Description','Pesquisar por E-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>2240</v>
       </c>
@@ -14951,7 +15045,7 @@
         <v>insert into sysLocalizationText Values(2240,'2240','SearchByDateInterval-Label','Por Intervalo de Dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>2241</v>
       </c>
@@ -14975,7 +15069,7 @@
         <v>insert into sysLocalizationText Values(2241,'2241','SearchByInicialDate-Label','Data Inicial',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>2242</v>
       </c>
@@ -14999,7 +15093,7 @@
         <v>insert into sysLocalizationText Values(2242,'2242','SearchByFinalDate-Label','Data Final',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>2243</v>
       </c>
@@ -15023,7 +15117,7 @@
         <v>insert into sysLocalizationText Values(2243,'2243','AccessDate-Label','Data de Acesso',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>2244</v>
       </c>
@@ -15047,7 +15141,7 @@
         <v>insert into sysLocalizationText Values(2244,'2244','IP-Label','IP',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>2245</v>
       </c>
@@ -15071,7 +15165,7 @@
         <v>insert into sysLocalizationText Values(2245,'2245','SuperAdmin-MenuText','Super Admin',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>2246</v>
       </c>
@@ -15095,7 +15189,7 @@
         <v>insert into sysLocalizationText Values(2246,'2246','BasicsData-MenuText','Gerenciamento',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>2247</v>
       </c>
@@ -15119,7 +15213,7 @@
         <v>insert into sysLocalizationText Values(2247,'2247','Monitoring-MenuText','Monitoramento',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>2248</v>
       </c>
@@ -15143,7 +15237,7 @@
         <v>insert into sysLocalizationText Values(2248,'2248','Instance-MenuText','Instâncias',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>2249</v>
       </c>
@@ -15167,7 +15261,7 @@
         <v>insert into sysLocalizationText Values(2249,'2249','Role-MenuText','Perfils',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>2250</v>
       </c>
@@ -15191,7 +15285,7 @@
         <v>insert into sysLocalizationText Values(2250,'2250','Users-MenuText','Usuários',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>2251</v>
       </c>
@@ -15215,7 +15309,7 @@
         <v>insert into sysLocalizationText Values(2251,'2251','ObjectPermission-MenuText','Objetos de Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>2252</v>
       </c>
@@ -15239,7 +15333,7 @@
         <v>insert into sysLocalizationText Values(2252,'2252','Permissions-MenuText','Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>2253</v>
       </c>
@@ -15263,7 +15357,7 @@
         <v>insert into sysLocalizationText Values(2253,'2253','Localization-MenuText','Textos de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>2256</v>
       </c>
@@ -15287,7 +15381,7 @@
         <v>insert into sysLocalizationText Values(2256,'2256','DataLog-MenuText','Log de Dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>2257</v>
       </c>
@@ -15311,7 +15405,7 @@
         <v>insert into sysLocalizationText Values(2257,'2257','SessionLog-MenuText','Log de Sessão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>2258</v>
       </c>
@@ -15335,7 +15429,7 @@
         <v>insert into sysLocalizationText Values(2258,'2258','SearchByGroupParameterName-Label','Nome do Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>2259</v>
       </c>
@@ -15359,7 +15453,7 @@
         <v>insert into sysLocalizationText Values(2259,'2259','SearchByGroupParameterName-Description','Pesquisar por Nome de Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>2260</v>
       </c>
@@ -15383,7 +15477,7 @@
         <v>insert into sysLocalizationText Values(2260,'2260','NewGroupParameter-Label','Novo Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>2261</v>
       </c>
@@ -15407,7 +15501,7 @@
         <v>insert into sysLocalizationText Values(2261,'2261','NewGroupParameter-Description','Clique aqui para criar um novo Grupo de Parâmetro ',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>2262</v>
       </c>
@@ -15431,7 +15525,7 @@
         <v>insert into sysLocalizationText Values(2262,'2262','GroupParameterRecord-Label','Dados do Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>2263</v>
       </c>
@@ -15455,7 +15549,7 @@
         <v>insert into sysLocalizationText Values(2263,'2263','GroupParameterName-Label','Nome do Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>2264</v>
       </c>
@@ -15479,7 +15573,7 @@
         <v>insert into sysLocalizationText Values(2264,'2264','SaveGroupParameterButton-Label','Save Group Parameter',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>2265</v>
       </c>
@@ -15503,7 +15597,7 @@
         <v>insert into sysLocalizationText Values(2265,'2265','SaveGroupParameterButton-Description','Clique aqui para salvar o Grupo de Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>2266</v>
       </c>
@@ -15527,7 +15621,7 @@
         <v>insert into sysLocalizationText Values(2266,'2266','GroupParameter-PageTitle','Grupo de Parâmetros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>2267</v>
       </c>
@@ -15551,7 +15645,7 @@
         <v>insert into sysLocalizationText Values(2267,'2267','SearchByParameterName-Label','Nome do Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>2268</v>
       </c>
@@ -15575,7 +15669,7 @@
         <v>insert into sysLocalizationText Values(2268,'2268','SearchByParameterName-Description','Pesquisar por Nome do Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>2269</v>
       </c>
@@ -15599,7 +15693,7 @@
         <v>insert into sysLocalizationText Values(2269,'2269','NewParameter-Label','Novo Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>2270</v>
       </c>
@@ -15623,7 +15717,7 @@
         <v>insert into sysLocalizationText Values(2270,'2270','NewParameter-Description','Clique aqui par acriar um novo Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>2271</v>
       </c>
@@ -15647,7 +15741,7 @@
         <v>insert into sysLocalizationText Values(2271,'2271','ParameterRecord-Label','Dados do Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>2272</v>
       </c>
@@ -15671,7 +15765,7 @@
         <v>insert into sysLocalizationText Values(2272,'2272','ParameterName-Label','Nome do Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>2273</v>
       </c>
@@ -15695,7 +15789,7 @@
         <v>insert into sysLocalizationText Values(2273,'2273','SaveParameterButton-Label','Salvar Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>2274</v>
       </c>
@@ -15719,7 +15813,7 @@
         <v>insert into sysLocalizationText Values(2274,'2274','SaveParameterButton-Description','Clique aqui para salvar o Parâmetro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>2275</v>
       </c>
@@ -15743,7 +15837,7 @@
         <v>insert into sysLocalizationText Values(2275,'2275','Parameter-PageTitle','Parâmetros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>2276</v>
       </c>
@@ -15765,7 +15859,7 @@
         <v>insert into sysLocalizationText Values(2276,'2276','ChangeUserLanguage-Title','Alterar linguagem do usuário',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>2277</v>
       </c>
@@ -15787,7 +15881,7 @@
         <v>insert into sysLocalizationText Values(2277,'2277','ChangeUserLanguage-Message','A linguagem do usuário foi alterada com sucesso. Faça login novamente.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>2278</v>
       </c>
@@ -15811,7 +15905,7 @@
         <v>insert into sysLocalizationText Values(2278,'2278','ExceptionLog-PageTitle','Log de Exceções',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>2279</v>
       </c>
@@ -15835,7 +15929,7 @@
         <v>insert into sysLocalizationText Values(2279,'2279','SearchByOrgin-Label','Pesquisar por Origem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>2280</v>
       </c>
@@ -15859,7 +15953,7 @@
         <v>insert into sysLocalizationText Values(2280,'2280','Origin-Label','Origem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>2281</v>
       </c>
@@ -15883,7 +15977,7 @@
         <v>insert into sysLocalizationText Values(2281,'2281','TargetSite-Label','Local Alvo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>2282</v>
       </c>
@@ -15907,7 +16001,7 @@
         <v>insert into sysLocalizationText Values(2282,'2282','ErrMessage-Label','Messagem de Erro',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>2283</v>
       </c>
@@ -15931,7 +16025,7 @@
         <v>insert into sysLocalizationText Values(2283,'2283','StackTrace-Label','Rastreamento da Pilha',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>2284</v>
       </c>
@@ -15955,7 +16049,7 @@
         <v>insert into sysLocalizationText Values(2284,'2284','ClientIP-Label','IP do Cliente',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>2285</v>
       </c>
@@ -15979,7 +16073,7 @@
         <v>insert into sysLocalizationText Values(2285,'2285','SearchByConfigName-Label','Por Nome Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>2286</v>
       </c>
@@ -16003,7 +16097,7 @@
         <v>insert into sysLocalizationText Values(2286,'2286','SearchByConfigName-Description','Pesquisar por Nome Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>2287</v>
       </c>
@@ -16027,7 +16121,7 @@
         <v>insert into sysLocalizationText Values(2287,'2287','NewConfig-Label','Nova Configguração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>2288</v>
       </c>
@@ -16051,7 +16145,7 @@
         <v>insert into sysLocalizationText Values(2288,'2288','NewConfig-Description','Clique aqui para criar uma nova Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>2289</v>
       </c>
@@ -16075,7 +16169,7 @@
         <v>insert into sysLocalizationText Values(2289,'2289','ConfigName','Nome Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>2290</v>
       </c>
@@ -16099,7 +16193,7 @@
         <v>insert into sysLocalizationText Values(2290,'2290','ConfigRecord-Label','Configurações',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>2291</v>
       </c>
@@ -16123,7 +16217,7 @@
         <v>insert into sysLocalizationText Values(2291,'2291','ConfigName-Label','Nome da Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>2292</v>
       </c>
@@ -16147,7 +16241,7 @@
         <v>insert into sysLocalizationText Values(2292,'2292','ConfigValue-Label','Valor da Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>2293</v>
       </c>
@@ -16171,7 +16265,7 @@
         <v>insert into sysLocalizationText Values(2293,'2293','ConfigValue','Valor da Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>2294</v>
       </c>
@@ -16195,7 +16289,7 @@
         <v>insert into sysLocalizationText Values(2294,'2294','SaveConfigButton-Label','Salvar Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>2295</v>
       </c>
@@ -16219,7 +16313,7 @@
         <v>insert into sysLocalizationText Values(2295,'2295','SaveConfigButton-Description','Clique aqui para salvar a Configuração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>2296</v>
       </c>
@@ -16243,7 +16337,7 @@
         <v>insert into sysLocalizationText Values(2296,'2296','Configs-PageTitle','Configurações',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>2297</v>
       </c>
@@ -16267,7 +16361,7 @@
         <v>insert into sysLocalizationText Values(2297,'2297','Logout-Label','Sair',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>2298</v>
       </c>
@@ -16291,7 +16385,7 @@
         <v>insert into sysLocalizationText Values(2298,'2298','AlterProfileImage-Description','Arraste aqui o arquivo que deseja, ou clique no botão acima para navegar.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>2299</v>
       </c>
@@ -16315,7 +16409,7 @@
         <v>insert into sysLocalizationText Values(2299,'2299','Menu-Superadmin','Super Admin',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>2300</v>
       </c>
@@ -16339,7 +16433,7 @@
         <v>insert into sysLocalizationText Values(2300,'2300','Menu-Configs','Configs de Negócio',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>2301</v>
       </c>
@@ -16363,7 +16457,7 @@
         <v>insert into sysLocalizationText Values(2301,'2301','Menu-Instance','Instâncias',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>2302</v>
       </c>
@@ -16387,7 +16481,7 @@
         <v>insert into sysLocalizationText Values(2302,'2302','Menu-Roles','Roles',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>2303</v>
       </c>
@@ -16411,7 +16505,7 @@
         <v>insert into sysLocalizationText Values(2303,'2303','Menu-ObjectPermissions','Objetos de Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>2304</v>
       </c>
@@ -16435,7 +16529,7 @@
         <v>insert into sysLocalizationText Values(2304,'2304','Menu-Permissions','Permissões',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>2305</v>
       </c>
@@ -16459,7 +16553,7 @@
         <v>insert into sysLocalizationText Values(2305,'2305','Menu-Users','Usuários',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>2306</v>
       </c>
@@ -16483,7 +16577,7 @@
         <v>insert into sysLocalizationText Values(2306,'2306','Menu-LocalizationTexts','Textos de Localização',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>2307</v>
       </c>
@@ -16507,7 +16601,7 @@
         <v>insert into sysLocalizationText Values(2307,'2307','Menu-GroupParameters','Grupo de Parâmetros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>2308</v>
       </c>
@@ -16531,7 +16625,7 @@
         <v>insert into sysLocalizationText Values(2308,'2308','Menu-Parameters','Parâmetros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>2309</v>
       </c>
@@ -16555,7 +16649,7 @@
         <v>insert into sysLocalizationText Values(2309,'2309','Menu-Monitoring','Monitoramento',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>2310</v>
       </c>
@@ -16579,7 +16673,7 @@
         <v>insert into sysLocalizationText Values(2310,'2310','Menu-SessionLog','Logs de Acessos',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>2311</v>
       </c>
@@ -16603,7 +16697,7 @@
         <v>insert into sysLocalizationText Values(2311,'2311','Menu-DataLog','Logs de Dados',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>2312</v>
       </c>
@@ -16627,7 +16721,7 @@
         <v>insert into sysLocalizationText Values(2312,'2312','Menu-ExceptionLog','Logs de Erros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>2313</v>
       </c>
@@ -16651,7 +16745,7 @@
         <v>insert into sysLocalizationText Values(2313,'2313','Editing-Label','Editando',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>2314</v>
       </c>
@@ -16675,7 +16769,7 @@
         <v>insert into sysLocalizationText Values(2314,'2314','Inserting-Label','Inserindo',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>2315</v>
       </c>
@@ -16699,7 +16793,7 @@
         <v>insert into sysLocalizationText Values(2315,'2315','RemoveConfirmation-Label','Deseja realmente remover este registro?',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>2316</v>
       </c>
@@ -16723,7 +16817,7 @@
         <v>insert into sysLocalizationText Values(2316,'2316','RemoveConfirmation-Message','O registro foi removido com sucesso.',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>2317</v>
       </c>
@@ -16747,7 +16841,7 @@
         <v>insert into sysLocalizationText Values(2317,'2317','AllowRead-Label','Ler',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>2318</v>
       </c>
@@ -16771,7 +16865,7 @@
         <v>insert into sysLocalizationText Values(2318,'2318','AllowSave-Label','Salvar',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>2319</v>
       </c>
@@ -16795,7 +16889,7 @@
         <v>insert into sysLocalizationText Values(2319,'2319','AllowDelete-Label','Remover',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>2320</v>
       </c>
@@ -16819,7 +16913,7 @@
         <v>insert into sysLocalizationText Values(2320,'2320','InsertOperation-Text','Inserção',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>2321</v>
       </c>
@@ -16843,7 +16937,7 @@
         <v>insert into sysLocalizationText Values(2321,'2321','UpdateOperation-Text','Edição',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>2322</v>
       </c>
@@ -16867,7 +16961,7 @@
         <v>insert into sysLocalizationText Values(2322,'2322','DeleteOperation-Text','Exclusão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>2323</v>
       </c>
@@ -16891,7 +16985,7 @@
         <v>insert into sysLocalizationText Values(2323,'2323','NewLanguage-Label','Nova Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>2324</v>
       </c>
@@ -16915,7 +17009,7 @@
         <v>insert into sysLocalizationText Values(2324,'2324','SaveLanguageButton-Label','Salvar Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>2325</v>
       </c>
@@ -16939,7 +17033,7 @@
         <v>insert into sysLocalizationText Values(2325,'2325','SearchByLanguageName-Label','Por Nome da Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>2326</v>
       </c>
@@ -16963,7 +17057,7 @@
         <v>insert into sysLocalizationText Values(2326,'2326','LanguageName-Label','Nome da Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>2327</v>
       </c>
@@ -16987,7 +17081,7 @@
         <v>insert into sysLocalizationText Values(2327,'2327','Description-Label','Descrição',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>2328</v>
       </c>
@@ -17011,7 +17105,7 @@
         <v>insert into sysLocalizationText Values(2328,'2328','Language-PageTitle','Linguagem',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>2329</v>
       </c>
@@ -17035,7 +17129,7 @@
         <v>insert into sysLocalizationText Values(2329,'2329','Menu-Language','Linguagens',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>2330</v>
       </c>
@@ -17059,7 +17153,7 @@
         <v>insert into sysLocalizationText Values(2330,'2330','Person-PageTitle','Pessoa',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>2331</v>
       </c>
@@ -17083,7 +17177,7 @@
         <v>insert into sysLocalizationText Values(2331,'2331','Menu-Admin','Administração',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>2332</v>
       </c>
@@ -17107,7 +17201,7 @@
         <v>insert into sysLocalizationText Values(2332,'2332','Menu-Person','Pessoa',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>2333</v>
       </c>
@@ -17131,7 +17225,7 @@
         <v>insert into sysLocalizationText Values(2333,'2333','NewPerson-Label','Nova Pessoa',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>2334</v>
       </c>
@@ -17155,7 +17249,7 @@
         <v>insert into sysLocalizationText Values(2334,'2334','SavePersonButton-Label','Salvar Pessoa',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>2335</v>
       </c>
@@ -17179,7 +17273,7 @@
         <v>insert into sysLocalizationText Values(2335,'2335','SearchByPersonName-Label','Por Nome Pessoa',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>2336</v>
       </c>
@@ -17203,7 +17297,7 @@
         <v>insert into sysLocalizationText Values(2336,'2336','PersonName-Label','Nome Pessoa',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>2337</v>
       </c>
@@ -17227,7 +17321,7 @@
         <v>insert into sysLocalizationText Values(2337,'2337','PersonEmail-Label','E-mail',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>2338</v>
       </c>
@@ -17251,7 +17345,7 @@
         <v>insert into sysLocalizationText Values(2338,'2338','PhoneNumber-Label','Telefone/Celular',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6">
       <c r="A337">
         <v>2339</v>
       </c>
@@ -17275,7 +17369,7 @@
         <v>insert into sysLocalizationText Values(2339,'2339','SearchByPersonEmail-Label','Por E-mail Pessoa',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6">
       <c r="A338">
         <v>2340</v>
       </c>
@@ -17299,7 +17393,7 @@
         <v>insert into sysLocalizationText Values(2340,'2340','Contacts-Title','Contatos',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6">
       <c r="A339">
         <v>2341</v>
       </c>
@@ -17323,7 +17417,7 @@
         <v>insert into sysLocalizationText Values(2341,'2341','ContactEditing-Label','Editando Contato',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6">
       <c r="A340">
         <v>2342</v>
       </c>
@@ -17347,7 +17441,7 @@
         <v>insert into sysLocalizationText Values(2342,'2342','ContactInserting-Label','Inserindo Contato',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6">
       <c r="A341">
         <v>2343</v>
       </c>
@@ -17371,7 +17465,7 @@
         <v>insert into sysLocalizationText Values(2343,'2343','ContactName-Label','Nome do Contato',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6">
       <c r="A342">
         <v>2344</v>
       </c>
@@ -17395,7 +17489,7 @@
         <v>insert into sysLocalizationText Values(2344,'2344','ContactEmail-Label','E-mail do Contato',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6">
       <c r="A343">
         <v>2345</v>
       </c>
@@ -17419,7 +17513,7 @@
         <v>insert into sysLocalizationText Values(2345,'2345','ContactCellPhoneNumber-Label','Celular Contato',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6">
       <c r="A344">
         <v>2346</v>
       </c>
@@ -17443,7 +17537,7 @@
         <v>insert into sysLocalizationText Values(2346,'2346','SavePersonContactButton-Label','Salvar Contato',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6">
       <c r="A345">
         <v>2347</v>
       </c>
@@ -17467,7 +17561,7 @@
         <v>insert into sysLocalizationText Values(2347,'2347','Keepconnection-Label','Manter conexão',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6">
       <c r="A346">
         <v>2348</v>
       </c>
@@ -17491,7 +17585,7 @@
         <v>insert into sysLocalizationText Values(2348,'2348','Records-Label','Registros',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6">
       <c r="A347">
         <v>2349</v>
       </c>
@@ -17515,7 +17609,7 @@
         <v>insert into sysLocalizationText Values(2349,'2349','Page-Label','Página',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6">
       <c r="A348">
         <v>2350</v>
       </c>
@@ -17539,7 +17633,7 @@
         <v>insert into sysLocalizationText Values(2350,'2350','PaginationConfigs-Title','Configurações da Paginação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6">
       <c r="A349">
         <v>2351</v>
       </c>
@@ -17563,7 +17657,7 @@
         <v>insert into sysLocalizationText Values(2351,'2351','SelectRecordsPerPage-Title','Registros por página',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6">
       <c r="A350">
         <v>2352</v>
       </c>
@@ -17587,7 +17681,7 @@
         <v>insert into sysLocalizationText Values(2352,'2352','SelectPage-Title','Seleciona a página',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6">
       <c r="A351">
         <v>2353</v>
       </c>
@@ -17611,7 +17705,7 @@
         <v>insert into sysLocalizationText Values(2353,'2353','Messagebox-Confirmation-Title','Confirmação',getdate(),getdate(),2)</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6">
       <c r="A352">
         <v>2354</v>
       </c>
@@ -17623,19 +17717,19 @@
         <v>'2354'</v>
       </c>
       <c r="D352" t="str">
-        <f t="shared" ref="D351:E355" si="23">$N$1 &amp; "" &amp; $N$1</f>
-        <v>''</v>
+        <f>$N$1 &amp; "Directory-Label" &amp; $N$1</f>
+        <v>'Directory-Label'</v>
       </c>
       <c r="E352" t="str">
-        <f t="shared" si="23"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Diretório" &amp; $N$1</f>
+        <v>'Diretório'</v>
       </c>
       <c r="F352" t="str">
         <f t="shared" si="22"/>
-        <v>insert into sysLocalizationText Values(2354,'2354','','',getdate(),getdate(),2)</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+        <v>insert into sysLocalizationText Values(2354,'2354','Directory-Label','Diretório',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353">
         <v>2355</v>
       </c>
@@ -17647,19 +17741,19 @@
         <v>'2355'</v>
       </c>
       <c r="D353" t="str">
-        <f t="shared" si="23"/>
-        <v>''</v>
+        <f>$N$1 &amp; "FileName-Label" &amp; $N$1</f>
+        <v>'FileName-Label'</v>
       </c>
       <c r="E353" t="str">
-        <f t="shared" si="23"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Nome do Arquivo" &amp; $N$1</f>
+        <v>'Nome do Arquivo'</v>
       </c>
       <c r="F353" t="str">
         <f t="shared" si="22"/>
-        <v>insert into sysLocalizationText Values(2355,'2355','','',getdate(),getdate(),2)</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+        <v>insert into sysLocalizationText Values(2355,'2355','FileName-Label','Nome do Arquivo',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354">
         <v>2356</v>
       </c>
@@ -17671,19 +17765,19 @@
         <v>'2356'</v>
       </c>
       <c r="D354" t="str">
-        <f t="shared" si="23"/>
-        <v>''</v>
+        <f>$N$1 &amp; "DownloadFile-Label" &amp; $N$1</f>
+        <v>'DownloadFile-Label'</v>
       </c>
       <c r="E354" t="str">
-        <f t="shared" si="23"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Baixar Arquivo" &amp; $N$1</f>
+        <v>'Baixar Arquivo'</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" si="22"/>
-        <v>insert into sysLocalizationText Values(2356,'2356','','',getdate(),getdate(),2)</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+        <v>insert into sysLocalizationText Values(2356,'2356','DownloadFile-Label','Baixar Arquivo',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355">
         <v>2357</v>
       </c>
@@ -17695,16 +17789,40 @@
         <v>'2357'</v>
       </c>
       <c r="D355" t="str">
-        <f t="shared" si="23"/>
-        <v>''</v>
+        <f>$N$1 &amp; "FileServer-PageTitle" &amp; $N$1</f>
+        <v>'FileServer-PageTitle'</v>
       </c>
       <c r="E355" t="str">
-        <f t="shared" si="23"/>
-        <v>''</v>
+        <f>$N$1 &amp; "Gerenciador de Arquivos " &amp; $N$1</f>
+        <v>'Gerenciador de Arquivos '</v>
       </c>
       <c r="F355" t="str">
         <f t="shared" si="22"/>
-        <v>insert into sysLocalizationText Values(2357,'2357','','',getdate(),getdate(),2)</v>
+        <v>insert into sysLocalizationText Values(2357,'2357','FileServer-PageTitle','Gerenciador de Arquivos ',getdate(),getdate(),2)</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356">
+        <v>2358</v>
+      </c>
+      <c r="B356" s="2">
+        <v>2</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" ref="C356" si="23">"'" &amp; A356 &amp; "'"</f>
+        <v>'2358'</v>
+      </c>
+      <c r="D356" t="str">
+        <f>$N$1 &amp; "Menu-FileServerManager" &amp; $N$1</f>
+        <v>'Menu-FileServerManager'</v>
+      </c>
+      <c r="E356" t="str">
+        <f>$N$1 &amp; "Gerenciador de Arquivos " &amp; $N$1</f>
+        <v>'Gerenciador de Arquivos '</v>
+      </c>
+      <c r="F356" t="str">
+        <f t="shared" ref="F356" si="24">"insert into sysLocalizationText Values(" &amp;A356 &amp; "," &amp;C356 &amp; "," &amp; D356 &amp; "," &amp; E356 &amp; ",getdate(),getdate()," &amp; B356 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(2358,'2358','Menu-FileServerManager','Gerenciador de Arquivos ',getdate(),getdate(),2)</v>
       </c>
     </row>
   </sheetData>
@@ -17713,19 +17831,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>2001</v>
       </c>
@@ -17734,7 +17852,7 @@
         <v>'2001'</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -17743,7 +17861,7 @@
         <v>'2002'</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -17752,7 +17870,7 @@
         <v>'2003'</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -17761,7 +17879,7 @@
         <v>'2004'</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -17770,7 +17888,7 @@
         <v>'2005'</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -17779,7 +17897,7 @@
         <v>'2006'</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -17788,7 +17906,7 @@
         <v>'2007'</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -17797,7 +17915,7 @@
         <v>'2008'</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -17806,7 +17924,7 @@
         <v>'2009'</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -17815,7 +17933,7 @@
         <v>'2010'</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -17824,7 +17942,7 @@
         <v>'2011'</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -17833,7 +17951,7 @@
         <v>'2012'</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -17842,7 +17960,7 @@
         <v>'2013'</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -17851,7 +17969,7 @@
         <v>'2014'</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -17860,7 +17978,7 @@
         <v>'2015'</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -17869,7 +17987,7 @@
         <v>'2016'</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -17878,7 +17996,7 @@
         <v>'2017'</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -17887,7 +18005,7 @@
         <v>'2018'</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -17896,7 +18014,7 @@
         <v>'2019'</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -17905,7 +18023,7 @@
         <v>'2020'</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -17914,7 +18032,7 @@
         <v>'2021'</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -17923,7 +18041,7 @@
         <v>'2022'</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2023</v>
       </c>
@@ -17932,7 +18050,7 @@
         <v>'2023'</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>2024</v>
       </c>
@@ -17941,7 +18059,7 @@
         <v>'2024'</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>2025</v>
       </c>
@@ -17950,7 +18068,7 @@
         <v>'2025'</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>2026</v>
       </c>
@@ -17959,7 +18077,7 @@
         <v>'2026'</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>2027</v>
       </c>
@@ -17968,7 +18086,7 @@
         <v>'2027'</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -17977,7 +18095,7 @@
         <v>'2028'</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>2029</v>
       </c>
@@ -17986,7 +18104,7 @@
         <v>'2029'</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>2030</v>
       </c>
@@ -17995,7 +18113,7 @@
         <v>'2030'</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>2031</v>
       </c>
@@ -18004,7 +18122,7 @@
         <v>'2031'</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>2032</v>
       </c>
@@ -18013,7 +18131,7 @@
         <v>'2032'</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>2033</v>
       </c>
@@ -18022,7 +18140,7 @@
         <v>'2033'</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>2034</v>
       </c>
@@ -18031,7 +18149,7 @@
         <v>'2034'</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>2035</v>
       </c>
@@ -18040,7 +18158,7 @@
         <v>'2035'</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>2036</v>
       </c>
@@ -18049,7 +18167,7 @@
         <v>'2036'</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>2037</v>
       </c>
@@ -18058,7 +18176,7 @@
         <v>'2037'</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>2038</v>
       </c>
@@ -18067,7 +18185,7 @@
         <v>'2038'</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>2039</v>
       </c>
@@ -18076,7 +18194,7 @@
         <v>'2039'</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>2040</v>
       </c>
@@ -18085,7 +18203,7 @@
         <v>'2040'</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>2041</v>
       </c>
@@ -18094,7 +18212,7 @@
         <v>'2041'</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>2042</v>
       </c>
@@ -18103,7 +18221,7 @@
         <v>'2042'</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>2043</v>
       </c>
@@ -18112,7 +18230,7 @@
         <v>'2043'</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>2044</v>
       </c>
@@ -18121,7 +18239,7 @@
         <v>'2044'</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>2045</v>
       </c>
@@ -18130,7 +18248,7 @@
         <v>'2045'</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>2046</v>
       </c>
@@ -18139,7 +18257,7 @@
         <v>'2046'</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>2047</v>
       </c>
@@ -18148,7 +18266,7 @@
         <v>'2047'</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>2048</v>
       </c>
@@ -18157,7 +18275,7 @@
         <v>'2048'</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>2049</v>
       </c>
@@ -18166,7 +18284,7 @@
         <v>'2049'</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>2050</v>
       </c>
@@ -18182,20 +18300,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1001</v>
       </c>
@@ -18204,7 +18322,7 @@
         <v>'1001'</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -18213,7 +18331,7 @@
         <v>'1002'</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -18222,7 +18340,7 @@
         <v>'1003'</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1004</v>
       </c>
@@ -18231,7 +18349,7 @@
         <v>'1004'</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1005</v>
       </c>
@@ -18240,7 +18358,7 @@
         <v>'1005'</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1006</v>
       </c>
@@ -18249,7 +18367,7 @@
         <v>'1006'</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>1007</v>
       </c>
@@ -18258,7 +18376,7 @@
         <v>'1007'</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1008</v>
       </c>
@@ -18267,7 +18385,7 @@
         <v>'1008'</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>1009</v>
       </c>
@@ -18276,7 +18394,7 @@
         <v>'1009'</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1010</v>
       </c>
@@ -18285,7 +18403,7 @@
         <v>'1010'</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>1011</v>
       </c>
@@ -18294,7 +18412,7 @@
         <v>'1011'</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>1012</v>
       </c>
@@ -18303,7 +18421,7 @@
         <v>'1012'</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1013</v>
       </c>
@@ -18312,7 +18430,7 @@
         <v>'1013'</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>1014</v>
       </c>
@@ -18321,7 +18439,7 @@
         <v>'1014'</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>1015</v>
       </c>
@@ -18330,7 +18448,7 @@
         <v>'1015'</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>1016</v>
       </c>
@@ -18339,7 +18457,7 @@
         <v>'1016'</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1017</v>
       </c>
@@ -18348,7 +18466,7 @@
         <v>'1017'</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1018</v>
       </c>
@@ -18357,7 +18475,7 @@
         <v>'1018'</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1019</v>
       </c>
@@ -18366,7 +18484,7 @@
         <v>'1019'</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>1020</v>
       </c>
@@ -18375,7 +18493,7 @@
         <v>'1020'</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>1021</v>
       </c>
@@ -18384,7 +18502,7 @@
         <v>'1021'</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>1022</v>
       </c>
@@ -18393,7 +18511,7 @@
         <v>'1022'</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>1023</v>
       </c>
@@ -18402,7 +18520,7 @@
         <v>'1023'</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>1024</v>
       </c>
@@ -18411,7 +18529,7 @@
         <v>'1024'</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>1025</v>
       </c>
@@ -18420,7 +18538,7 @@
         <v>'1025'</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>1026</v>
       </c>
@@ -18429,7 +18547,7 @@
         <v>'1026'</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>1027</v>
       </c>
@@ -18438,7 +18556,7 @@
         <v>'1027'</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>1028</v>
       </c>
@@ -18447,7 +18565,7 @@
         <v>'1028'</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>1029</v>
       </c>
@@ -18456,7 +18574,7 @@
         <v>'1029'</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>1030</v>
       </c>
@@ -18465,7 +18583,7 @@
         <v>'1030'</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>1031</v>
       </c>
@@ -18474,7 +18592,7 @@
         <v>'1031'</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>1032</v>
       </c>
@@ -18483,7 +18601,7 @@
         <v>'1032'</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>1033</v>
       </c>
@@ -18492,7 +18610,7 @@
         <v>'1033'</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>1034</v>
       </c>
@@ -18501,7 +18619,7 @@
         <v>'1034'</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>1035</v>
       </c>
@@ -18510,7 +18628,7 @@
         <v>'1035'</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>1036</v>
       </c>
@@ -18519,7 +18637,7 @@
         <v>'1036'</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>1037</v>
       </c>
@@ -18528,7 +18646,7 @@
         <v>'1037'</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>1038</v>
       </c>
@@ -18537,7 +18655,7 @@
         <v>'1038'</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>1039</v>
       </c>
@@ -18546,7 +18664,7 @@
         <v>'1039'</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>1040</v>
       </c>
@@ -18555,7 +18673,7 @@
         <v>'1040'</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>1041</v>
       </c>
@@ -18564,7 +18682,7 @@
         <v>'1041'</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>1042</v>
       </c>
@@ -18573,7 +18691,7 @@
         <v>'1042'</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>1043</v>
       </c>
@@ -18582,7 +18700,7 @@
         <v>'1043'</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>1044</v>
       </c>
@@ -18591,7 +18709,7 @@
         <v>'1044'</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>1045</v>
       </c>
@@ -18600,7 +18718,7 @@
         <v>'1045'</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>1046</v>
       </c>
@@ -18609,7 +18727,7 @@
         <v>'1046'</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>1047</v>
       </c>
@@ -18618,7 +18736,7 @@
         <v>'1047'</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>1048</v>
       </c>
@@ -18627,7 +18745,7 @@
         <v>'1048'</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>1049</v>
       </c>
@@ -18636,7 +18754,7 @@
         <v>'1049'</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>1050</v>
       </c>
@@ -18645,7 +18763,7 @@
         <v>'1050'</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>1051</v>
       </c>
@@ -18654,7 +18772,7 @@
         <v>'1051'</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>1052</v>
       </c>
@@ -18663,7 +18781,7 @@
         <v>'1052'</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>1053</v>
       </c>
@@ -18672,7 +18790,7 @@
         <v>'1053'</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>1054</v>
       </c>
@@ -18681,7 +18799,7 @@
         <v>'1054'</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>1055</v>
       </c>
@@ -18690,7 +18808,7 @@
         <v>'1055'</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>1056</v>
       </c>
@@ -18699,7 +18817,7 @@
         <v>'1056'</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>1057</v>
       </c>
@@ -18708,7 +18826,7 @@
         <v>'1057'</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>1058</v>
       </c>
@@ -18717,7 +18835,7 @@
         <v>'1058'</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>1059</v>
       </c>
@@ -18726,7 +18844,7 @@
         <v>'1059'</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>1060</v>
       </c>
@@ -18735,7 +18853,7 @@
         <v>'1060'</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>1061</v>
       </c>
@@ -18744,7 +18862,7 @@
         <v>'1061'</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>1062</v>
       </c>
@@ -18753,7 +18871,7 @@
         <v>'1062'</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>1063</v>
       </c>
@@ -18762,7 +18880,7 @@
         <v>'1063'</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>1064</v>
       </c>
